--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3.399999999999991</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>68.00000000000051</v>
+      </c>
       <c r="L12" t="n">
         <v>76.34</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.700000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>39.13043478260838</v>
+      </c>
       <c r="L13" t="n">
         <v>76.47999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>4.200000000000003</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>48.14814814814799</v>
+      </c>
       <c r="L14" t="n">
         <v>76.61999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4.299999999999997</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>40.7407407407407</v>
+      </c>
       <c r="L15" t="n">
         <v>76.73999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>4.299999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>40.7407407407407</v>
+      </c>
       <c r="L16" t="n">
         <v>76.84999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>4.399999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.99999999999972</v>
+      </c>
       <c r="L17" t="n">
         <v>76.97</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4.399999999999991</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>11.11111111111058</v>
+      </c>
       <c r="L18" t="n">
         <v>77.01000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.699999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-29.41176470588255</v>
+      </c>
       <c r="L19" t="n">
         <v>77</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.799999999999983</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-24.99999999999978</v>
+      </c>
       <c r="L20" t="n">
         <v>76.94000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.999999999999986</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25.00000000000044</v>
+      </c>
       <c r="L21" t="n">
         <v>76.88000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.199999999999989</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>76.82000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.199999999999989</v>
       </c>
       <c r="K23" t="n">
-        <v>25.58139534883718</v>
+        <v>-80.00000000000085</v>
       </c>
       <c r="L23" t="n">
         <v>76.78999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>5.199999999999989</v>
       </c>
       <c r="K24" t="n">
-        <v>15.78947368421045</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L24" t="n">
         <v>76.70999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>7.692307692307636</v>
+        <v>-81.81818181818275</v>
       </c>
       <c r="L25" t="n">
         <v>76.61999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K26" t="n">
-        <v>24.99999999999985</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>76.63</v>
@@ -1613,7 +1635,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K27" t="n">
-        <v>24.99999999999985</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>76.63</v>
@@ -1662,7 +1684,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K28" t="n">
-        <v>18.18181818181815</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>76.66999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571419</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L29" t="n">
         <v>76.73999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K30" t="n">
-        <v>5.263157894736921</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L30" t="n">
         <v>76.81999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>5.263157894736921</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L31" t="n">
         <v>76.89999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>7.200000000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>15.78947368421033</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L32" t="n">
         <v>77.02</v>
@@ -1911,7 +1933,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>27.77777777777782</v>
+        <v>61.90476190476152</v>
       </c>
       <c r="L33" t="n">
         <v>77.15000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K34" t="n">
-        <v>18.75000000000025</v>
+        <v>79.99999999999986</v>
       </c>
       <c r="L34" t="n">
         <v>77.29000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>7.5</v>
       </c>
       <c r="K35" t="n">
-        <v>24.99999999999989</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L35" t="n">
         <v>77.46000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>29.41176470588231</v>
+        <v>69.23076923076906</v>
       </c>
       <c r="L36" t="n">
         <v>77.55</v>
@@ -2115,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L37" t="n">
         <v>77.66999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>8.200000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>36.84210526315793</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L38" t="n">
         <v>77.77</v>
@@ -2217,7 +2239,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35135135135127</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L39" t="n">
         <v>77.89</v>
@@ -2268,7 +2290,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K40" t="n">
-        <v>55.5555555555552</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>78.01000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K41" t="n">
-        <v>64.70588235294088</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>78.15000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35135135135127</v>
+        <v>37.50000000000033</v>
       </c>
       <c r="L42" t="n">
         <v>78.22000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K43" t="n">
-        <v>36.58536585365834</v>
+        <v>5.263157894736527</v>
       </c>
       <c r="L43" t="n">
         <v>78.24000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>9.300000000000011</v>
       </c>
       <c r="K44" t="n">
-        <v>36.58536585365834</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>78.25</v>
@@ -2523,7 +2545,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K45" t="n">
-        <v>36.58536585365834</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L45" t="n">
         <v>78.23</v>
@@ -2574,7 +2596,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K46" t="n">
-        <v>16.1290322580644</v>
+        <v>-46.66666666666642</v>
       </c>
       <c r="L46" t="n">
         <v>78.19000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>9.500000000000014</v>
       </c>
       <c r="K47" t="n">
-        <v>16.1290322580644</v>
+        <v>-69.23076923076906</v>
       </c>
       <c r="L47" t="n">
         <v>78.12000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>9.700000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.448275862068763</v>
+        <v>-100</v>
       </c>
       <c r="L48" t="n">
         <v>78.01000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-12.50000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L49" t="n">
         <v>77.85000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>10.10000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090908934</v>
+        <v>-88.23529411764618</v>
       </c>
       <c r="L50" t="n">
         <v>77.70000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>8.571428571428456</v>
+        <v>-37.50000000000033</v>
       </c>
       <c r="L51" t="n">
         <v>77.59</v>
@@ -2880,7 +2902,7 @@
         <v>11.2</v>
       </c>
       <c r="K52" t="n">
-        <v>-14.99999999999986</v>
+        <v>-47.36842105263134</v>
       </c>
       <c r="L52" t="n">
         <v>77.46000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>-19.99999999999986</v>
+        <v>-50</v>
       </c>
       <c r="L53" t="n">
         <v>77.36</v>
@@ -2982,7 +3004,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.62790697674416</v>
+        <v>-18.18181818181777</v>
       </c>
       <c r="L54" t="n">
         <v>77.30000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-14.28571428571409</v>
+        <v>-18.18181818181777</v>
       </c>
       <c r="L55" t="n">
         <v>77.26000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.99999999999986</v>
+        <v>-18.18181818181777</v>
       </c>
       <c r="L56" t="n">
         <v>77.22000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>21.31147540983599</v>
+        <v>49.99999999999968</v>
       </c>
       <c r="L57" t="n">
         <v>77.42000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>16.8</v>
       </c>
       <c r="K58" t="n">
-        <v>-18.60465116279065</v>
+        <v>-2.941176470588075</v>
       </c>
       <c r="L58" t="n">
         <v>77.37000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-17.24137931034485</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>77.38000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>17.8</v>
       </c>
       <c r="K60" t="n">
-        <v>-8.510638297872317</v>
+        <v>4.109589041096056</v>
       </c>
       <c r="L60" t="n">
         <v>77.45000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>18.39999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.000000000000031</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L61" t="n">
         <v>77.54000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>18.69999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>18.91891891891905</v>
       </c>
       <c r="L62" t="n">
         <v>77.67000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>1.030927835051637</v>
+        <v>9.58904109589049</v>
       </c>
       <c r="L63" t="n">
         <v>77.78000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>5.882352941176569</v>
+        <v>15.38461538461548</v>
       </c>
       <c r="L64" t="n">
         <v>77.90000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>8.000000000000137</v>
+        <v>15.38461538461548</v>
       </c>
       <c r="L65" t="n">
         <v>78.02000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>19.8</v>
       </c>
       <c r="K66" t="n">
-        <v>4.854368932038843</v>
+        <v>-26.31578947368427</v>
       </c>
       <c r="L66" t="n">
         <v>78.11</v>
@@ -3645,7 +3667,7 @@
         <v>20.19999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9345794392524185</v>
+        <v>23.52941176470586</v>
       </c>
       <c r="L67" t="n">
         <v>77.92</v>
@@ -3696,7 +3718,7 @@
         <v>20.49999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>5.555555555555512</v>
+        <v>23.52941176470586</v>
       </c>
       <c r="L68" t="n">
         <v>78.03</v>
@@ -3747,7 +3769,7 @@
         <v>20.89999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>11.92660550458729</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L69" t="n">
         <v>78.15000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>20.89999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111117</v>
+        <v>-3.999999999999773</v>
       </c>
       <c r="L70" t="n">
         <v>78.2</v>
@@ -3849,7 +3871,7 @@
         <v>21.59999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9009009009009793</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L71" t="n">
         <v>78.12</v>
@@ -3900,7 +3922,7 @@
         <v>22.09999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>11.92660550458714</v>
+        <v>9.677419354838591</v>
       </c>
       <c r="L72" t="n">
         <v>78.12</v>
@@ -3951,7 +3973,7 @@
         <v>22.7</v>
       </c>
       <c r="K73" t="n">
-        <v>7.017543859649103</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L73" t="n">
         <v>78.09</v>
@@ -4002,7 +4024,7 @@
         <v>22.7</v>
       </c>
       <c r="K74" t="n">
-        <v>3.636363636363563</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L74" t="n">
         <v>78.01000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>22.89999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>1.785714285714315</v>
+        <v>-22.58064516129</v>
       </c>
       <c r="L75" t="n">
         <v>77.91000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>23.2</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.8695652173913796</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L76" t="n">
         <v>77.81000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>23.30000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-26.08695652173903</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L77" t="n">
         <v>77.76000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>3.030303030302848</v>
+        <v>-51.99999999999987</v>
       </c>
       <c r="L78" t="n">
         <v>77.67000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>23.50000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.125000000000035</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L79" t="n">
         <v>77.53000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>23.80000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-20</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L80" t="n">
         <v>77.36000000000003</v>
@@ -4359,7 +4381,7 @@
         <v>24.10000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-26.31578947368413</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L81" t="n">
         <v>77.29000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>24.30000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.85714285714279</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L82" t="n">
         <v>77.19000000000003</v>
@@ -4461,7 +4483,7 @@
         <v>24.60000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-17.85714285714279</v>
+        <v>-36.84210526315719</v>
       </c>
       <c r="L83" t="n">
         <v>77.12000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>-30.76923076923075</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>77.04000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>24.80000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-32.07547169811311</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L85" t="n">
         <v>76.97000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>25.00000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-30.76923076923056</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L86" t="n">
         <v>76.91000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>25.10000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>-26.5306122448978</v>
+        <v>-41.1764705882349</v>
       </c>
       <c r="L87" t="n">
         <v>76.83000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>25.2</v>
       </c>
       <c r="K88" t="n">
-        <v>-31.91489361702116</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L88" t="n">
         <v>76.77000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>25.2</v>
       </c>
       <c r="K89" t="n">
-        <v>-44.18604651162792</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L89" t="n">
         <v>76.72</v>
@@ -4818,7 +4840,7 @@
         <v>25.60000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-31.91489361702116</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L90" t="n">
         <v>76.73999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>25.80000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-23.80952380952371</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>76.71000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>25.90000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>-42.10526315789468</v>
+        <v>-23.07692307692375</v>
       </c>
       <c r="L92" t="n">
         <v>76.65000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>25.90000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>-31.24999999999983</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L93" t="n">
         <v>76.62</v>
@@ -5022,7 +5044,7 @@
         <v>26.00000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333305</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L94" t="n">
         <v>76.59</v>
@@ -5073,7 +5095,7 @@
         <v>26.10000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-25.00000000000022</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L95" t="n">
         <v>76.58000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>26.10000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-17.24137931034479</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L96" t="n">
         <v>76.59</v>
@@ -5175,7 +5197,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.677419354838591</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>76.64000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-6.666666666666288</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>76.68000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-3.448275862068763</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>76.72</v>
@@ -5328,7 +5350,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>76.72</v>
@@ -5379,7 +5401,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.347826086956253</v>
+        <v>60.00000000000227</v>
       </c>
       <c r="L101" t="n">
         <v>76.73999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>7.692307692307776</v>
+        <v>80.00000000000114</v>
       </c>
       <c r="L102" t="n">
         <v>76.81999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>27.80000000000003</v>
       </c>
       <c r="K103" t="n">
-        <v>-12.50000000000011</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>76.80999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>28.00000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>-15.1515151515151</v>
+        <v>-15.78947368421021</v>
       </c>
       <c r="L104" t="n">
         <v>76.78999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>28.00000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>-12.50000000000011</v>
+        <v>-15.78947368421021</v>
       </c>
       <c r="L105" t="n">
         <v>76.75999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>28.10000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>-3.225806451612697</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L106" t="n">
         <v>76.73999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>28.10000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L107" t="n">
         <v>76.68999999999997</v>
@@ -5736,7 +5758,7 @@
         <v>28.70000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571417</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L108" t="n">
         <v>76.69999999999997</v>
@@ -5787,7 +5809,7 @@
         <v>28.70000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>14.28571428571417</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L109" t="n">
         <v>76.70999999999998</v>
@@ -5838,7 +5860,7 @@
         <v>28.70000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>3.225806451612697</v>
+        <v>4.347826086956253</v>
       </c>
       <c r="L110" t="n">
         <v>76.71999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>28.70000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>10.34482758620673</v>
+        <v>-22.2222222222224</v>
       </c>
       <c r="L111" t="n">
         <v>76.72999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>29.00000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>3.225806451613169</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L112" t="n">
         <v>76.66</v>
@@ -5991,7 +6013,7 @@
         <v>29.30000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>-5.882352941176126</v>
+        <v>7.692307692308365</v>
       </c>
       <c r="L113" t="n">
         <v>76.64999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>29.60000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>5.555555555555621</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L114" t="n">
         <v>76.69</v>
@@ -6093,7 +6115,7 @@
         <v>29.90000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.263157894736527</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>76.7</v>
@@ -6144,7 +6166,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>-7.692307692307581</v>
+        <v>-5.263157894737314</v>
       </c>
       <c r="L116" t="n">
         <v>76.69</v>
@@ -6195,7 +6217,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>-16.66666666666686</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L117" t="n">
         <v>76.67999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>-16.66666666666686</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L118" t="n">
         <v>76.60999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>-16.66666666666686</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L119" t="n">
         <v>76.53999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>30.00000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>-16.66666666666686</v>
+        <v>-53.84615384615419</v>
       </c>
       <c r="L120" t="n">
         <v>76.46999999999998</v>
@@ -6399,7 +6421,7 @@
         <v>30.20000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>-10.5263157894738</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L121" t="n">
         <v>76.41999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>30.80000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-7.692307692307973</v>
+        <v>46.6666666666659</v>
       </c>
       <c r="L122" t="n">
         <v>76.45999999999998</v>
@@ -6501,7 +6523,7 @@
         <v>30.80000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>19.99999999999981</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L123" t="n">
         <v>76.52999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>31.00000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>33.33333333333333</v>
+        <v>81.81818181818042</v>
       </c>
       <c r="L124" t="n">
         <v>76.58999999999997</v>
@@ -6603,7 +6625,7 @@
         <v>31.00000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>76.67999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>31.20000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>22.58064516129</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L126" t="n">
         <v>76.75999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>31.20000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>22.58064516129</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L127" t="n">
         <v>76.83999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>31.50000000000004</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571443</v>
+        <v>73.3333333333332</v>
       </c>
       <c r="L128" t="n">
         <v>76.94999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>31.60000000000004</v>
       </c>
       <c r="K129" t="n">
-        <v>17.24137931034479</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L129" t="n">
         <v>77.06999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>31.60000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>17.24137931034479</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L130" t="n">
         <v>77.19</v>
@@ -6909,7 +6931,7 @@
         <v>31.60000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>17.24137931034479</v>
+        <v>50</v>
       </c>
       <c r="L131" t="n">
         <v>77.28999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>33.33333333333298</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L132" t="n">
         <v>77.34</v>
@@ -7011,7 +7033,7 @@
         <v>32.10000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>28.5714285714285</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L133" t="n">
         <v>77.34999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>33.33333333333333</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L134" t="n">
         <v>77.39000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>32.70000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>42.85714285714228</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>77.42000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>32.70000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>48.14814814814799</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>77.47000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>32.70000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>48.14814814814799</v>
+        <v>16.66666666666588</v>
       </c>
       <c r="L137" t="n">
         <v>77.52000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>32.80000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>77.53000000000002</v>
@@ -7317,7 +7339,7 @@
         <v>32.90000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>44.82758620689658</v>
+        <v>7.692307692307356</v>
       </c>
       <c r="L139" t="n">
         <v>77.54000000000002</v>
@@ -7368,7 +7390,7 @@
         <v>33.20000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>50.00000000000022</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L140" t="n">
         <v>77.58000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K141" t="n">
-        <v>37.50000000000006</v>
+        <v>5.882352941176962</v>
       </c>
       <c r="L141" t="n">
         <v>77.60000000000002</v>
@@ -7470,7 +7492,7 @@
         <v>33.50000000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>18.5185185185184</v>
+        <v>28.57142857142755</v>
       </c>
       <c r="L142" t="n">
         <v>77.60000000000002</v>
@@ -7521,7 +7543,7 @@
         <v>33.60000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>21.42857142857154</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>77.65000000000002</v>
@@ -7572,7 +7594,7 @@
         <v>34.20000000000006</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.250000000000028</v>
+        <v>-33.3333333333327</v>
       </c>
       <c r="L144" t="n">
         <v>77.59000000000002</v>
@@ -7623,7 +7645,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K145" t="n">
-        <v>-9.090909090908934</v>
+        <v>-37.49999999999911</v>
       </c>
       <c r="L145" t="n">
         <v>77.53000000000002</v>
@@ -7674,7 +7696,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K146" t="n">
-        <v>-3.225806451612697</v>
+        <v>-37.49999999999911</v>
       </c>
       <c r="L146" t="n">
         <v>77.47000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K147" t="n">
-        <v>-3.225806451612697</v>
+        <v>-33.3333333333327</v>
       </c>
       <c r="L147" t="n">
         <v>77.41000000000001</v>
@@ -7776,7 +7798,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571443</v>
+        <v>-42.8571428571414</v>
       </c>
       <c r="L148" t="n">
         <v>77.36000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K149" t="n">
-        <v>-18.5185185185184</v>
+        <v>-81.81818181818065</v>
       </c>
       <c r="L149" t="n">
         <v>77.30000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K150" t="n">
-        <v>-18.5185185185184</v>
+        <v>-77.77777777777636</v>
       </c>
       <c r="L150" t="n">
         <v>77.21000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K151" t="n">
-        <v>-18.5185185185184</v>
+        <v>-74.99999999999822</v>
       </c>
       <c r="L151" t="n">
         <v>77.14000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K152" t="n">
-        <v>-23.07692307692266</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>77.08000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>34.30000000000005</v>
       </c>
       <c r="K153" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>77.01000000000001</v>
@@ -8081,9 +8103,7 @@
       <c r="J154" t="n">
         <v>34.30000000000005</v>
       </c>
-      <c r="K154" t="n">
-        <v>-41.17647058823471</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>77</v>
       </c>
@@ -8133,7 +8153,7 @@
         <v>34.40000000000005</v>
       </c>
       <c r="K155" t="n">
-        <v>-41.17647058823421</v>
+        <v>-100</v>
       </c>
       <c r="L155" t="n">
         <v>76.98999999999999</v>
@@ -8184,7 +8204,7 @@
         <v>34.50000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>-44.44444444444365</v>
+        <v>-100</v>
       </c>
       <c r="L156" t="n">
         <v>76.97</v>
@@ -8235,7 +8255,7 @@
         <v>34.50000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>-44.44444444444365</v>
+        <v>-100</v>
       </c>
       <c r="L157" t="n">
         <v>76.94999999999999</v>
@@ -8286,7 +8306,7 @@
         <v>34.90000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>-14.2857142857139</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>76.97</v>
@@ -8337,7 +8357,7 @@
         <v>35.00000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>-14.2857142857139</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L159" t="n">
         <v>76.99999999999999</v>
@@ -8388,7 +8408,7 @@
         <v>35.40000000000005</v>
       </c>
       <c r="K160" t="n">
-        <v>-45.45454545454511</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L160" t="n">
         <v>76.98999999999998</v>
@@ -8439,7 +8459,7 @@
         <v>35.50000000000006</v>
       </c>
       <c r="K161" t="n">
-        <v>-42.85714285714267</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L161" t="n">
         <v>76.96999999999998</v>
@@ -8490,7 +8510,7 @@
         <v>36.20000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>-3.70370370370347</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L162" t="n">
         <v>77.01999999999998</v>
@@ -8541,7 +8561,7 @@
         <v>36.40000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>77.08999999999999</v>
@@ -8592,7 +8612,7 @@
         <v>36.50000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>30.43478260869582</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L164" t="n">
         <v>77.16999999999999</v>
@@ -8643,7 +8663,7 @@
         <v>36.80000000000005</v>
       </c>
       <c r="K165" t="n">
-        <v>43.99999999999977</v>
+        <v>56.52173913043473</v>
       </c>
       <c r="L165" t="n">
         <v>77.28999999999999</v>
@@ -8694,7 +8714,7 @@
         <v>37.40000000000005</v>
       </c>
       <c r="K166" t="n">
-        <v>16.12903225806455</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L166" t="n">
         <v>77.35999999999999</v>
@@ -8745,7 +8765,7 @@
         <v>37.50000000000004</v>
       </c>
       <c r="K167" t="n">
-        <v>12.50000000000022</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L167" t="n">
         <v>77.41999999999999</v>
@@ -8796,7 +8816,7 @@
         <v>37.60000000000005</v>
       </c>
       <c r="K168" t="n">
-        <v>9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>77.42999999999998</v>
@@ -8847,7 +8867,7 @@
         <v>37.70000000000006</v>
       </c>
       <c r="K169" t="n">
-        <v>11.76470588235309</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L169" t="n">
         <v>77.43999999999998</v>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S169"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,21 @@
         <v>74.94333333333319</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>74.5</v>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +492,21 @@
         <v>74.94666666666652</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9000000000000057</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9000000000000057</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,21 @@
         <v>74.95999999999985</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +574,21 @@
         <v>74.96499999999986</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>75.8</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,21 @@
         <v>74.97999999999985</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.600000000000009</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +659,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.600000000000009</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +698,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.400000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +737,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +776,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +815,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.200000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +854,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.399999999999991</v>
-      </c>
-      <c r="K12" t="n">
-        <v>68.00000000000051</v>
-      </c>
-      <c r="L12" t="n">
-        <v>76.34</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +893,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="K13" t="n">
-        <v>39.13043478260838</v>
-      </c>
-      <c r="L13" t="n">
-        <v>76.47999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +932,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="K14" t="n">
-        <v>48.14814814814799</v>
-      </c>
-      <c r="L14" t="n">
-        <v>76.61999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +971,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40.7407407407407</v>
-      </c>
-      <c r="L15" t="n">
-        <v>76.73999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1010,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="K16" t="n">
-        <v>40.7407407407407</v>
-      </c>
-      <c r="L16" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1049,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L17" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1088,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11.11111111111058</v>
-      </c>
-      <c r="L18" t="n">
-        <v>77.01000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1127,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.699999999999989</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-29.41176470588255</v>
-      </c>
-      <c r="L19" t="n">
-        <v>77</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1166,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.799999999999983</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-24.99999999999978</v>
-      </c>
-      <c r="L20" t="n">
-        <v>76.94000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1205,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.999999999999986</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-25.00000000000044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>76.88000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>76.47999999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1244,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.199999999999989</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>76.82000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>76.58</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1283,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.199999999999989</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-80.00000000000085</v>
-      </c>
-      <c r="L23" t="n">
-        <v>76.78999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>76.63499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1322,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.199999999999989</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-77.77777777777884</v>
-      </c>
-      <c r="L24" t="n">
-        <v>76.70999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>76.66499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1361,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.399999999999991</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-81.81818181818275</v>
-      </c>
-      <c r="L25" t="n">
-        <v>76.61999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>76.67999999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1400,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.399999999999991</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>76.63</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>76.73999999999998</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1439,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.399999999999991</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>76.63</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>76.79999999999997</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1478,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6.799999999999997</v>
-      </c>
-      <c r="K28" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>76.66999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>76.83999999999996</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1517,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6.799999999999997</v>
-      </c>
-      <c r="K29" t="n">
-        <v>39.99999999999957</v>
-      </c>
-      <c r="L29" t="n">
-        <v>76.73999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>76.86999999999996</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1556,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.799999999999997</v>
-      </c>
-      <c r="K30" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L30" t="n">
-        <v>76.81999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>76.87999999999997</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1595,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L31" t="n">
-        <v>76.89999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>76.88999999999996</v>
-      </c>
-      <c r="N31" t="n">
-        <v>76.61999999999998</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1634,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.200000000000003</v>
-      </c>
-      <c r="K32" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L32" t="n">
-        <v>77.02</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>76.91999999999996</v>
-      </c>
-      <c r="N32" t="n">
-        <v>76.72666666666665</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1673,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7.299999999999997</v>
-      </c>
-      <c r="K33" t="n">
-        <v>61.90476190476152</v>
-      </c>
-      <c r="L33" t="n">
-        <v>77.15000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>76.96999999999996</v>
-      </c>
-      <c r="N33" t="n">
-        <v>76.80666666666664</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1712,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.400000000000006</v>
-      </c>
-      <c r="K34" t="n">
-        <v>79.99999999999986</v>
-      </c>
-      <c r="L34" t="n">
-        <v>77.29000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>76.99999999999997</v>
-      </c>
-      <c r="N34" t="n">
-        <v>76.87333333333331</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1751,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>63.6363636363634</v>
-      </c>
-      <c r="L35" t="n">
-        <v>77.46000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>77.03999999999996</v>
-      </c>
-      <c r="N35" t="n">
-        <v>76.93999999999998</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1790,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7.700000000000003</v>
-      </c>
-      <c r="K36" t="n">
-        <v>69.23076923076906</v>
-      </c>
-      <c r="L36" t="n">
-        <v>77.55</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>77.08999999999996</v>
-      </c>
-      <c r="N36" t="n">
-        <v>77.00999999999998</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1829,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L37" t="n">
-        <v>77.66999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>77.14999999999996</v>
-      </c>
-      <c r="N37" t="n">
-        <v>77.08999999999997</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1868,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8.200000000000003</v>
-      </c>
-      <c r="K38" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L38" t="n">
-        <v>77.77</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>77.21999999999997</v>
-      </c>
-      <c r="N38" t="n">
-        <v>77.14999999999999</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,30 +1907,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8.400000000000006</v>
-      </c>
-      <c r="K39" t="n">
-        <v>74.99999999999977</v>
-      </c>
-      <c r="L39" t="n">
-        <v>77.89</v>
-      </c>
-      <c r="M39" t="n">
-        <v>77.31499999999997</v>
-      </c>
-      <c r="N39" t="n">
-        <v>77.20999999999998</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2284,28 +1944,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8.400000000000006</v>
-      </c>
-      <c r="K40" t="n">
-        <v>100</v>
-      </c>
-      <c r="L40" t="n">
-        <v>78.01000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>77.41499999999998</v>
-      </c>
-      <c r="N40" t="n">
-        <v>77.25666666666663</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1979,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.400000000000006</v>
-      </c>
-      <c r="K41" t="n">
-        <v>100</v>
-      </c>
-      <c r="L41" t="n">
-        <v>78.15000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>77.52499999999998</v>
-      </c>
-      <c r="N41" t="n">
-        <v>77.30999999999996</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2014,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.900000000000006</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.900000000000006</v>
-      </c>
-      <c r="K42" t="n">
-        <v>37.50000000000033</v>
-      </c>
-      <c r="L42" t="n">
-        <v>78.22000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>77.61999999999998</v>
-      </c>
-      <c r="N42" t="n">
-        <v>77.35333333333328</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2049,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9.300000000000011</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5.263157894736527</v>
-      </c>
-      <c r="L43" t="n">
-        <v>78.24000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>77.69499999999998</v>
-      </c>
-      <c r="N43" t="n">
-        <v>77.39333333333329</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2084,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.300000000000011</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>78.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>77.76999999999998</v>
-      </c>
-      <c r="N44" t="n">
-        <v>77.41666666666664</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2119,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.500000000000014</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-22.2222222222224</v>
-      </c>
-      <c r="L45" t="n">
-        <v>78.23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>77.84499999999998</v>
-      </c>
-      <c r="N45" t="n">
-        <v>77.43666666666664</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2154,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J46" t="n">
-        <v>9.500000000000014</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-46.66666666666642</v>
-      </c>
-      <c r="L46" t="n">
-        <v>78.19000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>77.86999999999998</v>
-      </c>
-      <c r="N46" t="n">
-        <v>77.45666666666664</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2189,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9.500000000000014</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-69.23076923076906</v>
-      </c>
-      <c r="L47" t="n">
-        <v>78.12000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>77.89499999999998</v>
-      </c>
-      <c r="N47" t="n">
-        <v>77.4733333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2224,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9.700000000000003</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L48" t="n">
-        <v>78.01000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>77.88999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>77.48333333333331</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2259,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J49" t="n">
-        <v>10.00000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L49" t="n">
-        <v>77.85000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>77.86999999999998</v>
-      </c>
-      <c r="N49" t="n">
-        <v>77.4933333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2294,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J50" t="n">
-        <v>10.10000000000002</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-88.23529411764618</v>
-      </c>
-      <c r="L50" t="n">
-        <v>77.70000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>77.85499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>77.50999999999996</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2329,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10.50000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-37.50000000000033</v>
-      </c>
-      <c r="L51" t="n">
-        <v>77.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>77.86999999999998</v>
-      </c>
-      <c r="N51" t="n">
-        <v>77.54666666666662</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2364,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-47.36842105263134</v>
-      </c>
-      <c r="L52" t="n">
-        <v>77.46000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>77.83999999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>77.56666666666662</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2399,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11.30000000000001</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L53" t="n">
-        <v>77.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>77.79999999999998</v>
-      </c>
-      <c r="N53" t="n">
-        <v>77.58333333333329</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2434,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J54" t="n">
-        <v>11.70000000000002</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-18.18181818181777</v>
-      </c>
-      <c r="L54" t="n">
-        <v>77.30000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>77.77499999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>77.61333333333327</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2469,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.70000000000002</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-18.18181818181777</v>
-      </c>
-      <c r="L55" t="n">
-        <v>77.26000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>77.74499999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>77.64999999999993</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2504,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J56" t="n">
-        <v>11.70000000000002</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-18.18181818181777</v>
-      </c>
-      <c r="L56" t="n">
-        <v>77.22000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>77.705</v>
-      </c>
-      <c r="N56" t="n">
-        <v>77.65333333333326</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2539,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5.299999999999997</v>
-      </c>
-      <c r="J57" t="n">
-        <v>14.10000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>49.99999999999968</v>
-      </c>
-      <c r="L57" t="n">
-        <v>77.42000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="N57" t="n">
-        <v>77.73666666666661</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2574,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J58" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-2.941176470588075</v>
-      </c>
-      <c r="L58" t="n">
-        <v>77.37000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="N58" t="n">
-        <v>77.71666666666661</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2609,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J59" t="n">
-        <v>17.09999999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>77.38000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>77.61499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>77.70666666666661</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2644,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.600000000000009</v>
-      </c>
-      <c r="J60" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.109589041096056</v>
-      </c>
-      <c r="L60" t="n">
-        <v>77.45000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>77.575</v>
-      </c>
-      <c r="N60" t="n">
-        <v>77.71999999999994</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2679,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J61" t="n">
-        <v>18.39999999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>22.22222222222218</v>
-      </c>
-      <c r="L61" t="n">
-        <v>77.54000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>77.565</v>
-      </c>
-      <c r="N61" t="n">
-        <v>77.75999999999993</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2714,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>3.900000000000006</v>
-      </c>
-      <c r="J62" t="n">
-        <v>18.69999999999999</v>
-      </c>
-      <c r="K62" t="n">
-        <v>18.91891891891905</v>
-      </c>
-      <c r="L62" t="n">
-        <v>77.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>77.565</v>
-      </c>
-      <c r="N62" t="n">
-        <v>77.78333333333326</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2749,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3.600000000000009</v>
-      </c>
-      <c r="J63" t="n">
-        <v>18.99999999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.58904109589049</v>
-      </c>
-      <c r="L63" t="n">
-        <v>77.78000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>77.57000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>77.79333333333327</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2784,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="J64" t="n">
-        <v>19.49999999999999</v>
-      </c>
-      <c r="K64" t="n">
-        <v>15.38461538461548</v>
-      </c>
-      <c r="L64" t="n">
-        <v>77.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>77.81666666666661</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2819,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="J65" t="n">
-        <v>19.49999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>15.38461538461548</v>
-      </c>
-      <c r="L65" t="n">
-        <v>78.02000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>77.64000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>77.8366666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2854,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J66" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-26.31578947368427</v>
-      </c>
-      <c r="L66" t="n">
-        <v>78.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>77.66500000000002</v>
-      </c>
-      <c r="N66" t="n">
-        <v>77.83999999999993</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2889,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J67" t="n">
-        <v>20.19999999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>23.52941176470586</v>
-      </c>
-      <c r="L67" t="n">
-        <v>77.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>77.67000000000003</v>
-      </c>
-      <c r="N67" t="n">
-        <v>77.81999999999992</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2924,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J68" t="n">
-        <v>20.49999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>23.52941176470586</v>
-      </c>
-      <c r="L68" t="n">
-        <v>78.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>77.70000000000002</v>
-      </c>
-      <c r="N68" t="n">
-        <v>77.80333333333326</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2959,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="J69" t="n">
-        <v>20.89999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>16.12903225806455</v>
-      </c>
-      <c r="L69" t="n">
-        <v>78.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>77.76500000000003</v>
-      </c>
-      <c r="N69" t="n">
-        <v>77.79333333333327</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2994,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="J70" t="n">
-        <v>20.89999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-3.999999999999773</v>
-      </c>
-      <c r="L70" t="n">
-        <v>78.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>77.82500000000003</v>
-      </c>
-      <c r="N70" t="n">
-        <v>77.78333333333327</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3029,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J71" t="n">
-        <v>21.59999999999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-17.24137931034479</v>
-      </c>
-      <c r="L71" t="n">
-        <v>78.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>77.83000000000004</v>
-      </c>
-      <c r="N71" t="n">
-        <v>77.74999999999994</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3064,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3.900000000000006</v>
-      </c>
-      <c r="J72" t="n">
-        <v>22.09999999999999</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9.677419354838591</v>
-      </c>
-      <c r="L72" t="n">
-        <v>78.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>77.89500000000004</v>
-      </c>
-      <c r="N72" t="n">
-        <v>77.74999999999994</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3099,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-25.00000000000022</v>
-      </c>
-      <c r="L73" t="n">
-        <v>78.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>77.93500000000003</v>
-      </c>
-      <c r="N73" t="n">
-        <v>77.74333333333327</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3134,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J74" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-25.00000000000022</v>
-      </c>
-      <c r="L74" t="n">
-        <v>78.01000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>77.95500000000003</v>
-      </c>
-      <c r="N74" t="n">
-        <v>77.73666666666659</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3169,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J75" t="n">
-        <v>22.89999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-22.58064516129</v>
-      </c>
-      <c r="L75" t="n">
-        <v>77.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>77.96500000000003</v>
-      </c>
-      <c r="N75" t="n">
-        <v>77.72999999999993</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3204,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J76" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-20.00000000000019</v>
-      </c>
-      <c r="L76" t="n">
-        <v>77.81000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>77.96000000000002</v>
-      </c>
-      <c r="N76" t="n">
-        <v>77.71333333333327</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3239,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J77" t="n">
-        <v>23.30000000000001</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-28.57142857142821</v>
-      </c>
-      <c r="L77" t="n">
-        <v>77.76000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>77.84000000000003</v>
-      </c>
-      <c r="N77" t="n">
-        <v>77.69999999999992</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3274,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J78" t="n">
-        <v>23.40000000000002</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-51.99999999999987</v>
-      </c>
-      <c r="L78" t="n">
-        <v>77.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>77.85000000000002</v>
-      </c>
-      <c r="N78" t="n">
-        <v>77.68999999999991</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3309,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J79" t="n">
-        <v>23.50000000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-53.8461538461536</v>
-      </c>
-      <c r="L79" t="n">
-        <v>77.53000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>77.84000000000002</v>
-      </c>
-      <c r="N79" t="n">
-        <v>77.68666666666658</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3344,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J80" t="n">
-        <v>23.80000000000001</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-45.45454545454511</v>
-      </c>
-      <c r="L80" t="n">
-        <v>77.36000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>77.78000000000002</v>
-      </c>
-      <c r="N80" t="n">
-        <v>77.66999999999992</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3379,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>24.10000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-59.99999999999972</v>
-      </c>
-      <c r="L81" t="n">
-        <v>77.29000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>77.70500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>77.64999999999992</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3414,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J82" t="n">
-        <v>24.30000000000001</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-24.99999999999933</v>
-      </c>
-      <c r="L82" t="n">
-        <v>77.19000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>77.65500000000002</v>
-      </c>
-      <c r="N82" t="n">
-        <v>77.65999999999991</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3449,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J83" t="n">
-        <v>24.60000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-36.84210526315719</v>
-      </c>
-      <c r="L83" t="n">
-        <v>77.12000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>77.60500000000002</v>
-      </c>
-      <c r="N83" t="n">
-        <v>77.66333333333324</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3484,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>24.70000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>77.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>77.52500000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>77.64999999999992</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3519,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J85" t="n">
-        <v>24.80000000000001</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-24.99999999999933</v>
-      </c>
-      <c r="L85" t="n">
-        <v>76.97000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>77.44000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>77.63333333333325</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3554,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J86" t="n">
-        <v>25.00000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-41.17647058823539</v>
-      </c>
-      <c r="L86" t="n">
-        <v>76.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>77.36000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>77.60999999999993</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3589,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J87" t="n">
-        <v>25.10000000000001</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-41.1764705882349</v>
-      </c>
-      <c r="L87" t="n">
-        <v>76.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>77.29500000000002</v>
-      </c>
-      <c r="N87" t="n">
-        <v>77.50333333333327</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3624,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J88" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-29.41176470588255</v>
-      </c>
-      <c r="L88" t="n">
-        <v>76.77000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>77.22000000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>77.48999999999994</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3659,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J89" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L89" t="n">
-        <v>76.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>77.12500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>77.46666666666661</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3694,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25.60000000000001</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-6.666666666666288</v>
-      </c>
-      <c r="L90" t="n">
-        <v>76.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>77.05000000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>77.43333333333327</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3729,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J91" t="n">
-        <v>25.80000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>76.71000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>77.00000000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>77.37333333333326</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3764,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J92" t="n">
-        <v>25.90000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-23.07692307692375</v>
-      </c>
-      <c r="L92" t="n">
-        <v>76.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>76.92</v>
-      </c>
-      <c r="N92" t="n">
-        <v>77.31999999999994</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3799,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J93" t="n">
-        <v>25.90000000000002</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L93" t="n">
-        <v>76.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>76.87</v>
-      </c>
-      <c r="N93" t="n">
-        <v>77.2766666666666</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3834,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J94" t="n">
-        <v>26.00000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L94" t="n">
-        <v>76.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>76.81500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>77.21333333333327</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3869,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J95" t="n">
-        <v>26.10000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>9.090909090908621</v>
-      </c>
-      <c r="L95" t="n">
-        <v>76.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>76.77500000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>77.15333333333325</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3904,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J96" t="n">
-        <v>26.10000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>19.99999999999886</v>
-      </c>
-      <c r="L96" t="n">
-        <v>76.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>76.75</v>
-      </c>
-      <c r="N96" t="n">
-        <v>77.10333333333325</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3939,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J97" t="n">
-        <v>26.40000000000002</v>
-      </c>
-      <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>76.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>76.735</v>
-      </c>
-      <c r="N97" t="n">
-        <v>77.0766666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3974,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J98" t="n">
-        <v>26.40000000000002</v>
-      </c>
-      <c r="K98" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>76.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>76.72500000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>77.03999999999994</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4009,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26.40000000000002</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>76.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>76.72000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>76.98999999999994</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4044,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J100" t="n">
-        <v>26.40000000000002</v>
-      </c>
-      <c r="K100" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L100" t="n">
-        <v>76.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>76.73000000000002</v>
-      </c>
-      <c r="N100" t="n">
-        <v>76.93999999999993</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4079,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J101" t="n">
-        <v>26.40000000000002</v>
-      </c>
-      <c r="K101" t="n">
-        <v>60.00000000000227</v>
-      </c>
-      <c r="L101" t="n">
-        <v>76.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>76.72500000000002</v>
-      </c>
-      <c r="N101" t="n">
-        <v>76.91333333333327</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4114,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J102" t="n">
-        <v>26.90000000000002</v>
-      </c>
-      <c r="K102" t="n">
-        <v>80.00000000000114</v>
-      </c>
-      <c r="L102" t="n">
-        <v>76.81999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>76.73500000000003</v>
-      </c>
-      <c r="N102" t="n">
-        <v>76.88666666666661</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4149,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J103" t="n">
-        <v>27.80000000000003</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>76.80999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>76.71500000000002</v>
-      </c>
-      <c r="N103" t="n">
-        <v>76.84999999999995</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4184,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>28.00000000000003</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-15.78947368421021</v>
-      </c>
-      <c r="L104" t="n">
-        <v>76.78999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>76.69000000000003</v>
-      </c>
-      <c r="N104" t="n">
-        <v>76.80666666666663</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4219,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>28.00000000000003</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-15.78947368421021</v>
-      </c>
-      <c r="L105" t="n">
-        <v>76.75999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>76.67000000000002</v>
-      </c>
-      <c r="N105" t="n">
-        <v>76.76999999999997</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4254,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J106" t="n">
-        <v>28.10000000000004</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-29.41176470588206</v>
-      </c>
-      <c r="L106" t="n">
-        <v>76.73999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>76.66500000000002</v>
-      </c>
-      <c r="N106" t="n">
-        <v>76.74666666666664</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4289,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J107" t="n">
-        <v>28.10000000000004</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-29.41176470588206</v>
-      </c>
-      <c r="L107" t="n">
-        <v>76.68999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>76.66500000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>76.71999999999998</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4324,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J108" t="n">
-        <v>28.70000000000003</v>
-      </c>
-      <c r="K108" t="n">
-        <v>4.347826086956253</v>
-      </c>
-      <c r="L108" t="n">
-        <v>76.69999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>76.69000000000003</v>
-      </c>
-      <c r="N108" t="n">
-        <v>76.71666666666665</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4359,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J109" t="n">
-        <v>28.70000000000003</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4.347826086956253</v>
-      </c>
-      <c r="L109" t="n">
-        <v>76.70999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>76.71500000000002</v>
-      </c>
-      <c r="N109" t="n">
-        <v>76.71666666666665</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4394,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J110" t="n">
-        <v>28.70000000000003</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4.347826086956253</v>
-      </c>
-      <c r="L110" t="n">
-        <v>76.71999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>76.72000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>76.72666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4429,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J111" t="n">
-        <v>28.70000000000003</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-22.2222222222224</v>
-      </c>
-      <c r="L111" t="n">
-        <v>76.72999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>76.73500000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>76.72666666666666</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4464,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J112" t="n">
-        <v>29.00000000000003</v>
-      </c>
-      <c r="K112" t="n">
-        <v>16.66666666666686</v>
-      </c>
-      <c r="L112" t="n">
-        <v>76.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>76.74000000000002</v>
-      </c>
-      <c r="N112" t="n">
-        <v>76.70999999999999</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4499,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J113" t="n">
-        <v>29.30000000000003</v>
-      </c>
-      <c r="K113" t="n">
-        <v>7.692307692308365</v>
-      </c>
-      <c r="L113" t="n">
-        <v>76.64999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>76.73000000000003</v>
-      </c>
-      <c r="N113" t="n">
-        <v>76.69333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4534,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>2.400000000000006</v>
-      </c>
-      <c r="J114" t="n">
-        <v>29.60000000000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L114" t="n">
-        <v>76.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>76.74000000000004</v>
-      </c>
-      <c r="N114" t="n">
-        <v>76.68999999999998</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4569,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J115" t="n">
-        <v>29.90000000000002</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>76.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>76.73000000000005</v>
-      </c>
-      <c r="N115" t="n">
-        <v>76.67999999999999</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4604,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>30.00000000000003</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-5.263157894737314</v>
-      </c>
-      <c r="L116" t="n">
-        <v>76.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>76.71500000000005</v>
-      </c>
-      <c r="N116" t="n">
-        <v>76.67333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4639,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>30.00000000000003</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-53.84615384615419</v>
-      </c>
-      <c r="L117" t="n">
-        <v>76.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>76.68500000000003</v>
-      </c>
-      <c r="N117" t="n">
-        <v>76.67</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4674,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>30.00000000000003</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-53.84615384615419</v>
-      </c>
-      <c r="L118" t="n">
-        <v>76.60999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>76.65500000000003</v>
-      </c>
-      <c r="N118" t="n">
-        <v>76.66333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4709,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>30.00000000000003</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-53.84615384615419</v>
-      </c>
-      <c r="L119" t="n">
-        <v>76.53999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>76.62500000000003</v>
-      </c>
-      <c r="N119" t="n">
-        <v>76.65666666666668</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4744,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
-      </c>
-      <c r="J120" t="n">
-        <v>30.00000000000003</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-53.84615384615419</v>
-      </c>
-      <c r="L120" t="n">
-        <v>76.46999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>76.59500000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>76.63666666666668</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4779,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J121" t="n">
-        <v>30.20000000000003</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L121" t="n">
-        <v>76.41999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>76.57500000000002</v>
-      </c>
-      <c r="N121" t="n">
-        <v>76.63000000000002</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4814,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J122" t="n">
-        <v>30.80000000000003</v>
-      </c>
-      <c r="K122" t="n">
-        <v>46.6666666666659</v>
-      </c>
-      <c r="L122" t="n">
-        <v>76.45999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="N122" t="n">
-        <v>76.64666666666669</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4849,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J123" t="n">
-        <v>30.80000000000003</v>
-      </c>
-      <c r="K123" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L123" t="n">
-        <v>76.52999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>76.59</v>
-      </c>
-      <c r="N123" t="n">
-        <v>76.66333333333336</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4884,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>31.00000000000003</v>
-      </c>
-      <c r="K124" t="n">
-        <v>81.81818181818042</v>
-      </c>
-      <c r="L124" t="n">
-        <v>76.58999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="N124" t="n">
-        <v>76.69000000000003</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4919,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
-      </c>
-      <c r="J125" t="n">
-        <v>31.00000000000003</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>76.67999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>76.69</v>
-      </c>
-      <c r="N125" t="n">
-        <v>76.71333333333337</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4954,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J126" t="n">
-        <v>31.20000000000003</v>
-      </c>
-      <c r="K126" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L126" t="n">
-        <v>76.75999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>76.72499999999999</v>
-      </c>
-      <c r="N126" t="n">
-        <v>76.73000000000003</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4989,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J127" t="n">
-        <v>31.20000000000003</v>
-      </c>
-      <c r="K127" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L127" t="n">
-        <v>76.83999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>76.75999999999998</v>
-      </c>
-      <c r="N127" t="n">
-        <v>76.73666666666669</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5024,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J128" t="n">
-        <v>31.50000000000004</v>
-      </c>
-      <c r="K128" t="n">
-        <v>73.3333333333332</v>
-      </c>
-      <c r="L128" t="n">
-        <v>76.94999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>76.77999999999999</v>
-      </c>
-      <c r="N128" t="n">
-        <v>76.75333333333336</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5059,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J129" t="n">
-        <v>31.60000000000004</v>
-      </c>
-      <c r="K129" t="n">
-        <v>74.99999999999977</v>
-      </c>
-      <c r="L129" t="n">
-        <v>77.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>76.80499999999998</v>
-      </c>
-      <c r="N129" t="n">
-        <v>76.77333333333335</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5094,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J130" t="n">
-        <v>31.60000000000004</v>
-      </c>
-      <c r="K130" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L130" t="n">
-        <v>77.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>76.82999999999998</v>
-      </c>
-      <c r="N130" t="n">
-        <v>76.79333333333335</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5129,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J131" t="n">
-        <v>31.60000000000004</v>
-      </c>
-      <c r="K131" t="n">
-        <v>50</v>
-      </c>
-      <c r="L131" t="n">
-        <v>77.28999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>76.85499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>76.81333333333335</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5164,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J132" t="n">
-        <v>31.70000000000003</v>
-      </c>
-      <c r="K132" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L132" t="n">
-        <v>77.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>76.89999999999998</v>
-      </c>
-      <c r="N132" t="n">
-        <v>76.82000000000001</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5199,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J133" t="n">
-        <v>32.10000000000002</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-9.090909090908621</v>
-      </c>
-      <c r="L133" t="n">
-        <v>77.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>76.93999999999997</v>
-      </c>
-      <c r="N133" t="n">
-        <v>76.84333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5234,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J134" t="n">
-        <v>32.60000000000002</v>
-      </c>
-      <c r="K134" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L134" t="n">
-        <v>77.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>76.98999999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>76.89</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5269,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J135" t="n">
-        <v>32.70000000000003</v>
-      </c>
-      <c r="K135" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>77.42000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>77.04999999999997</v>
-      </c>
-      <c r="N135" t="n">
-        <v>76.93333333333332</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5304,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J136" t="n">
-        <v>32.70000000000003</v>
-      </c>
-      <c r="K136" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L136" t="n">
-        <v>77.47000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>77.11499999999997</v>
-      </c>
-      <c r="N136" t="n">
-        <v>76.97333333333331</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5339,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J137" t="n">
-        <v>32.70000000000003</v>
-      </c>
-      <c r="K137" t="n">
-        <v>16.66666666666588</v>
-      </c>
-      <c r="L137" t="n">
-        <v>77.52000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>77.17999999999996</v>
-      </c>
-      <c r="N137" t="n">
-        <v>77.01333333333331</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5374,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J138" t="n">
-        <v>32.80000000000003</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>77.53000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>77.23999999999997</v>
-      </c>
-      <c r="N138" t="n">
-        <v>77.02999999999997</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5409,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J139" t="n">
-        <v>32.90000000000002</v>
-      </c>
-      <c r="K139" t="n">
-        <v>7.692307692307356</v>
-      </c>
-      <c r="L139" t="n">
-        <v>77.54000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>77.30499999999996</v>
-      </c>
-      <c r="N139" t="n">
-        <v>77.04999999999997</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5444,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>3.600000000000009</v>
-      </c>
-      <c r="J140" t="n">
-        <v>33.20000000000003</v>
-      </c>
-      <c r="K140" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L140" t="n">
-        <v>77.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>77.38499999999996</v>
-      </c>
-      <c r="N140" t="n">
-        <v>77.07999999999997</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5479,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J141" t="n">
-        <v>33.40000000000003</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5.882352941176962</v>
-      </c>
-      <c r="L141" t="n">
-        <v>77.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>77.44499999999996</v>
-      </c>
-      <c r="N141" t="n">
-        <v>77.1033333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5514,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>3.299999999999997</v>
-      </c>
-      <c r="J142" t="n">
-        <v>33.50000000000004</v>
-      </c>
-      <c r="K142" t="n">
-        <v>28.57142857142755</v>
-      </c>
-      <c r="L142" t="n">
-        <v>77.60000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>77.46999999999997</v>
-      </c>
-      <c r="N142" t="n">
-        <v>77.1333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5549,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J143" t="n">
-        <v>33.60000000000005</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>77.65000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>77.49999999999997</v>
-      </c>
-      <c r="N143" t="n">
-        <v>77.17666666666663</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5584,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J144" t="n">
-        <v>34.20000000000006</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-33.3333333333327</v>
-      </c>
-      <c r="L144" t="n">
-        <v>77.59000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>77.48999999999998</v>
-      </c>
-      <c r="N144" t="n">
-        <v>77.18999999999997</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5619,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J145" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-37.49999999999911</v>
-      </c>
-      <c r="L145" t="n">
-        <v>77.53000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>77.47499999999998</v>
-      </c>
-      <c r="N145" t="n">
-        <v>77.20999999999997</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5654,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J146" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-37.49999999999911</v>
-      </c>
-      <c r="L146" t="n">
-        <v>77.47000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>77.46999999999998</v>
-      </c>
-      <c r="N146" t="n">
-        <v>77.23333333333329</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5689,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J147" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-33.3333333333327</v>
-      </c>
-      <c r="L147" t="n">
-        <v>77.41000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>77.46499999999999</v>
-      </c>
-      <c r="N147" t="n">
-        <v>77.25666666666662</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,1097 +5724,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J148" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-42.8571428571414</v>
-      </c>
-      <c r="L148" t="n">
-        <v>77.36000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>77.44499999999998</v>
-      </c>
-      <c r="N148" t="n">
-        <v>77.27999999999994</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>77</v>
-      </c>
-      <c r="C149" t="n">
-        <v>77</v>
-      </c>
-      <c r="D149" t="n">
-        <v>77</v>
-      </c>
-      <c r="E149" t="n">
-        <v>77</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1210.2581</v>
-      </c>
-      <c r="G149" t="n">
-        <v>76.97999999999993</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J149" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-81.81818181818065</v>
-      </c>
-      <c r="L149" t="n">
-        <v>77.30000000000001</v>
-      </c>
-      <c r="M149" t="n">
-        <v>77.41999999999999</v>
-      </c>
-      <c r="N149" t="n">
-        <v>77.30333333333327</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>77</v>
-      </c>
-      <c r="C150" t="n">
-        <v>77</v>
-      </c>
-      <c r="D150" t="n">
-        <v>77</v>
-      </c>
-      <c r="E150" t="n">
-        <v>77</v>
-      </c>
-      <c r="F150" t="n">
-        <v>13142</v>
-      </c>
-      <c r="G150" t="n">
-        <v>76.9816666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J150" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-77.77777777777636</v>
-      </c>
-      <c r="L150" t="n">
-        <v>77.21000000000001</v>
-      </c>
-      <c r="M150" t="n">
-        <v>77.39499999999998</v>
-      </c>
-      <c r="N150" t="n">
-        <v>77.3266666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>77</v>
-      </c>
-      <c r="C151" t="n">
-        <v>77</v>
-      </c>
-      <c r="D151" t="n">
-        <v>77</v>
-      </c>
-      <c r="E151" t="n">
-        <v>77</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16473</v>
-      </c>
-      <c r="G151" t="n">
-        <v>76.98666666666661</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J151" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-74.99999999999822</v>
-      </c>
-      <c r="L151" t="n">
-        <v>77.14000000000001</v>
-      </c>
-      <c r="M151" t="n">
-        <v>77.36999999999998</v>
-      </c>
-      <c r="N151" t="n">
-        <v>77.34333333333326</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>77</v>
-      </c>
-      <c r="C152" t="n">
-        <v>77</v>
-      </c>
-      <c r="D152" t="n">
-        <v>77</v>
-      </c>
-      <c r="E152" t="n">
-        <v>77</v>
-      </c>
-      <c r="F152" t="n">
-        <v>100</v>
-      </c>
-      <c r="G152" t="n">
-        <v>76.99333333333327</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J152" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>77.08000000000001</v>
-      </c>
-      <c r="M152" t="n">
-        <v>77.33999999999999</v>
-      </c>
-      <c r="N152" t="n">
-        <v>77.33999999999993</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>77</v>
-      </c>
-      <c r="C153" t="n">
-        <v>77</v>
-      </c>
-      <c r="D153" t="n">
-        <v>77</v>
-      </c>
-      <c r="E153" t="n">
-        <v>77</v>
-      </c>
-      <c r="F153" t="n">
-        <v>43380.9456</v>
-      </c>
-      <c r="G153" t="n">
-        <v>76.99999999999993</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J153" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>77.01000000000001</v>
-      </c>
-      <c r="M153" t="n">
-        <v>77.32999999999998</v>
-      </c>
-      <c r="N153" t="n">
-        <v>77.3366666666666</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>77</v>
-      </c>
-      <c r="C154" t="n">
-        <v>77</v>
-      </c>
-      <c r="D154" t="n">
-        <v>77</v>
-      </c>
-      <c r="E154" t="n">
-        <v>77</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6088.474</v>
-      </c>
-      <c r="G154" t="n">
-        <v>77.00833333333325</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J154" t="n">
-        <v>34.30000000000005</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>77</v>
-      </c>
-      <c r="M154" t="n">
-        <v>77.29499999999999</v>
-      </c>
-      <c r="N154" t="n">
-        <v>77.3266666666666</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E155" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>77.01333333333325</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J155" t="n">
-        <v>34.40000000000005</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>76.98999999999999</v>
-      </c>
-      <c r="M155" t="n">
-        <v>77.25999999999999</v>
-      </c>
-      <c r="N155" t="n">
-        <v>77.31333333333326</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C156" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E156" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>77.01666666666658</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J156" t="n">
-        <v>34.50000000000006</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="M156" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="N156" t="n">
-        <v>77.30333333333327</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3521.7</v>
-      </c>
-      <c r="G157" t="n">
-        <v>77.01499999999992</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J157" t="n">
-        <v>34.50000000000006</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>76.94999999999999</v>
-      </c>
-      <c r="M157" t="n">
-        <v>77.17999999999999</v>
-      </c>
-      <c r="N157" t="n">
-        <v>77.29333333333328</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>543.4585</v>
-      </c>
-      <c r="G158" t="n">
-        <v>77.01999999999992</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2.900000000000006</v>
-      </c>
-      <c r="J158" t="n">
-        <v>34.90000000000006</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>76.97</v>
-      </c>
-      <c r="M158" t="n">
-        <v>77.16499999999999</v>
-      </c>
-      <c r="N158" t="n">
-        <v>77.2866666666666</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5149.3919</v>
-      </c>
-      <c r="G159" t="n">
-        <v>77.0266666666666</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3</v>
-      </c>
-      <c r="J159" t="n">
-        <v>35.00000000000006</v>
-      </c>
-      <c r="K159" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L159" t="n">
-        <v>76.99999999999999</v>
-      </c>
-      <c r="M159" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>77.27999999999994</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F160" t="n">
-        <v>238.566</v>
-      </c>
-      <c r="G160" t="n">
-        <v>77.0266666666666</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="J160" t="n">
-        <v>35.40000000000005</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-9.090909090908621</v>
-      </c>
-      <c r="L160" t="n">
-        <v>76.98999999999998</v>
-      </c>
-      <c r="M160" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="N160" t="n">
-        <v>77.25999999999995</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F161" t="n">
-        <v>35505.0817</v>
-      </c>
-      <c r="G161" t="n">
-        <v>77.02499999999993</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J161" t="n">
-        <v>35.50000000000006</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L161" t="n">
-        <v>76.96999999999998</v>
-      </c>
-      <c r="M161" t="n">
-        <v>77.05499999999999</v>
-      </c>
-      <c r="N161" t="n">
-        <v>77.23666666666662</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10</v>
-      </c>
-      <c r="G162" t="n">
-        <v>77.02666666666661</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J162" t="n">
-        <v>36.20000000000006</v>
-      </c>
-      <c r="K162" t="n">
-        <v>26.31578947368413</v>
-      </c>
-      <c r="L162" t="n">
-        <v>77.01999999999998</v>
-      </c>
-      <c r="M162" t="n">
-        <v>77.05</v>
-      </c>
-      <c r="N162" t="n">
-        <v>77.23333333333329</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D163" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E163" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>10010</v>
-      </c>
-      <c r="G163" t="n">
-        <v>77.04666666666661</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="J163" t="n">
-        <v>36.40000000000006</v>
-      </c>
-      <c r="K163" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L163" t="n">
-        <v>77.08999999999999</v>
-      </c>
-      <c r="M163" t="n">
-        <v>77.05</v>
-      </c>
-      <c r="N163" t="n">
-        <v>77.24999999999996</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="D164" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F164" t="n">
-        <v>39336.6646</v>
-      </c>
-      <c r="G164" t="n">
-        <v>77.07166666666662</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J164" t="n">
-        <v>36.50000000000006</v>
-      </c>
-      <c r="K164" t="n">
-        <v>42.85714285714228</v>
-      </c>
-      <c r="L164" t="n">
-        <v>77.16999999999999</v>
-      </c>
-      <c r="M164" t="n">
-        <v>77.08500000000001</v>
-      </c>
-      <c r="N164" t="n">
-        <v>77.2533333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1630</v>
-      </c>
-      <c r="G165" t="n">
-        <v>77.10166666666662</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J165" t="n">
-        <v>36.80000000000005</v>
-      </c>
-      <c r="K165" t="n">
-        <v>56.52173913043473</v>
-      </c>
-      <c r="L165" t="n">
-        <v>77.28999999999999</v>
-      </c>
-      <c r="M165" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="N165" t="n">
-        <v>77.26999999999997</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C166" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E166" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>16870</v>
-      </c>
-      <c r="G166" t="n">
-        <v>77.11999999999995</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J166" t="n">
-        <v>37.40000000000005</v>
-      </c>
-      <c r="K166" t="n">
-        <v>24.13793103448293</v>
-      </c>
-      <c r="L166" t="n">
-        <v>77.35999999999999</v>
-      </c>
-      <c r="M166" t="n">
-        <v>77.16499999999999</v>
-      </c>
-      <c r="N166" t="n">
-        <v>77.26666666666664</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E167" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2090</v>
-      </c>
-      <c r="G167" t="n">
-        <v>77.13666666666661</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J167" t="n">
-        <v>37.50000000000004</v>
-      </c>
-      <c r="K167" t="n">
-        <v>7.69230769230786</v>
-      </c>
-      <c r="L167" t="n">
-        <v>77.41999999999999</v>
-      </c>
-      <c r="M167" t="n">
-        <v>77.185</v>
-      </c>
-      <c r="N167" t="n">
-        <v>77.25999999999998</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>44.8875</v>
-      </c>
-      <c r="G168" t="n">
-        <v>77.14166666666662</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3</v>
-      </c>
-      <c r="J168" t="n">
-        <v>37.60000000000005</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>77.42999999999998</v>
-      </c>
-      <c r="M168" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="N168" t="n">
-        <v>77.25333333333332</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E169" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>8249.116400000001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>77.14833333333328</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.100000000000009</v>
-      </c>
-      <c r="J169" t="n">
-        <v>37.70000000000006</v>
-      </c>
-      <c r="K169" t="n">
-        <v>21.7391304347825</v>
-      </c>
-      <c r="L169" t="n">
-        <v>77.43999999999998</v>
-      </c>
-      <c r="M169" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="N169" t="n">
-        <v>77.24666666666666</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -451,20 +451,14 @@
         <v>74.94333333333319</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>74.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>74.94666666666652</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>74.90000000000001</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>74.95999999999985</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>75.40000000000001</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>74.96499999999986</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>74.97999999999985</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -663,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -702,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -741,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -780,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -819,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,15 +804,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -893,15 +839,11 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -936,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -975,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1014,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1092,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1131,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1170,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1209,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1248,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1287,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1326,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1365,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1404,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1443,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1482,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1521,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1560,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1638,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1677,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1716,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1755,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1794,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1833,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1872,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1907,16 +1749,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2119,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2189,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2224,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2259,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2294,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2329,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -3936,14 +3776,20 @@
         <v>77.44833333333321</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3817,20 @@
         <v>77.42166666666654</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4006,14 +3858,20 @@
         <v>77.39166666666652</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4041,14 +3899,20 @@
         <v>77.36166666666652</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4083,7 +3947,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +3986,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4153,7 +4025,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4181,14 +4057,20 @@
         <v>77.27166666666652</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>76.5</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +4098,20 @@
         <v>77.24999999999984</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +4139,20 @@
         <v>77.22999999999983</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +4180,20 @@
         <v>77.20999999999982</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4328,7 +4228,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4363,7 +4267,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4306,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4433,7 +4345,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4468,7 +4384,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4503,7 +4423,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4462,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4573,7 +4501,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4601,14 +4533,20 @@
         <v>77.14166666666648</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4636,14 +4574,20 @@
         <v>77.08666666666649</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +4615,20 @@
         <v>77.0766666666665</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4713,7 +4663,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4748,7 +4702,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4783,7 +4741,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4818,7 +4780,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4853,7 +4819,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4888,7 +4858,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4923,7 +4897,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4958,7 +4936,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4993,7 +4975,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5028,7 +5014,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5063,7 +5053,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5098,7 +5092,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5133,7 +5131,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5168,7 +5170,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5203,7 +5209,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5238,7 +5248,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5287,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5308,7 +5326,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5343,7 +5365,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5378,7 +5404,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5413,7 +5443,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5448,7 +5482,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5483,7 +5521,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5560,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +5599,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5588,7 +5638,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5623,7 +5677,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5658,7 +5716,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5693,7 +5755,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5728,7 +5794,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>74.5</v>
       </c>
       <c r="C2" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="D2" t="n">
         <v>74.5</v>
       </c>
       <c r="E2" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="F2" t="n">
-        <v>8269.218199999999</v>
+        <v>1465.853</v>
       </c>
       <c r="G2" t="n">
-        <v>74.94333333333319</v>
+        <v>74.95999999999985</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C3" t="n">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="D3" t="n">
-        <v>75.2</v>
+        <v>74.5</v>
       </c>
       <c r="E3" t="n">
-        <v>74.90000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="F3" t="n">
-        <v>31920.4835</v>
+        <v>8269.218199999999</v>
       </c>
       <c r="G3" t="n">
-        <v>74.94666666666652</v>
+        <v>74.94333333333319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,31 +503,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="D4" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="E4" t="n">
-        <v>75.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>41271.9807</v>
+        <v>31920.4835</v>
       </c>
       <c r="G4" t="n">
-        <v>74.95999999999985</v>
+        <v>74.94666666666652</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74.3</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -538,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="D5" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="E5" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.4043</v>
+        <v>41271.9807</v>
       </c>
       <c r="G5" t="n">
-        <v>74.96499999999986</v>
+        <v>74.95999999999985</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +566,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +583,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="D6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="E6" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F6" t="n">
-        <v>3463.0284</v>
+        <v>11039.4043</v>
       </c>
       <c r="G6" t="n">
-        <v>74.97999999999985</v>
+        <v>74.96499999999986</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +607,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -620,10 +636,10 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>17092.3838</v>
+        <v>3463.0284</v>
       </c>
       <c r="G7" t="n">
-        <v>74.99499999999985</v>
+        <v>74.97999999999985</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>76.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>22107.9539</v>
+        <v>17092.3838</v>
       </c>
       <c r="G8" t="n">
-        <v>75.02499999999985</v>
+        <v>74.99499999999985</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C9" t="n">
         <v>76.7</v>
       </c>
-      <c r="C9" t="n">
-        <v>76.90000000000001</v>
-      </c>
       <c r="D9" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>31941.1803</v>
+        <v>22107.9539</v>
       </c>
       <c r="G9" t="n">
-        <v>75.05333333333319</v>
+        <v>75.02499999999985</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +729,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="C10" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>77.2</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>20927.2016</v>
+        <v>31941.1803</v>
       </c>
       <c r="G10" t="n">
-        <v>75.08999999999985</v>
+        <v>75.05333333333319</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D11" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F11" t="n">
-        <v>29478.6467</v>
+        <v>20927.2016</v>
       </c>
       <c r="G11" t="n">
-        <v>75.12166666666651</v>
+        <v>75.08999999999985</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,28 +799,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F12" t="n">
-        <v>14987.0129</v>
+        <v>29478.6467</v>
       </c>
       <c r="G12" t="n">
-        <v>75.14999999999985</v>
+        <v>75.12166666666651</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C13" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="C13" t="n">
-        <v>76.59999999999999</v>
-      </c>
       <c r="D13" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E13" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="E13" t="n">
-        <v>76.59999999999999</v>
-      </c>
       <c r="F13" t="n">
-        <v>8791.4197</v>
+        <v>14987.0129</v>
       </c>
       <c r="G13" t="n">
-        <v>75.16999999999986</v>
+        <v>75.14999999999985</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C14" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="C14" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="D14" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>10264.5291</v>
+        <v>8791.4197</v>
       </c>
       <c r="G14" t="n">
-        <v>75.20333333333319</v>
+        <v>75.16999999999986</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>6037.8855</v>
+        <v>10264.5291</v>
       </c>
       <c r="G15" t="n">
-        <v>75.22999999999986</v>
+        <v>75.20333333333319</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>77</v>
@@ -932,13 +948,13 @@
         <v>77</v>
       </c>
       <c r="E16" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>6037.8855</v>
       </c>
       <c r="G16" t="n">
-        <v>75.26666666666652</v>
+        <v>75.22999999999986</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C17" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F17" t="n">
-        <v>29061.4337</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="n">
-        <v>75.31166666666654</v>
+        <v>75.26666666666652</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>77.09999999999999</v>
@@ -1002,13 +1018,13 @@
         <v>77.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>168.2931</v>
+        <v>29061.4337</v>
       </c>
       <c r="G18" t="n">
-        <v>75.35833333333321</v>
+        <v>75.31166666666654</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>7177.9557</v>
+        <v>168.2931</v>
       </c>
       <c r="G19" t="n">
-        <v>75.40333333333321</v>
+        <v>75.35833333333321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="C20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E20" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F20" t="n">
-        <v>13043.7157</v>
+        <v>7177.9557</v>
       </c>
       <c r="G20" t="n">
-        <v>75.43333333333321</v>
+        <v>75.40333333333321</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="D21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="E21" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="F21" t="n">
-        <v>7500</v>
+        <v>13043.7157</v>
       </c>
       <c r="G21" t="n">
-        <v>75.45999999999988</v>
+        <v>75.43333333333321</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C22" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E22" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F22" t="n">
-        <v>26321.5404</v>
+        <v>7500</v>
       </c>
       <c r="G22" t="n">
-        <v>75.48333333333322</v>
+        <v>75.45999999999988</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1184,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>76.3</v>
       </c>
       <c r="D23" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>76.3</v>
       </c>
       <c r="F23" t="n">
-        <v>9525.911700000001</v>
+        <v>26321.5404</v>
       </c>
       <c r="G23" t="n">
-        <v>75.5049999999999</v>
+        <v>75.48333333333322</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1231,10 @@
         <v>76.3</v>
       </c>
       <c r="F24" t="n">
-        <v>355.4149</v>
+        <v>9525.911700000001</v>
       </c>
       <c r="G24" t="n">
-        <v>75.52666666666657</v>
+        <v>75.5049999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E25" t="n">
-        <v>76.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F25" t="n">
-        <v>4952.8494</v>
+        <v>355.4149</v>
       </c>
       <c r="G25" t="n">
-        <v>75.54666666666658</v>
+        <v>75.52666666666657</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>77.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>77.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>76.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>16317.5921</v>
+        <v>4952.8494</v>
       </c>
       <c r="G26" t="n">
-        <v>75.58333333333326</v>
+        <v>75.54666666666658</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>77.09999999999999</v>
@@ -1317,13 +1333,13 @@
         <v>77.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>2993.0098</v>
+        <v>16317.5921</v>
       </c>
       <c r="G27" t="n">
-        <v>75.61999999999993</v>
+        <v>75.58333333333326</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>5270</v>
+        <v>2993.0098</v>
       </c>
       <c r="G28" t="n">
-        <v>75.6616666666666</v>
+        <v>75.61999999999993</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>77.5</v>
@@ -1387,13 +1403,13 @@
         <v>77.5</v>
       </c>
       <c r="E29" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>11037.8803</v>
+        <v>5270</v>
       </c>
       <c r="G29" t="n">
-        <v>75.70333333333328</v>
+        <v>75.6616666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1441,10 @@
         <v>77.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3017.8375</v>
+        <v>11037.8803</v>
       </c>
       <c r="G30" t="n">
-        <v>75.74666666666661</v>
+        <v>75.70333333333328</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1467,19 @@
         <v>77.5</v>
       </c>
       <c r="C31" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D31" t="n">
         <v>77.5</v>
       </c>
       <c r="E31" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F31" t="n">
-        <v>9000</v>
+        <v>3017.8375</v>
       </c>
       <c r="G31" t="n">
-        <v>75.78666666666662</v>
+        <v>75.74666666666661</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1502,19 @@
         <v>77.5</v>
       </c>
       <c r="C32" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="D32" t="n">
         <v>77.5</v>
       </c>
       <c r="E32" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F32" t="n">
-        <v>4377.4317</v>
+        <v>9000</v>
       </c>
       <c r="G32" t="n">
-        <v>75.82999999999996</v>
+        <v>75.78666666666662</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F33" t="n">
-        <v>21441.4714</v>
+        <v>4377.4317</v>
       </c>
       <c r="G33" t="n">
-        <v>75.86999999999996</v>
+        <v>75.82999999999996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1572,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>21441.4714</v>
       </c>
       <c r="G34" t="n">
-        <v>75.90999999999995</v>
+        <v>75.86999999999996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1607,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D35" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="E35" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>21242.2129</v>
+        <v>12000</v>
       </c>
       <c r="G35" t="n">
-        <v>75.95166666666663</v>
+        <v>75.90999999999995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C36" t="n">
         <v>77.8</v>
       </c>
-      <c r="C36" t="n">
-        <v>78</v>
-      </c>
       <c r="D36" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="E36" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F36" t="n">
-        <v>14562.9375</v>
+        <v>21242.2129</v>
       </c>
       <c r="G36" t="n">
-        <v>75.99499999999996</v>
+        <v>75.95166666666663</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C37" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="E37" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F37" t="n">
-        <v>73407.2729</v>
+        <v>14562.9375</v>
       </c>
       <c r="G37" t="n">
-        <v>76.04499999999997</v>
+        <v>75.99499999999996</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1709,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="D38" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="E38" t="n">
-        <v>78.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>63294.2574</v>
+        <v>73407.2729</v>
       </c>
       <c r="G38" t="n">
-        <v>76.10166666666663</v>
+        <v>76.04499999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C39" t="n">
         <v>78.5</v>
       </c>
-      <c r="C39" t="n">
-        <v>78.7</v>
-      </c>
       <c r="D39" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="E39" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="F39" t="n">
-        <v>79070.96189999999</v>
+        <v>63294.2574</v>
       </c>
       <c r="G39" t="n">
-        <v>76.16333333333328</v>
+        <v>76.10166666666663</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="C40" t="n">
         <v>78.7</v>
       </c>
       <c r="D40" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="E40" t="n">
-        <v>78.7</v>
+        <v>78.2</v>
       </c>
       <c r="F40" t="n">
-        <v>101539.6848</v>
+        <v>79070.96189999999</v>
       </c>
       <c r="G40" t="n">
-        <v>76.22499999999995</v>
+        <v>76.16333333333328</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1804,22 +1820,22 @@
         <v>78.7</v>
       </c>
       <c r="D41" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="E41" t="n">
         <v>78.7</v>
       </c>
       <c r="F41" t="n">
-        <v>14346.0585</v>
+        <v>101539.6848</v>
       </c>
       <c r="G41" t="n">
-        <v>76.28666666666662</v>
+        <v>76.22499999999995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,28 +1849,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C42" t="n">
-        <v>78.2</v>
+        <v>78.7</v>
       </c>
       <c r="D42" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="E42" t="n">
-        <v>78.2</v>
+        <v>78.7</v>
       </c>
       <c r="F42" t="n">
-        <v>7310.9609</v>
+        <v>14346.0585</v>
       </c>
       <c r="G42" t="n">
-        <v>76.33999999999995</v>
+        <v>76.28666666666662</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="D43" t="n">
-        <v>78</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="F43" t="n">
-        <v>9228.2251</v>
+        <v>7310.9609</v>
       </c>
       <c r="G43" t="n">
-        <v>76.38499999999995</v>
+        <v>76.33999999999995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1919,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="C44" t="n">
         <v>77.8</v>
       </c>
       <c r="D44" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="E44" t="n">
         <v>77.8</v>
       </c>
       <c r="F44" t="n">
-        <v>3620</v>
+        <v>9228.2251</v>
       </c>
       <c r="G44" t="n">
-        <v>76.43166666666662</v>
+        <v>76.38499999999995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C45" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D45" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E45" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F45" t="n">
-        <v>4102.5793</v>
+        <v>3620</v>
       </c>
       <c r="G45" t="n">
-        <v>76.47499999999995</v>
+        <v>76.43166666666662</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E46" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>20980.5323</v>
+        <v>4102.5793</v>
       </c>
       <c r="G46" t="n">
-        <v>76.51833333333329</v>
+        <v>76.47499999999995</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>427.8981</v>
+        <v>20980.5323</v>
       </c>
       <c r="G47" t="n">
-        <v>76.55666666666663</v>
+        <v>76.51833333333329</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>18985.2355</v>
+        <v>427.8981</v>
       </c>
       <c r="G48" t="n">
-        <v>76.59499999999996</v>
+        <v>76.55666666666663</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C49" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="C49" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="D49" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E49" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="E49" t="n">
-        <v>77.09999999999999</v>
-      </c>
       <c r="F49" t="n">
-        <v>27926.0806</v>
+        <v>18985.2355</v>
       </c>
       <c r="G49" t="n">
-        <v>76.62999999999995</v>
+        <v>76.59499999999996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>15069.5952</v>
+        <v>27926.0806</v>
       </c>
       <c r="G50" t="n">
-        <v>76.66999999999994</v>
+        <v>76.62999999999995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E51" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>15069.5952</v>
       </c>
       <c r="G51" t="n">
-        <v>76.71499999999996</v>
+        <v>76.66999999999994</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>42020</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>76.74833333333329</v>
+        <v>76.71499999999996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>76.8</v>
+        <v>77.5</v>
       </c>
       <c r="C53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>76.8</v>
+        <v>77.5</v>
       </c>
       <c r="E53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>18000</v>
+        <v>42020</v>
       </c>
       <c r="G53" t="n">
-        <v>76.78499999999995</v>
+        <v>76.74833333333329</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="C54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="D54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="E54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="F54" t="n">
-        <v>1172.8936</v>
+        <v>18000</v>
       </c>
       <c r="G54" t="n">
-        <v>76.81499999999997</v>
+        <v>76.78499999999995</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2316,10 @@
         <v>77.2</v>
       </c>
       <c r="F55" t="n">
-        <v>122.3738</v>
+        <v>1172.8936</v>
       </c>
       <c r="G55" t="n">
-        <v>76.85666666666663</v>
+        <v>76.81499999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2351,10 @@
         <v>77.2</v>
       </c>
       <c r="F56" t="n">
-        <v>6085.1071</v>
+        <v>122.3738</v>
       </c>
       <c r="G56" t="n">
-        <v>76.89999999999995</v>
+        <v>76.85666666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2377,19 @@
         <v>77.2</v>
       </c>
       <c r="C57" t="n">
-        <v>79.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D57" t="n">
-        <v>79.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E57" t="n">
         <v>77.2</v>
       </c>
       <c r="F57" t="n">
-        <v>185064.5670693467</v>
+        <v>6085.1071</v>
       </c>
       <c r="G57" t="n">
-        <v>76.98499999999996</v>
+        <v>76.89999999999995</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C58" t="n">
-        <v>76.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>76.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F58" t="n">
-        <v>7482.1359</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G58" t="n">
-        <v>77.01999999999995</v>
+        <v>76.98499999999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2447,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>22909.14</v>
+        <v>7482.1359</v>
       </c>
       <c r="G59" t="n">
-        <v>77.06666666666662</v>
+        <v>77.01999999999995</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C60" t="n">
         <v>77.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="D60" t="n">
-        <v>77.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E60" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>13869.3585</v>
+        <v>22909.14</v>
       </c>
       <c r="G60" t="n">
-        <v>77.12333333333328</v>
+        <v>77.06666666666662</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C61" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="C61" t="n">
-        <v>78.5</v>
-      </c>
       <c r="D61" t="n">
-        <v>78.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F61" t="n">
-        <v>31898.9448</v>
+        <v>13869.3585</v>
       </c>
       <c r="G61" t="n">
-        <v>77.18999999999996</v>
+        <v>77.12333333333328</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>78.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="D62" t="n">
-        <v>78.2</v>
+        <v>78.5</v>
       </c>
       <c r="E62" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>10204.1123</v>
+        <v>31898.9448</v>
       </c>
       <c r="G62" t="n">
-        <v>77.25499999999994</v>
+        <v>77.18999999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="C63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D63" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E63" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="F63" t="n">
-        <v>9975</v>
+        <v>10204.1123</v>
       </c>
       <c r="G63" t="n">
-        <v>77.29999999999994</v>
+        <v>77.25499999999994</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>6880.7466</v>
+        <v>9975</v>
       </c>
       <c r="G64" t="n">
-        <v>77.34499999999994</v>
+        <v>77.29999999999994</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2654,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="C65" t="n">
         <v>78.40000000000001</v>
@@ -2647,13 +2663,13 @@
         <v>78.40000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F65" t="n">
-        <v>2969.9653</v>
+        <v>6880.7466</v>
       </c>
       <c r="G65" t="n">
-        <v>77.38833333333326</v>
+        <v>77.34499999999994</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>2966.0782</v>
+        <v>2969.9653</v>
       </c>
       <c r="G66" t="n">
-        <v>77.42499999999994</v>
+        <v>77.38833333333326</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>11692.4875</v>
+        <v>2966.0782</v>
       </c>
       <c r="G67" t="n">
-        <v>77.45499999999994</v>
+        <v>77.42499999999994</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D68" t="n">
         <v>78</v>
       </c>
       <c r="E68" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F68" t="n">
-        <v>12966.0783</v>
+        <v>11692.4875</v>
       </c>
       <c r="G68" t="n">
-        <v>77.47666666666662</v>
+        <v>77.45499999999994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D69" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E69" t="n">
-        <v>78.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>12966.0783</v>
       </c>
       <c r="G69" t="n">
-        <v>77.50166666666661</v>
+        <v>77.47666666666662</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2841,10 @@
         <v>78.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>2490</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>77.51999999999994</v>
+        <v>77.50166666666661</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>4625.8905</v>
+        <v>2490</v>
       </c>
       <c r="G71" t="n">
-        <v>77.52999999999993</v>
+        <v>77.51999999999994</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="C72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="D72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="E72" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="F72" t="n">
-        <v>4310</v>
+        <v>4625.8905</v>
       </c>
       <c r="G72" t="n">
-        <v>77.55166666666659</v>
+        <v>77.52999999999993</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="C73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E73" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="F73" t="n">
-        <v>11572.0972</v>
+        <v>4310</v>
       </c>
       <c r="G73" t="n">
-        <v>77.56833333333326</v>
+        <v>77.55166666666659</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2981,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>386.597</v>
+        <v>11572.0972</v>
       </c>
       <c r="G74" t="n">
-        <v>77.5766666666666</v>
+        <v>77.56833333333326</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>6820</v>
+        <v>386.597</v>
       </c>
       <c r="G75" t="n">
-        <v>77.58333333333326</v>
+        <v>77.5766666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>1448.0284</v>
+        <v>6820</v>
       </c>
       <c r="G76" t="n">
-        <v>77.58499999999994</v>
+        <v>77.58333333333326</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>10112.2279</v>
+        <v>1448.0284</v>
       </c>
       <c r="G77" t="n">
-        <v>77.58666666666659</v>
+        <v>77.58499999999994</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,19 +3109,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E78" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0001</v>
+        <v>10112.2279</v>
       </c>
       <c r="G78" t="n">
         <v>77.58666666666659</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>7329.8429</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>77.58999999999992</v>
+        <v>77.58666666666659</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,19 +3179,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E80" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F80" t="n">
-        <v>392.6984</v>
+        <v>7329.8429</v>
       </c>
       <c r="G80" t="n">
         <v>77.58999999999992</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E81" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="F81" t="n">
-        <v>10188.2634</v>
+        <v>392.6984</v>
       </c>
       <c r="G81" t="n">
-        <v>77.59833333333326</v>
+        <v>77.58999999999992</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="C82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="D82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="E82" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="F82" t="n">
-        <v>151.774</v>
+        <v>10188.2634</v>
       </c>
       <c r="G82" t="n">
-        <v>77.61333333333324</v>
+        <v>77.59833333333326</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E83" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1360</v>
+        <v>151.774</v>
       </c>
       <c r="G83" t="n">
-        <v>77.62333333333324</v>
+        <v>77.61333333333324</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3322,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D84" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>11284.1704</v>
+        <v>1360</v>
       </c>
       <c r="G84" t="n">
-        <v>77.63166666666658</v>
+        <v>77.62333333333324</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D85" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F85" t="n">
-        <v>818.4224</v>
+        <v>11284.1704</v>
       </c>
       <c r="G85" t="n">
-        <v>77.64166666666657</v>
+        <v>77.63166666666658</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="D86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="E86" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="F86" t="n">
-        <v>1975.05</v>
+        <v>818.4224</v>
       </c>
       <c r="G86" t="n">
-        <v>77.63166666666656</v>
+        <v>77.64166666666657</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E87" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F87" t="n">
-        <v>277.6764</v>
+        <v>1975.05</v>
       </c>
       <c r="G87" t="n">
-        <v>77.61999999999988</v>
+        <v>77.63166666666656</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>178.2802</v>
+        <v>277.6764</v>
       </c>
       <c r="G88" t="n">
-        <v>77.60333333333321</v>
+        <v>77.61999999999988</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3506,10 @@
         <v>76.5</v>
       </c>
       <c r="F89" t="n">
-        <v>39.8936</v>
+        <v>178.2802</v>
       </c>
       <c r="G89" t="n">
-        <v>77.58666666666655</v>
+        <v>77.60333333333321</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3532,19 @@
         <v>76.5</v>
       </c>
       <c r="C90" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D90" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E90" t="n">
         <v>76.5</v>
       </c>
       <c r="F90" t="n">
-        <v>11681.7692</v>
+        <v>39.8936</v>
       </c>
       <c r="G90" t="n">
-        <v>77.57666666666654</v>
+        <v>77.58666666666655</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="C91" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="F91" t="n">
-        <v>781</v>
+        <v>11681.7692</v>
       </c>
       <c r="G91" t="n">
-        <v>77.56666666666653</v>
+        <v>77.57666666666654</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E92" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1574.386</v>
+        <v>781</v>
       </c>
       <c r="G92" t="n">
-        <v>77.55166666666653</v>
+        <v>77.56666666666653</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3646,10 @@
         <v>76.59999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>691.6295</v>
+        <v>1574.386</v>
       </c>
       <c r="G93" t="n">
-        <v>77.53499999999987</v>
+        <v>77.55166666666653</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>5228.7581</v>
+        <v>691.6295</v>
       </c>
       <c r="G94" t="n">
-        <v>77.51499999999987</v>
+        <v>77.53499999999987</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3707,19 @@
         <v>76.5</v>
       </c>
       <c r="C95" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D95" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E95" t="n">
         <v>76.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2750</v>
+        <v>5228.7581</v>
       </c>
       <c r="G95" t="n">
-        <v>77.49499999999988</v>
+        <v>77.51499999999987</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3739,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C96" t="n">
         <v>76.59999999999999</v>
@@ -3732,13 +3748,13 @@
         <v>76.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F96" t="n">
-        <v>556</v>
+        <v>2750</v>
       </c>
       <c r="G96" t="n">
-        <v>77.47166666666655</v>
+        <v>77.49499999999988</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,35 +3777,29 @@
         <v>76.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>3660</v>
+        <v>556</v>
       </c>
       <c r="G97" t="n">
-        <v>77.44833333333321</v>
+        <v>77.47166666666655</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>76.59999999999999</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3799,7 +3809,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C98" t="n">
         <v>76.90000000000001</v>
@@ -3808,29 +3818,23 @@
         <v>76.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>1300.390117035111</v>
+        <v>3660</v>
       </c>
       <c r="G98" t="n">
-        <v>77.42166666666654</v>
+        <v>77.44833333333321</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,26 +3856,20 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>130</v>
+        <v>1300.390117035111</v>
       </c>
       <c r="G99" t="n">
-        <v>77.39166666666652</v>
+        <v>77.42166666666654</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3893,26 +3891,20 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>3660</v>
+        <v>130</v>
       </c>
       <c r="G100" t="n">
-        <v>77.36166666666652</v>
+        <v>77.39166666666652</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3934,10 +3926,10 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1299</v>
+        <v>3660</v>
       </c>
       <c r="G101" t="n">
-        <v>77.33166666666652</v>
+        <v>77.36166666666652</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,11 +3939,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3964,19 +3952,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>39305.9369</v>
+        <v>1299</v>
       </c>
       <c r="G102" t="n">
-        <v>77.31833333333319</v>
+        <v>77.33166666666652</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,11 +3974,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>105.6297</v>
+        <v>39305.9369</v>
       </c>
       <c r="G103" t="n">
-        <v>77.29666666666652</v>
+        <v>77.31833333333319</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4025,11 +4009,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4039,38 +4019,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="C104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="E104" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>105.6297</v>
       </c>
       <c r="G104" t="n">
-        <v>77.27166666666652</v>
+        <v>77.29666666666652</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4092,26 +4066,20 @@
         <v>76.3</v>
       </c>
       <c r="F105" t="n">
-        <v>118.0571</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>77.24999999999984</v>
+        <v>77.27166666666652</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4121,38 +4089,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E106" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F106" t="n">
-        <v>16649.1209</v>
+        <v>118.0571</v>
       </c>
       <c r="G106" t="n">
-        <v>77.22999999999983</v>
+        <v>77.24999999999984</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4174,26 +4136,20 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>12500</v>
+        <v>16649.1209</v>
       </c>
       <c r="G107" t="n">
-        <v>77.20999999999982</v>
+        <v>77.22999999999983</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>76.40000000000001</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4203,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>12110</v>
+        <v>12500</v>
       </c>
       <c r="G108" t="n">
-        <v>77.20333333333316</v>
+        <v>77.20999999999982</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4228,11 +4184,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4254,10 +4206,10 @@
         <v>77</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>12110</v>
       </c>
       <c r="G109" t="n">
-        <v>77.2016666666665</v>
+        <v>77.20333333333316</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4267,11 +4219,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4296,7 +4244,7 @@
         <v>14</v>
       </c>
       <c r="G110" t="n">
-        <v>77.19833333333317</v>
+        <v>77.2016666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4306,11 +4254,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4332,10 +4276,10 @@
         <v>77</v>
       </c>
       <c r="F111" t="n">
-        <v>88.5064</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>77.18833333333315</v>
+        <v>77.19833333333317</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4345,11 +4289,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4359,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E112" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F112" t="n">
-        <v>88.8526</v>
+        <v>88.5064</v>
       </c>
       <c r="G112" t="n">
-        <v>77.18499999999982</v>
+        <v>77.18833333333315</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4384,11 +4324,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C113" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D113" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E113" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F113" t="n">
-        <v>10340</v>
+        <v>88.8526</v>
       </c>
       <c r="G113" t="n">
-        <v>77.17833333333314</v>
+        <v>77.18499999999982</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4423,11 +4359,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4437,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1945.893089960887</v>
+        <v>10340</v>
       </c>
       <c r="G114" t="n">
-        <v>77.16999999999982</v>
+        <v>77.17833333333314</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4462,11 +4394,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E115" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F115" t="n">
-        <v>397.6679</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G115" t="n">
-        <v>77.15666666666648</v>
+        <v>77.16999999999982</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4501,11 +4429,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4515,38 +4439,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5914.3407</v>
+        <v>397.6679</v>
       </c>
       <c r="G116" t="n">
-        <v>77.14166666666648</v>
+        <v>77.15666666666648</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>76.40000000000001</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4568,26 +4486,20 @@
         <v>76.3</v>
       </c>
       <c r="F117" t="n">
-        <v>5113.4288</v>
+        <v>5914.3407</v>
       </c>
       <c r="G117" t="n">
-        <v>77.08666666666649</v>
+        <v>77.14166666666648</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4609,26 +4521,20 @@
         <v>76.3</v>
       </c>
       <c r="F118" t="n">
-        <v>454.6106</v>
+        <v>5113.4288</v>
       </c>
       <c r="G118" t="n">
-        <v>77.0766666666665</v>
+        <v>77.08666666666649</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4650,10 +4556,10 @@
         <v>76.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1620.4799</v>
+        <v>454.6106</v>
       </c>
       <c r="G119" t="n">
-        <v>77.0616666666665</v>
+        <v>77.0766666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4663,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4689,10 +4591,10 @@
         <v>76.3</v>
       </c>
       <c r="F120" t="n">
-        <v>507.3753</v>
+        <v>1620.4799</v>
       </c>
       <c r="G120" t="n">
-        <v>77.03499999999984</v>
+        <v>77.0616666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4702,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4716,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="D121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="E121" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="F121" t="n">
-        <v>7184.7085</v>
+        <v>507.3753</v>
       </c>
       <c r="G121" t="n">
-        <v>77.00166666666651</v>
+        <v>77.03499999999984</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4741,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4755,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E122" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F122" t="n">
-        <v>2388.9999</v>
+        <v>7184.7085</v>
       </c>
       <c r="G122" t="n">
-        <v>76.98333333333318</v>
+        <v>77.00166666666651</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4780,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4806,10 +4696,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>38.9105</v>
+        <v>2388.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>76.96999999999986</v>
+        <v>76.98333333333318</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4819,11 +4709,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4833,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>815</v>
+        <v>38.9105</v>
       </c>
       <c r="G124" t="n">
-        <v>76.95166666666654</v>
+        <v>76.96999999999986</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4858,11 +4744,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4884,10 +4766,10 @@
         <v>77.3</v>
       </c>
       <c r="F125" t="n">
-        <v>6223.855</v>
+        <v>815</v>
       </c>
       <c r="G125" t="n">
-        <v>76.93333333333321</v>
+        <v>76.95166666666654</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4897,11 +4779,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4911,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E126" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F126" t="n">
-        <v>1051.8669</v>
+        <v>6223.855</v>
       </c>
       <c r="G126" t="n">
-        <v>76.91666666666654</v>
+        <v>76.93333333333321</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4936,11 +4814,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4962,10 +4836,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>10000</v>
+        <v>1051.8669</v>
       </c>
       <c r="G127" t="n">
-        <v>76.90666666666655</v>
+        <v>76.91666666666654</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4975,11 +4849,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4989,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>129.1989</v>
+        <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>76.89666666666655</v>
+        <v>76.90666666666655</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5014,11 +4884,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5028,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>4333.4349</v>
+        <v>129.1989</v>
       </c>
       <c r="G129" t="n">
-        <v>76.88166666666656</v>
+        <v>76.89666666666655</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5053,11 +4919,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5067,7 +4929,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="C130" t="n">
         <v>77.5</v>
@@ -5076,13 +4938,13 @@
         <v>77.5</v>
       </c>
       <c r="E130" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F130" t="n">
-        <v>12.9366</v>
+        <v>4333.4349</v>
       </c>
       <c r="G130" t="n">
-        <v>76.86666666666656</v>
+        <v>76.88166666666656</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5092,11 +4954,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5118,10 +4976,10 @@
         <v>77.5</v>
       </c>
       <c r="F131" t="n">
-        <v>3000</v>
+        <v>12.9366</v>
       </c>
       <c r="G131" t="n">
-        <v>76.86333333333323</v>
+        <v>76.86666666666656</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5131,11 +4989,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5145,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E132" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4938.3762</v>
+        <v>3000</v>
       </c>
       <c r="G132" t="n">
-        <v>76.85333333333324</v>
+        <v>76.86333333333323</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5170,11 +5024,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5184,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>10404.3477</v>
+        <v>4938.3762</v>
       </c>
       <c r="G133" t="n">
-        <v>76.84666666666656</v>
+        <v>76.85333333333324</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5209,11 +5059,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5223,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="C134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="D134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="E134" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1014.9999</v>
+        <v>10404.3477</v>
       </c>
       <c r="G134" t="n">
-        <v>76.84833333333322</v>
+        <v>76.84666666666656</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5248,11 +5094,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E135" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F135" t="n">
-        <v>14000.0744</v>
+        <v>1014.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>76.85166666666656</v>
+        <v>76.84833333333322</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5287,11 +5129,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5301,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C136" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E136" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>48890.6855</v>
+        <v>14000.0744</v>
       </c>
       <c r="G136" t="n">
-        <v>76.8599999999999</v>
+        <v>76.85166666666656</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5326,11 +5164,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5340,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C137" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E137" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>41787.3711</v>
+        <v>48890.6855</v>
       </c>
       <c r="G137" t="n">
-        <v>76.86666666666657</v>
+        <v>76.8599999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5365,11 +5199,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5379,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>12.9042</v>
+        <v>41787.3711</v>
       </c>
       <c r="G138" t="n">
-        <v>76.87333333333324</v>
+        <v>76.86666666666657</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5404,11 +5234,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E139" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F139" t="n">
-        <v>39174.1367</v>
+        <v>12.9042</v>
       </c>
       <c r="G139" t="n">
-        <v>76.88333333333324</v>
+        <v>76.87333333333324</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5443,11 +5269,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5457,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>39174.1367</v>
       </c>
       <c r="G140" t="n">
-        <v>76.90333333333324</v>
+        <v>76.88333333333324</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5482,11 +5304,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5496,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C141" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F141" t="n">
-        <v>12.87</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>76.91499999999991</v>
+        <v>76.90333333333324</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5521,11 +5339,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5535,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E142" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F142" t="n">
-        <v>3059.2086</v>
+        <v>12.87</v>
       </c>
       <c r="G142" t="n">
-        <v>76.92166666666658</v>
+        <v>76.91499999999991</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5560,11 +5374,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5574,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>5148.005148005148</v>
+        <v>3059.2086</v>
       </c>
       <c r="G143" t="n">
-        <v>76.93499999999992</v>
+        <v>76.92166666666658</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5599,11 +5409,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E144" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F144" t="n">
-        <v>4665.7328</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G144" t="n">
-        <v>76.93999999999991</v>
+        <v>76.93499999999992</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5638,11 +5444,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5655,19 +5457,19 @@
         <v>77.09999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D145" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>65362.806</v>
+        <v>4665.7328</v>
       </c>
       <c r="G145" t="n">
-        <v>76.94499999999992</v>
+        <v>76.93999999999991</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5677,11 +5479,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5691,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C146" t="n">
         <v>77</v>
       </c>
       <c r="D146" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E146" t="n">
         <v>77</v>
       </c>
       <c r="F146" t="n">
-        <v>1253.5349</v>
+        <v>65362.806</v>
       </c>
       <c r="G146" t="n">
-        <v>76.95333333333325</v>
+        <v>76.94499999999992</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5716,11 +5514,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5742,10 +5536,10 @@
         <v>77</v>
       </c>
       <c r="F147" t="n">
-        <v>6393.8078</v>
+        <v>1253.5349</v>
       </c>
       <c r="G147" t="n">
-        <v>76.96333333333327</v>
+        <v>76.95333333333325</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5755,11 +5549,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5781,10 +5571,10 @@
         <v>77</v>
       </c>
       <c r="F148" t="n">
-        <v>599.8528</v>
+        <v>6393.8078</v>
       </c>
       <c r="G148" t="n">
-        <v>76.97166666666659</v>
+        <v>76.96333333333327</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5794,12 +5584,43 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>77</v>
+      </c>
+      <c r="E149" t="n">
+        <v>77</v>
+      </c>
+      <c r="F149" t="n">
+        <v>599.8528</v>
+      </c>
+      <c r="G149" t="n">
+        <v>76.97166666666659</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1465.853</v>
       </c>
       <c r="G2" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>74.95999999999985</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>8269.218199999999</v>
       </c>
       <c r="G3" t="n">
+        <v>74.73333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>74.94333333333319</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>74.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +535,27 @@
         <v>31920.4835</v>
       </c>
       <c r="G4" t="n">
+        <v>74.74000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>74.94666666666652</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>74.3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>74.3</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,24 +579,27 @@
         <v>41271.9807</v>
       </c>
       <c r="G5" t="n">
+        <v>74.78666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>74.95999999999985</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>75.2</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -598,24 +623,25 @@
         <v>11039.4043</v>
       </c>
       <c r="G6" t="n">
+        <v>74.85333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>74.96499999999986</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,18 +665,25 @@
         <v>3463.0284</v>
       </c>
       <c r="G7" t="n">
+        <v>74.92000000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>74.97999999999985</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,18 +707,25 @@
         <v>17092.3838</v>
       </c>
       <c r="G8" t="n">
+        <v>74.98666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>74.99499999999985</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -709,18 +749,25 @@
         <v>22107.9539</v>
       </c>
       <c r="G9" t="n">
+        <v>75.12666666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>75.02499999999985</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,18 +791,25 @@
         <v>31941.1803</v>
       </c>
       <c r="G10" t="n">
+        <v>75.22666666666669</v>
+      </c>
+      <c r="H10" t="n">
         <v>75.05333333333319</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,18 +833,25 @@
         <v>20927.2016</v>
       </c>
       <c r="G11" t="n">
+        <v>75.40000000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>75.08999999999985</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,18 +875,25 @@
         <v>29478.6467</v>
       </c>
       <c r="G12" t="n">
+        <v>75.56666666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>75.12166666666651</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,18 +917,25 @@
         <v>14987.0129</v>
       </c>
       <c r="G13" t="n">
+        <v>75.72666666666669</v>
+      </c>
+      <c r="H13" t="n">
         <v>75.14999999999985</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,18 +959,25 @@
         <v>8791.4197</v>
       </c>
       <c r="G14" t="n">
+        <v>75.84666666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>75.16999999999986</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,18 +1001,25 @@
         <v>10264.5291</v>
       </c>
       <c r="G15" t="n">
+        <v>76.02666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>75.20333333333319</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1043,25 @@
         <v>6037.8855</v>
       </c>
       <c r="G16" t="n">
+        <v>76.19333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>75.22999999999986</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1085,25 @@
         <v>12000</v>
       </c>
       <c r="G17" t="n">
+        <v>76.36</v>
+      </c>
+      <c r="H17" t="n">
         <v>75.26666666666652</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1127,25 @@
         <v>29061.4337</v>
       </c>
       <c r="G18" t="n">
+        <v>76.54666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>75.31166666666654</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1169,25 @@
         <v>168.2931</v>
       </c>
       <c r="G19" t="n">
+        <v>76.67333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>75.35833333333321</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1211,25 @@
         <v>7177.9557</v>
       </c>
       <c r="G20" t="n">
+        <v>76.74666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>75.40333333333321</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1253,25 @@
         <v>13043.7157</v>
       </c>
       <c r="G21" t="n">
+        <v>76.80666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>75.43333333333321</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1295,25 @@
         <v>7500</v>
       </c>
       <c r="G22" t="n">
+        <v>76.84666666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>75.45999999999988</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1337,25 @@
         <v>26321.5404</v>
       </c>
       <c r="G23" t="n">
+        <v>76.87333333333331</v>
+      </c>
+      <c r="H23" t="n">
         <v>75.48333333333322</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1379,25 @@
         <v>9525.911700000001</v>
       </c>
       <c r="G24" t="n">
+        <v>76.84666666666664</v>
+      </c>
+      <c r="H24" t="n">
         <v>75.5049999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1421,25 @@
         <v>355.4149</v>
       </c>
       <c r="G25" t="n">
+        <v>76.80666666666663</v>
+      </c>
+      <c r="H25" t="n">
         <v>75.52666666666657</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1463,25 @@
         <v>4952.8494</v>
       </c>
       <c r="G26" t="n">
+        <v>76.72666666666663</v>
+      </c>
+      <c r="H26" t="n">
         <v>75.54666666666658</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1505,25 @@
         <v>16317.5921</v>
       </c>
       <c r="G27" t="n">
+        <v>76.72666666666663</v>
+      </c>
+      <c r="H27" t="n">
         <v>75.58333333333326</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1547,25 @@
         <v>2993.0098</v>
       </c>
       <c r="G28" t="n">
+        <v>76.73999999999995</v>
+      </c>
+      <c r="H28" t="n">
         <v>75.61999999999993</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1589,25 @@
         <v>5270</v>
       </c>
       <c r="G29" t="n">
+        <v>76.79999999999995</v>
+      </c>
+      <c r="H29" t="n">
         <v>75.6616666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1631,25 @@
         <v>11037.8803</v>
       </c>
       <c r="G30" t="n">
+        <v>76.82666666666663</v>
+      </c>
+      <c r="H30" t="n">
         <v>75.70333333333328</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1673,25 @@
         <v>3017.8375</v>
       </c>
       <c r="G31" t="n">
+        <v>76.85999999999996</v>
+      </c>
+      <c r="H31" t="n">
         <v>75.74666666666661</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1715,25 @@
         <v>9000</v>
       </c>
       <c r="G32" t="n">
+        <v>76.87999999999995</v>
+      </c>
+      <c r="H32" t="n">
         <v>75.78666666666662</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1757,25 @@
         <v>4377.4317</v>
       </c>
       <c r="G33" t="n">
+        <v>76.90666666666662</v>
+      </c>
+      <c r="H33" t="n">
         <v>75.82999999999996</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1799,25 @@
         <v>21441.4714</v>
       </c>
       <c r="G34" t="n">
+        <v>76.93999999999997</v>
+      </c>
+      <c r="H34" t="n">
         <v>75.86999999999996</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1841,25 @@
         <v>12000</v>
       </c>
       <c r="G35" t="n">
+        <v>76.99999999999997</v>
+      </c>
+      <c r="H35" t="n">
         <v>75.90999999999995</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1883,25 @@
         <v>21242.2129</v>
       </c>
       <c r="G36" t="n">
+        <v>77.0733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>75.95166666666663</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1925,25 @@
         <v>14562.9375</v>
       </c>
       <c r="G37" t="n">
+        <v>77.1733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>75.99499999999996</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1967,25 @@
         <v>73407.2729</v>
       </c>
       <c r="G38" t="n">
+        <v>77.30666666666663</v>
+      </c>
+      <c r="H38" t="n">
         <v>76.04499999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,20 +2009,25 @@
         <v>63294.2574</v>
       </c>
       <c r="G39" t="n">
+        <v>77.4533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>76.10166666666663</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1794,18 +2049,21 @@
         <v>79070.96189999999</v>
       </c>
       <c r="G40" t="n">
+        <v>77.6133333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>76.16333333333328</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2087,21 @@
         <v>101539.6848</v>
       </c>
       <c r="G41" t="n">
+        <v>77.78666666666665</v>
+      </c>
+      <c r="H41" t="n">
         <v>76.22499999999995</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2125,21 @@
         <v>14346.0585</v>
       </c>
       <c r="G42" t="n">
+        <v>77.89333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>76.28666666666662</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2163,21 @@
         <v>7310.9609</v>
       </c>
       <c r="G43" t="n">
+        <v>77.96666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>76.33999999999995</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2201,21 @@
         <v>9228.2251</v>
       </c>
       <c r="G44" t="n">
+        <v>77.98666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>76.38499999999995</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2239,21 @@
         <v>3620</v>
       </c>
       <c r="G45" t="n">
+        <v>78.00666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>76.43166666666662</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2277,21 @@
         <v>4102.5793</v>
       </c>
       <c r="G46" t="n">
+        <v>78.01333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>76.47499999999995</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2315,21 @@
         <v>20980.5323</v>
       </c>
       <c r="G47" t="n">
+        <v>78.03333333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>76.51833333333329</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2353,21 @@
         <v>427.8981</v>
       </c>
       <c r="G48" t="n">
+        <v>78.03999999999998</v>
+      </c>
+      <c r="H48" t="n">
         <v>76.55666666666663</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2391,21 @@
         <v>18985.2355</v>
       </c>
       <c r="G49" t="n">
+        <v>78.02666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>76.59499999999996</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2429,21 @@
         <v>27926.0806</v>
       </c>
       <c r="G50" t="n">
+        <v>77.98666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>76.62999999999995</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2467,21 @@
         <v>15069.5952</v>
       </c>
       <c r="G51" t="n">
+        <v>77.94666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>76.66999999999994</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2505,21 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
+        <v>77.91999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>76.71499999999996</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2543,21 @@
         <v>42020</v>
       </c>
       <c r="G53" t="n">
+        <v>77.82666666666665</v>
+      </c>
+      <c r="H53" t="n">
         <v>76.74833333333329</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2581,21 @@
         <v>18000</v>
       </c>
       <c r="G54" t="n">
+        <v>77.71333333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>76.78499999999995</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2619,21 @@
         <v>1172.8936</v>
       </c>
       <c r="G55" t="n">
+        <v>77.61333333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>76.81499999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2657,21 @@
         <v>122.3738</v>
       </c>
       <c r="G56" t="n">
+        <v>77.51333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>76.85666666666663</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2695,21 @@
         <v>6085.1071</v>
       </c>
       <c r="G57" t="n">
+        <v>77.41333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>76.89999999999995</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2733,21 @@
         <v>185064.5670693467</v>
       </c>
       <c r="G58" t="n">
+        <v>77.50666666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>76.98499999999996</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2771,21 @@
         <v>7482.1359</v>
       </c>
       <c r="G59" t="n">
+        <v>77.44666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>77.01999999999995</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2809,21 @@
         <v>22909.14</v>
       </c>
       <c r="G60" t="n">
+        <v>77.40666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>77.06666666666662</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2847,21 @@
         <v>13869.3585</v>
       </c>
       <c r="G61" t="n">
+        <v>77.42666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>77.12333333333328</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2885,21 @@
         <v>31898.9448</v>
       </c>
       <c r="G62" t="n">
+        <v>77.48666666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>77.18999999999996</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2923,21 @@
         <v>10204.1123</v>
       </c>
       <c r="G63" t="n">
+        <v>77.52666666666669</v>
+      </c>
+      <c r="H63" t="n">
         <v>77.25499999999994</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2961,21 @@
         <v>9975</v>
       </c>
       <c r="G64" t="n">
+        <v>77.56000000000002</v>
+      </c>
+      <c r="H64" t="n">
         <v>77.29999999999994</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2999,21 @@
         <v>6880.7466</v>
       </c>
       <c r="G65" t="n">
+        <v>77.6466666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>77.34499999999994</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3037,21 @@
         <v>2969.9653</v>
       </c>
       <c r="G66" t="n">
+        <v>77.7266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>77.38833333333326</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3075,21 @@
         <v>2966.0782</v>
       </c>
       <c r="G67" t="n">
+        <v>77.76000000000003</v>
+      </c>
+      <c r="H67" t="n">
         <v>77.42499999999994</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3113,21 @@
         <v>11692.4875</v>
       </c>
       <c r="G68" t="n">
+        <v>77.81333333333336</v>
+      </c>
+      <c r="H68" t="n">
         <v>77.45499999999994</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3151,21 @@
         <v>12966.0783</v>
       </c>
       <c r="G69" t="n">
+        <v>77.89333333333337</v>
+      </c>
+      <c r="H69" t="n">
         <v>77.47666666666662</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3189,21 @@
         <v>2000</v>
       </c>
       <c r="G70" t="n">
+        <v>77.97333333333337</v>
+      </c>
+      <c r="H70" t="n">
         <v>77.50166666666661</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3227,21 @@
         <v>2490</v>
       </c>
       <c r="G71" t="n">
+        <v>78.05333333333337</v>
+      </c>
+      <c r="H71" t="n">
         <v>77.51999999999994</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3265,21 @@
         <v>4625.8905</v>
       </c>
       <c r="G72" t="n">
+        <v>78.08666666666672</v>
+      </c>
+      <c r="H72" t="n">
         <v>77.52999999999993</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3303,21 @@
         <v>4310</v>
       </c>
       <c r="G73" t="n">
+        <v>77.99333333333338</v>
+      </c>
+      <c r="H73" t="n">
         <v>77.55166666666659</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3341,21 @@
         <v>11572.0972</v>
       </c>
       <c r="G74" t="n">
+        <v>78.04000000000003</v>
+      </c>
+      <c r="H74" t="n">
         <v>77.56833333333326</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3379,21 @@
         <v>386.597</v>
       </c>
       <c r="G75" t="n">
+        <v>78.06666666666669</v>
+      </c>
+      <c r="H75" t="n">
         <v>77.5766666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3417,21 @@
         <v>6820</v>
       </c>
       <c r="G76" t="n">
+        <v>78.03333333333336</v>
+      </c>
+      <c r="H76" t="n">
         <v>77.58333333333326</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3455,21 @@
         <v>1448.0284</v>
       </c>
       <c r="G77" t="n">
+        <v>77.94000000000003</v>
+      </c>
+      <c r="H77" t="n">
         <v>77.58499999999994</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3493,21 @@
         <v>10112.2279</v>
       </c>
       <c r="G78" t="n">
+        <v>77.87333333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>77.58666666666659</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3531,21 @@
         <v>0.0001</v>
       </c>
       <c r="G79" t="n">
+        <v>77.82000000000001</v>
+      </c>
+      <c r="H79" t="n">
         <v>77.58666666666659</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3569,21 @@
         <v>7329.8429</v>
       </c>
       <c r="G80" t="n">
+        <v>77.72666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>77.58999999999992</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3607,21 @@
         <v>392.6984</v>
       </c>
       <c r="G81" t="n">
+        <v>77.61333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>77.58999999999992</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3645,21 @@
         <v>10188.2634</v>
       </c>
       <c r="G82" t="n">
+        <v>77.54000000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>77.59833333333326</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3683,21 @@
         <v>151.774</v>
       </c>
       <c r="G83" t="n">
+        <v>77.50666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>77.61333333333324</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3721,21 @@
         <v>1360</v>
       </c>
       <c r="G84" t="n">
+        <v>77.43333333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>77.62333333333324</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3759,21 @@
         <v>11284.1704</v>
       </c>
       <c r="G85" t="n">
+        <v>77.32666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>77.63166666666658</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3797,21 @@
         <v>818.4224</v>
       </c>
       <c r="G86" t="n">
+        <v>77.21333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>77.64166666666657</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3835,21 @@
         <v>1975.05</v>
       </c>
       <c r="G87" t="n">
+        <v>77.13333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>77.63166666666656</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3873,21 @@
         <v>277.6764</v>
       </c>
       <c r="G88" t="n">
+        <v>77.01333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>77.61999999999988</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3911,21 @@
         <v>178.2802</v>
       </c>
       <c r="G89" t="n">
+        <v>76.94000000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>77.60333333333321</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3949,21 @@
         <v>39.8936</v>
       </c>
       <c r="G90" t="n">
+        <v>76.86666666666669</v>
+      </c>
+      <c r="H90" t="n">
         <v>77.58666666666655</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3987,21 @@
         <v>11681.7692</v>
       </c>
       <c r="G91" t="n">
+        <v>76.83333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>77.57666666666654</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4025,21 @@
         <v>781</v>
       </c>
       <c r="G92" t="n">
+        <v>76.80666666666669</v>
+      </c>
+      <c r="H92" t="n">
         <v>77.56666666666653</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4063,21 @@
         <v>1574.386</v>
       </c>
       <c r="G93" t="n">
+        <v>76.76666666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>77.55166666666653</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4101,21 @@
         <v>691.6295</v>
       </c>
       <c r="G94" t="n">
+        <v>76.73333333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>77.53499999999987</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4139,21 @@
         <v>5228.7581</v>
       </c>
       <c r="G95" t="n">
+        <v>76.70000000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>77.51499999999987</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4177,21 @@
         <v>2750</v>
       </c>
       <c r="G96" t="n">
+        <v>76.69333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>77.49499999999988</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4215,21 @@
         <v>556</v>
       </c>
       <c r="G97" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>77.47166666666655</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4253,21 @@
         <v>3660</v>
       </c>
       <c r="G98" t="n">
+        <v>76.64666666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>77.44833333333321</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4291,21 @@
         <v>1300.390117035111</v>
       </c>
       <c r="G99" t="n">
+        <v>76.64666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>77.42166666666654</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4329,21 @@
         <v>130</v>
       </c>
       <c r="G100" t="n">
+        <v>76.65333333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>77.39166666666652</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4367,21 @@
         <v>3660</v>
       </c>
       <c r="G101" t="n">
+        <v>76.66666666666669</v>
+      </c>
+      <c r="H101" t="n">
         <v>77.36166666666652</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4405,21 @@
         <v>1299</v>
       </c>
       <c r="G102" t="n">
+        <v>76.69333333333336</v>
+      </c>
+      <c r="H102" t="n">
         <v>77.33166666666652</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4443,21 @@
         <v>39305.9369</v>
       </c>
       <c r="G103" t="n">
+        <v>76.76000000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>77.31833333333319</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4481,21 @@
         <v>105.6297</v>
       </c>
       <c r="G104" t="n">
+        <v>76.76000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>77.29666666666652</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4519,21 @@
         <v>5000</v>
       </c>
       <c r="G105" t="n">
+        <v>76.74666666666668</v>
+      </c>
+      <c r="H105" t="n">
         <v>77.27166666666652</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4557,21 @@
         <v>118.0571</v>
       </c>
       <c r="G106" t="n">
+        <v>76.70666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>77.24999999999984</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4595,21 @@
         <v>16649.1209</v>
       </c>
       <c r="G107" t="n">
+        <v>76.68666666666668</v>
+      </c>
+      <c r="H107" t="n">
         <v>77.22999999999983</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4633,21 @@
         <v>12500</v>
       </c>
       <c r="G108" t="n">
+        <v>76.67333333333336</v>
+      </c>
+      <c r="H108" t="n">
         <v>77.20999999999982</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4671,21 @@
         <v>12110</v>
       </c>
       <c r="G109" t="n">
+        <v>76.70000000000003</v>
+      </c>
+      <c r="H109" t="n">
         <v>77.20333333333316</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4709,21 @@
         <v>14</v>
       </c>
       <c r="G110" t="n">
+        <v>76.73333333333336</v>
+      </c>
+      <c r="H110" t="n">
         <v>77.2016666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4747,21 @@
         <v>14</v>
       </c>
       <c r="G111" t="n">
+        <v>76.76000000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>77.19833333333317</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4785,21 @@
         <v>88.5064</v>
       </c>
       <c r="G112" t="n">
+        <v>76.7866666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>77.18833333333315</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4823,21 @@
         <v>88.8526</v>
       </c>
       <c r="G113" t="n">
+        <v>76.77333333333337</v>
+      </c>
+      <c r="H113" t="n">
         <v>77.18499999999982</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4861,21 @@
         <v>10340</v>
       </c>
       <c r="G114" t="n">
+        <v>76.74000000000004</v>
+      </c>
+      <c r="H114" t="n">
         <v>77.17833333333314</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4899,21 @@
         <v>1945.893089960887</v>
       </c>
       <c r="G115" t="n">
+        <v>76.7266666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>77.16999999999982</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4937,21 @@
         <v>397.6679</v>
       </c>
       <c r="G116" t="n">
+        <v>76.69333333333337</v>
+      </c>
+      <c r="H116" t="n">
         <v>77.15666666666648</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4975,21 @@
         <v>5914.3407</v>
       </c>
       <c r="G117" t="n">
+        <v>76.65333333333336</v>
+      </c>
+      <c r="H117" t="n">
         <v>77.14166666666648</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5013,21 @@
         <v>5113.4288</v>
       </c>
       <c r="G118" t="n">
+        <v>76.58000000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>77.08666666666649</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5051,21 @@
         <v>454.6106</v>
       </c>
       <c r="G119" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>77.0766666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5089,21 @@
         <v>1620.4799</v>
       </c>
       <c r="G120" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>77.0616666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5127,21 @@
         <v>507.3753</v>
       </c>
       <c r="G121" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>77.03499999999984</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5165,21 @@
         <v>7184.7085</v>
       </c>
       <c r="G122" t="n">
+        <v>76.57333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>77.00166666666651</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5203,21 @@
         <v>2388.9999</v>
       </c>
       <c r="G123" t="n">
+        <v>76.61999999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>76.98333333333318</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5241,21 @@
         <v>38.9105</v>
       </c>
       <c r="G124" t="n">
+        <v>76.62666666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>76.96999999999986</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5279,21 @@
         <v>815</v>
       </c>
       <c r="G125" t="n">
+        <v>76.64666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>76.95166666666654</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5317,21 @@
         <v>6223.855</v>
       </c>
       <c r="G126" t="n">
+        <v>76.66666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>76.93333333333321</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5355,21 @@
         <v>1051.8669</v>
       </c>
       <c r="G127" t="n">
+        <v>76.67333333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>76.91666666666654</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5393,21 @@
         <v>10000</v>
       </c>
       <c r="G128" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H128" t="n">
         <v>76.90666666666655</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5431,21 @@
         <v>129.1989</v>
       </c>
       <c r="G129" t="n">
+        <v>76.76666666666664</v>
+      </c>
+      <c r="H129" t="n">
         <v>76.89666666666655</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5469,21 @@
         <v>4333.4349</v>
       </c>
       <c r="G130" t="n">
+        <v>76.81999999999996</v>
+      </c>
+      <c r="H130" t="n">
         <v>76.88166666666656</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5507,21 @@
         <v>12.9366</v>
       </c>
       <c r="G131" t="n">
+        <v>76.89333333333329</v>
+      </c>
+      <c r="H131" t="n">
         <v>76.86666666666656</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5545,21 @@
         <v>3000</v>
       </c>
       <c r="G132" t="n">
+        <v>76.9733333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>76.86333333333323</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5583,21 @@
         <v>4938.3762</v>
       </c>
       <c r="G133" t="n">
+        <v>77.05999999999996</v>
+      </c>
+      <c r="H133" t="n">
         <v>76.85333333333324</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5621,21 @@
         <v>10404.3477</v>
       </c>
       <c r="G134" t="n">
+        <v>77.11999999999996</v>
+      </c>
+      <c r="H134" t="n">
         <v>76.84666666666656</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5659,21 @@
         <v>1014.9999</v>
       </c>
       <c r="G135" t="n">
+        <v>77.21333333333331</v>
+      </c>
+      <c r="H135" t="n">
         <v>76.84833333333322</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5697,21 @@
         <v>14000.0744</v>
       </c>
       <c r="G136" t="n">
+        <v>77.29999999999997</v>
+      </c>
+      <c r="H136" t="n">
         <v>76.85166666666656</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5735,21 @@
         <v>48890.6855</v>
       </c>
       <c r="G137" t="n">
+        <v>77.37333333333329</v>
+      </c>
+      <c r="H137" t="n">
         <v>76.8599999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5773,21 @@
         <v>41787.3711</v>
       </c>
       <c r="G138" t="n">
+        <v>77.40666666666662</v>
+      </c>
+      <c r="H138" t="n">
         <v>76.86666666666657</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5811,21 @@
         <v>12.9042</v>
       </c>
       <c r="G139" t="n">
+        <v>77.43333333333331</v>
+      </c>
+      <c r="H139" t="n">
         <v>76.87333333333324</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5849,21 @@
         <v>39174.1367</v>
       </c>
       <c r="G140" t="n">
+        <v>77.4533333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>76.88333333333324</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5887,21 @@
         <v>10</v>
       </c>
       <c r="G141" t="n">
+        <v>77.49333333333331</v>
+      </c>
+      <c r="H141" t="n">
         <v>76.90333333333324</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5925,21 @@
         <v>12.87</v>
       </c>
       <c r="G142" t="n">
+        <v>77.53333333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>76.91499999999991</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5963,21 @@
         <v>3059.2086</v>
       </c>
       <c r="G143" t="n">
+        <v>77.56666666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>76.92166666666658</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6001,21 @@
         <v>5148.005148005148</v>
       </c>
       <c r="G144" t="n">
+        <v>77.58666666666664</v>
+      </c>
+      <c r="H144" t="n">
         <v>76.93499999999992</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6039,21 @@
         <v>4665.7328</v>
       </c>
       <c r="G145" t="n">
+        <v>77.55999999999997</v>
+      </c>
+      <c r="H145" t="n">
         <v>76.93999999999991</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6077,21 @@
         <v>65362.806</v>
       </c>
       <c r="G146" t="n">
+        <v>77.52666666666664</v>
+      </c>
+      <c r="H146" t="n">
         <v>76.94499999999992</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6115,21 @@
         <v>1253.5349</v>
       </c>
       <c r="G147" t="n">
+        <v>77.49333333333331</v>
+      </c>
+      <c r="H147" t="n">
         <v>76.95333333333325</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6153,21 @@
         <v>6393.8078</v>
       </c>
       <c r="G148" t="n">
+        <v>77.45333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>76.96333333333327</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6191,401 @@
         <v>599.8528</v>
       </c>
       <c r="G149" t="n">
+        <v>77.43999999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>76.97166666666659</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>77</v>
+      </c>
+      <c r="C150" t="n">
+        <v>77</v>
+      </c>
+      <c r="D150" t="n">
+        <v>77</v>
+      </c>
+      <c r="E150" t="n">
+        <v>77</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1210.2581</v>
+      </c>
+      <c r="G150" t="n">
+        <v>77.3933333333333</v>
+      </c>
+      <c r="H150" t="n">
+        <v>76.97999999999993</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>77</v>
+      </c>
+      <c r="C151" t="n">
+        <v>77</v>
+      </c>
+      <c r="D151" t="n">
+        <v>77</v>
+      </c>
+      <c r="E151" t="n">
+        <v>77</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13142</v>
+      </c>
+      <c r="G151" t="n">
+        <v>77.35333333333331</v>
+      </c>
+      <c r="H151" t="n">
+        <v>76.9816666666666</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>77</v>
+      </c>
+      <c r="C152" t="n">
+        <v>77</v>
+      </c>
+      <c r="D152" t="n">
+        <v>77</v>
+      </c>
+      <c r="E152" t="n">
+        <v>77</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16473</v>
+      </c>
+      <c r="G152" t="n">
+        <v>77.31333333333332</v>
+      </c>
+      <c r="H152" t="n">
+        <v>76.98666666666661</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>77</v>
+      </c>
+      <c r="C153" t="n">
+        <v>77</v>
+      </c>
+      <c r="D153" t="n">
+        <v>77</v>
+      </c>
+      <c r="E153" t="n">
+        <v>77</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100</v>
+      </c>
+      <c r="G153" t="n">
+        <v>77.27333333333333</v>
+      </c>
+      <c r="H153" t="n">
+        <v>76.99333333333327</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>77</v>
+      </c>
+      <c r="C154" t="n">
+        <v>77</v>
+      </c>
+      <c r="D154" t="n">
+        <v>77</v>
+      </c>
+      <c r="E154" t="n">
+        <v>77</v>
+      </c>
+      <c r="F154" t="n">
+        <v>43380.9456</v>
+      </c>
+      <c r="G154" t="n">
+        <v>77.23999999999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>76.99999999999993</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>77</v>
+      </c>
+      <c r="C155" t="n">
+        <v>77</v>
+      </c>
+      <c r="D155" t="n">
+        <v>77</v>
+      </c>
+      <c r="E155" t="n">
+        <v>77</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6088.474</v>
+      </c>
+      <c r="G155" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>77.00833333333325</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>77.13333333333334</v>
+      </c>
+      <c r="H156" t="n">
+        <v>77.01333333333325</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>77.07333333333332</v>
+      </c>
+      <c r="H157" t="n">
+        <v>77.01666666666658</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3521.7</v>
+      </c>
+      <c r="G158" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="H158" t="n">
+        <v>77.01499999999992</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>543.4585</v>
+      </c>
+      <c r="G159" t="n">
+        <v>76.98666666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>77.01999999999992</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>74.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>74.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>74.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1465.853</v>
+        <v>3.2082</v>
       </c>
       <c r="G2" t="n">
-        <v>74.8</v>
+        <v>577402.8976000001</v>
       </c>
       <c r="H2" t="n">
-        <v>74.95999999999985</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.5</v>
+        <v>75.2</v>
       </c>
       <c r="C3" t="n">
-        <v>74.3</v>
+        <v>75.2</v>
       </c>
       <c r="D3" t="n">
-        <v>74.5</v>
+        <v>75.3</v>
       </c>
       <c r="E3" t="n">
-        <v>74.3</v>
+        <v>75.2</v>
       </c>
       <c r="F3" t="n">
-        <v>8269.218199999999</v>
+        <v>30488.3664</v>
       </c>
       <c r="G3" t="n">
-        <v>74.73333333333333</v>
+        <v>607891.2640000002</v>
       </c>
       <c r="H3" t="n">
-        <v>74.94333333333319</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="D4" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E4" t="n">
-        <v>74.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>31920.4835</v>
+        <v>10862</v>
       </c>
       <c r="G4" t="n">
-        <v>74.74000000000001</v>
+        <v>618753.2640000002</v>
       </c>
       <c r="H4" t="n">
-        <v>74.94666666666652</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="C5" t="n">
-        <v>75.7</v>
+        <v>75.3</v>
       </c>
       <c r="D5" t="n">
-        <v>75.7</v>
+        <v>75.3</v>
       </c>
       <c r="E5" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="F5" t="n">
-        <v>41271.9807</v>
+        <v>6706</v>
       </c>
       <c r="G5" t="n">
-        <v>74.78666666666668</v>
+        <v>618753.2640000002</v>
       </c>
       <c r="H5" t="n">
-        <v>74.95999999999985</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>11039.4043</v>
+        <v>1500</v>
       </c>
       <c r="G6" t="n">
-        <v>74.85333333333334</v>
+        <v>620253.2640000002</v>
       </c>
       <c r="H6" t="n">
-        <v>74.96499999999986</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,40 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75.90000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="C7" t="n">
-        <v>75.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D7" t="n">
-        <v>75.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="E7" t="n">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3463.0284</v>
+        <v>12110.4815</v>
       </c>
       <c r="G7" t="n">
-        <v>74.92000000000002</v>
+        <v>608142.7825000002</v>
       </c>
       <c r="H7" t="n">
-        <v>74.97999999999985</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,40 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>17092.3838</v>
+        <v>865.8327</v>
       </c>
       <c r="G8" t="n">
-        <v>74.98666666666668</v>
+        <v>607276.9498000002</v>
       </c>
       <c r="H8" t="n">
-        <v>74.99499999999985</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>22107.9539</v>
+        <v>910</v>
       </c>
       <c r="G9" t="n">
-        <v>75.12666666666669</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H9" t="n">
-        <v>75.02499999999985</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -776,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="C10" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>31941.1803</v>
+        <v>114.6666</v>
       </c>
       <c r="G10" t="n">
-        <v>75.22666666666669</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H10" t="n">
-        <v>75.05333333333319</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>77.3</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>77.3</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>20927.2016</v>
+        <v>547</v>
       </c>
       <c r="G11" t="n">
-        <v>75.40000000000002</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H11" t="n">
-        <v>75.08999999999985</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -860,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="C12" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>77.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>29478.6467</v>
+        <v>6538.3334</v>
       </c>
       <c r="G12" t="n">
-        <v>75.56666666666668</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H12" t="n">
-        <v>75.12166666666651</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77.2</v>
+        <v>74.7</v>
       </c>
       <c r="C13" t="n">
-        <v>76.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>76.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F13" t="n">
-        <v>14987.0129</v>
+        <v>43821.7115</v>
       </c>
       <c r="G13" t="n">
-        <v>75.72666666666669</v>
+        <v>650188.6613000002</v>
       </c>
       <c r="H13" t="n">
-        <v>75.14999999999985</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -944,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>8791.4197</v>
+        <v>1050</v>
       </c>
       <c r="G14" t="n">
-        <v>75.84666666666668</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H14" t="n">
-        <v>75.16999999999986</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C15" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D15" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F15" t="n">
-        <v>10264.5291</v>
+        <v>520</v>
       </c>
       <c r="G15" t="n">
-        <v>76.02666666666667</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H15" t="n">
-        <v>75.20333333333319</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
-        <v>6037.8855</v>
+        <v>520</v>
       </c>
       <c r="G16" t="n">
-        <v>76.19333333333334</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H16" t="n">
-        <v>75.22999999999986</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>75.3</v>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>75.3</v>
       </c>
       <c r="E17" t="n">
-        <v>77</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>21597.8988</v>
       </c>
       <c r="G17" t="n">
-        <v>76.36</v>
+        <v>670736.5601000001</v>
       </c>
       <c r="H17" t="n">
-        <v>75.26666666666652</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C18" t="n">
-        <v>77.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>77.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>29061.4337</v>
+        <v>19191.8676</v>
       </c>
       <c r="G18" t="n">
-        <v>76.54666666666667</v>
+        <v>651544.6925000001</v>
       </c>
       <c r="H18" t="n">
-        <v>75.31166666666654</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,40 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>168.2931</v>
+        <v>11442.4609</v>
       </c>
       <c r="G19" t="n">
-        <v>76.67333333333333</v>
+        <v>640102.2316000002</v>
       </c>
       <c r="H19" t="n">
-        <v>75.35833333333321</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.8</v>
+        <v>74.8</v>
       </c>
       <c r="C20" t="n">
-        <v>76.8</v>
+        <v>74.8</v>
       </c>
       <c r="D20" t="n">
-        <v>76.8</v>
+        <v>74.8</v>
       </c>
       <c r="E20" t="n">
-        <v>76.8</v>
+        <v>74.8</v>
       </c>
       <c r="F20" t="n">
-        <v>7177.9557</v>
+        <v>38472.0579</v>
       </c>
       <c r="G20" t="n">
-        <v>76.74666666666666</v>
+        <v>601630.1737000002</v>
       </c>
       <c r="H20" t="n">
-        <v>75.40333333333321</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,40 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>76.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>76.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>76.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>76.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>13043.7157</v>
+        <v>200</v>
       </c>
       <c r="G21" t="n">
-        <v>76.80666666666666</v>
+        <v>601830.1737000002</v>
       </c>
       <c r="H21" t="n">
-        <v>75.43333333333321</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1280,40 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>76.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>76.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>76.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>7500</v>
+        <v>675.8511999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>76.84666666666665</v>
+        <v>601830.1737000002</v>
       </c>
       <c r="H22" t="n">
-        <v>75.45999999999988</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>76.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>76.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>76.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>26321.5404</v>
+        <v>8766.6648</v>
       </c>
       <c r="G23" t="n">
-        <v>76.87333333333331</v>
+        <v>593063.5089000001</v>
       </c>
       <c r="H23" t="n">
-        <v>75.48333333333322</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>76.3</v>
+        <v>74.8</v>
       </c>
       <c r="C24" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>76.3</v>
+        <v>74.8</v>
       </c>
       <c r="F24" t="n">
-        <v>9525.911700000001</v>
+        <v>35042.3186</v>
       </c>
       <c r="G24" t="n">
-        <v>76.84666666666664</v>
+        <v>628105.8275000001</v>
       </c>
       <c r="H24" t="n">
-        <v>75.5049999999999</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.3</v>
+        <v>74.7</v>
       </c>
       <c r="C25" t="n">
-        <v>76.3</v>
+        <v>74.7</v>
       </c>
       <c r="D25" t="n">
-        <v>76.3</v>
+        <v>74.7</v>
       </c>
       <c r="E25" t="n">
-        <v>76.3</v>
+        <v>74.7</v>
       </c>
       <c r="F25" t="n">
-        <v>355.4149</v>
+        <v>1870</v>
       </c>
       <c r="G25" t="n">
-        <v>76.80666666666663</v>
+        <v>626235.8275000001</v>
       </c>
       <c r="H25" t="n">
-        <v>75.52666666666657</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="C26" t="n">
-        <v>76.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>76.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="E26" t="n">
-        <v>76.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>4952.8494</v>
+        <v>13822.8187</v>
       </c>
       <c r="G26" t="n">
-        <v>76.72666666666663</v>
+        <v>612413.0088000002</v>
       </c>
       <c r="H26" t="n">
-        <v>75.54666666666658</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>76.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C27" t="n">
-        <v>77.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D27" t="n">
-        <v>77.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E27" t="n">
-        <v>76.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F27" t="n">
-        <v>16317.5921</v>
+        <v>13219.1234</v>
       </c>
       <c r="G27" t="n">
-        <v>76.72666666666663</v>
+        <v>599193.8854000001</v>
       </c>
       <c r="H27" t="n">
-        <v>75.58333333333326</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="C28" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="D28" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="E28" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="F28" t="n">
-        <v>2993.0098</v>
+        <v>9526.6978</v>
       </c>
       <c r="G28" t="n">
-        <v>76.73999999999995</v>
+        <v>608720.5832000001</v>
       </c>
       <c r="H28" t="n">
-        <v>75.61999999999993</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>77.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>77.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>77.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>5270</v>
+        <v>6000</v>
       </c>
       <c r="G29" t="n">
-        <v>76.79999999999995</v>
+        <v>602720.5832000001</v>
       </c>
       <c r="H29" t="n">
-        <v>75.6616666666666</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="C30" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="D30" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="E30" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="F30" t="n">
-        <v>11037.8803</v>
+        <v>13534.147</v>
       </c>
       <c r="G30" t="n">
-        <v>76.82666666666663</v>
+        <v>616254.7302000001</v>
       </c>
       <c r="H30" t="n">
-        <v>75.70333333333328</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="C31" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="D31" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="E31" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3017.8375</v>
+        <v>1465.853</v>
       </c>
       <c r="G31" t="n">
-        <v>76.85999999999996</v>
+        <v>616254.7302000001</v>
       </c>
       <c r="H31" t="n">
-        <v>75.74666666666661</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1700,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="C32" t="n">
-        <v>77.3</v>
+        <v>74.3</v>
       </c>
       <c r="D32" t="n">
-        <v>77.5</v>
+        <v>74.5</v>
       </c>
       <c r="E32" t="n">
-        <v>77.3</v>
+        <v>74.3</v>
       </c>
       <c r="F32" t="n">
-        <v>9000</v>
+        <v>8269.218199999999</v>
       </c>
       <c r="G32" t="n">
-        <v>76.87999999999995</v>
+        <v>607985.5120000001</v>
       </c>
       <c r="H32" t="n">
-        <v>75.78666666666662</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>77.5</v>
+        <v>75.2</v>
       </c>
       <c r="D33" t="n">
-        <v>77.5</v>
+        <v>75.2</v>
       </c>
       <c r="E33" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>4377.4317</v>
+        <v>31920.4835</v>
       </c>
       <c r="G33" t="n">
-        <v>76.90666666666662</v>
+        <v>639905.9955000001</v>
       </c>
       <c r="H33" t="n">
-        <v>75.82999999999996</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,40 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="D34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="E34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>21441.4714</v>
+        <v>41271.9807</v>
       </c>
       <c r="G34" t="n">
-        <v>76.93999999999997</v>
+        <v>681177.9762</v>
       </c>
       <c r="H34" t="n">
-        <v>75.86999999999996</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,40 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C35" t="n">
-        <v>77.7</v>
+        <v>75.8</v>
       </c>
       <c r="D35" t="n">
-        <v>77.7</v>
+        <v>75.8</v>
       </c>
       <c r="E35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="F35" t="n">
-        <v>12000</v>
+        <v>11039.4043</v>
       </c>
       <c r="G35" t="n">
-        <v>76.99999999999997</v>
+        <v>692217.3805000001</v>
       </c>
       <c r="H35" t="n">
-        <v>75.90999999999995</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,40 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>77.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>77.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>77.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>21242.2129</v>
+        <v>3463.0284</v>
       </c>
       <c r="G36" t="n">
-        <v>77.0733333333333</v>
+        <v>695680.4089</v>
       </c>
       <c r="H36" t="n">
-        <v>75.95166666666663</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,40 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>78</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>77.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>14562.9375</v>
+        <v>17092.3838</v>
       </c>
       <c r="G37" t="n">
-        <v>77.1733333333333</v>
+        <v>695680.4089</v>
       </c>
       <c r="H37" t="n">
-        <v>75.99499999999996</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1952,40 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="C38" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="D38" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="E38" t="n">
-        <v>78.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="F38" t="n">
-        <v>73407.2729</v>
+        <v>22107.9539</v>
       </c>
       <c r="G38" t="n">
-        <v>77.30666666666663</v>
+        <v>717788.3628</v>
       </c>
       <c r="H38" t="n">
-        <v>76.04499999999997</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,76 +1728,68 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C39" t="n">
-        <v>78.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>78.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F39" t="n">
-        <v>63294.2574</v>
+        <v>31941.1803</v>
       </c>
       <c r="G39" t="n">
-        <v>77.4533333333333</v>
+        <v>749729.5431</v>
       </c>
       <c r="H39" t="n">
-        <v>76.10166666666663</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.5</v>
+        <v>77.2</v>
       </c>
       <c r="C40" t="n">
-        <v>78.7</v>
+        <v>77.3</v>
       </c>
       <c r="D40" t="n">
-        <v>78.7</v>
+        <v>77.3</v>
       </c>
       <c r="E40" t="n">
-        <v>78.2</v>
+        <v>77.2</v>
       </c>
       <c r="F40" t="n">
-        <v>79070.96189999999</v>
+        <v>20927.2016</v>
       </c>
       <c r="G40" t="n">
-        <v>77.6133333333333</v>
+        <v>770656.7447</v>
       </c>
       <c r="H40" t="n">
-        <v>76.16333333333328</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>78.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>78.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>78.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>78.7</v>
+        <v>77</v>
       </c>
       <c r="F41" t="n">
-        <v>101539.6848</v>
+        <v>29478.6467</v>
       </c>
       <c r="G41" t="n">
-        <v>77.78666666666665</v>
+        <v>741178.098</v>
       </c>
       <c r="H41" t="n">
-        <v>76.22499999999995</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="C42" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="E42" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>14346.0585</v>
+        <v>14987.0129</v>
       </c>
       <c r="G42" t="n">
-        <v>77.89333333333333</v>
+        <v>726191.0851</v>
       </c>
       <c r="H42" t="n">
-        <v>76.28666666666662</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>78.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>78.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>78.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>7310.9609</v>
+        <v>8791.4197</v>
       </c>
       <c r="G43" t="n">
-        <v>77.96666666666667</v>
+        <v>717399.6654000001</v>
       </c>
       <c r="H43" t="n">
-        <v>76.33999999999995</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>78</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>77.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>9228.2251</v>
+        <v>10264.5291</v>
       </c>
       <c r="G44" t="n">
-        <v>77.98666666666666</v>
+        <v>727664.1945000001</v>
       </c>
       <c r="H44" t="n">
-        <v>76.38499999999995</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>77.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="E45" t="n">
-        <v>77.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>3620</v>
+        <v>6037.8855</v>
       </c>
       <c r="G45" t="n">
-        <v>78.00666666666666</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H45" t="n">
-        <v>76.43166666666662</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C46" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D46" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E46" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F46" t="n">
-        <v>4102.5793</v>
+        <v>12000</v>
       </c>
       <c r="G46" t="n">
-        <v>78.01333333333332</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H46" t="n">
-        <v>76.47499999999995</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>77.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>77.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>20980.5323</v>
+        <v>29061.4337</v>
       </c>
       <c r="G47" t="n">
-        <v>78.03333333333332</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H47" t="n">
-        <v>76.51833333333329</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>427.8981</v>
+        <v>168.2931</v>
       </c>
       <c r="G48" t="n">
-        <v>78.03999999999998</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H48" t="n">
-        <v>76.55666666666663</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="C49" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D49" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="E49" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F49" t="n">
-        <v>18985.2355</v>
+        <v>7177.9557</v>
       </c>
       <c r="G49" t="n">
-        <v>78.02666666666666</v>
+        <v>743509.7870000001</v>
       </c>
       <c r="H49" t="n">
-        <v>76.59499999999996</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D50" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F50" t="n">
-        <v>27926.0806</v>
+        <v>13043.7157</v>
       </c>
       <c r="G50" t="n">
-        <v>77.98666666666665</v>
+        <v>730466.0713000002</v>
       </c>
       <c r="H50" t="n">
-        <v>76.62999999999995</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="C51" t="n">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="D51" t="n">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="E51" t="n">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="F51" t="n">
-        <v>15069.5952</v>
+        <v>7500</v>
       </c>
       <c r="G51" t="n">
-        <v>77.94666666666666</v>
+        <v>722966.0713000002</v>
       </c>
       <c r="H51" t="n">
-        <v>76.66999999999994</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D52" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>26321.5404</v>
       </c>
       <c r="G52" t="n">
-        <v>77.91999999999999</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H52" t="n">
-        <v>76.71499999999996</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="C53" t="n">
-        <v>76.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D53" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="E53" t="n">
-        <v>76.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F53" t="n">
-        <v>42020</v>
+        <v>9525.911700000001</v>
       </c>
       <c r="G53" t="n">
-        <v>77.82666666666665</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H53" t="n">
-        <v>76.74833333333329</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>76.8</v>
+        <v>76.3</v>
       </c>
       <c r="C54" t="n">
-        <v>76.8</v>
+        <v>76.3</v>
       </c>
       <c r="D54" t="n">
-        <v>76.8</v>
+        <v>76.3</v>
       </c>
       <c r="E54" t="n">
-        <v>76.8</v>
+        <v>76.3</v>
       </c>
       <c r="F54" t="n">
-        <v>18000</v>
+        <v>355.4149</v>
       </c>
       <c r="G54" t="n">
-        <v>77.71333333333332</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H54" t="n">
-        <v>76.78499999999995</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>77.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>1172.8936</v>
+        <v>4952.8494</v>
       </c>
       <c r="G55" t="n">
-        <v>77.61333333333332</v>
+        <v>691691.6815000002</v>
       </c>
       <c r="H55" t="n">
-        <v>76.81499999999997</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>122.3738</v>
+        <v>16317.5921</v>
       </c>
       <c r="G56" t="n">
-        <v>77.51333333333332</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H56" t="n">
-        <v>76.85666666666663</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>6085.1071</v>
+        <v>2993.0098</v>
       </c>
       <c r="G57" t="n">
-        <v>77.41333333333333</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H57" t="n">
-        <v>76.89999999999995</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>79.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D58" t="n">
-        <v>79.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E58" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>185064.5670693467</v>
+        <v>5270</v>
       </c>
       <c r="G58" t="n">
-        <v>77.50666666666665</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H58" t="n">
-        <v>76.98499999999996</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C59" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D59" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E59" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F59" t="n">
-        <v>7482.1359</v>
+        <v>11037.8803</v>
       </c>
       <c r="G59" t="n">
-        <v>77.44666666666666</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H59" t="n">
-        <v>77.01999999999995</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C60" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="D60" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E60" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F60" t="n">
-        <v>22909.14</v>
+        <v>3017.8375</v>
       </c>
       <c r="G60" t="n">
-        <v>77.40666666666667</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H60" t="n">
-        <v>77.06666666666662</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C61" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D61" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E61" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="F61" t="n">
-        <v>13869.3585</v>
+        <v>9000</v>
       </c>
       <c r="G61" t="n">
-        <v>77.42666666666668</v>
+        <v>704279.2736000002</v>
       </c>
       <c r="H61" t="n">
-        <v>77.12333333333328</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C62" t="n">
-        <v>78.5</v>
+        <v>77.5</v>
       </c>
       <c r="D62" t="n">
-        <v>78.5</v>
+        <v>77.5</v>
       </c>
       <c r="E62" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F62" t="n">
-        <v>31898.9448</v>
+        <v>4377.4317</v>
       </c>
       <c r="G62" t="n">
-        <v>77.48666666666668</v>
+        <v>708656.7053000001</v>
       </c>
       <c r="H62" t="n">
-        <v>77.18999999999996</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>78.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>78.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>78.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>10204.1123</v>
+        <v>21441.4714</v>
       </c>
       <c r="G63" t="n">
-        <v>77.52666666666669</v>
+        <v>730098.1767000002</v>
       </c>
       <c r="H63" t="n">
-        <v>77.25499999999994</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D64" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E64" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>9975</v>
+        <v>12000</v>
       </c>
       <c r="G64" t="n">
-        <v>77.56000000000002</v>
+        <v>742098.1767000002</v>
       </c>
       <c r="H64" t="n">
-        <v>77.29999999999994</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>78.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="D65" t="n">
-        <v>78.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E65" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="F65" t="n">
-        <v>6880.7466</v>
+        <v>21242.2129</v>
       </c>
       <c r="G65" t="n">
-        <v>77.6466666666667</v>
+        <v>763340.3896000002</v>
       </c>
       <c r="H65" t="n">
-        <v>77.34499999999994</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>78.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C66" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D66" t="n">
-        <v>78.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E66" t="n">
-        <v>78.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F66" t="n">
-        <v>2969.9653</v>
+        <v>14562.9375</v>
       </c>
       <c r="G66" t="n">
-        <v>77.7266666666667</v>
+        <v>777903.3271000002</v>
       </c>
       <c r="H66" t="n">
-        <v>77.38833333333326</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,33 +2711,30 @@
         <v>78.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="D67" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="E67" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2966.0782</v>
+        <v>73407.2729</v>
       </c>
       <c r="G67" t="n">
-        <v>77.76000000000003</v>
+        <v>851310.6000000002</v>
       </c>
       <c r="H67" t="n">
-        <v>77.42499999999994</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>78</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>77.7</v>
+        <v>78.5</v>
       </c>
       <c r="D68" t="n">
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="E68" t="n">
-        <v>77.7</v>
+        <v>78.3</v>
       </c>
       <c r="F68" t="n">
-        <v>11692.4875</v>
+        <v>63294.2574</v>
       </c>
       <c r="G68" t="n">
-        <v>77.81333333333336</v>
+        <v>914604.8574000002</v>
       </c>
       <c r="H68" t="n">
-        <v>77.45499999999994</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="C69" t="n">
-        <v>78</v>
+        <v>78.7</v>
       </c>
       <c r="D69" t="n">
-        <v>78</v>
+        <v>78.7</v>
       </c>
       <c r="E69" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="F69" t="n">
-        <v>12966.0783</v>
+        <v>79070.96189999999</v>
       </c>
       <c r="G69" t="n">
-        <v>77.89333333333337</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H69" t="n">
-        <v>77.47666666666662</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="C70" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="D70" t="n">
-        <v>78.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="E70" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>101539.6848</v>
       </c>
       <c r="G70" t="n">
-        <v>77.97333333333337</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H70" t="n">
-        <v>77.50166666666661</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="C71" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="D71" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="E71" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2490</v>
+        <v>14346.0585</v>
       </c>
       <c r="G71" t="n">
-        <v>78.05333333333337</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H71" t="n">
-        <v>77.51999999999994</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>77.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="D72" t="n">
-        <v>77.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="F72" t="n">
-        <v>4625.8905</v>
+        <v>7310.9609</v>
       </c>
       <c r="G72" t="n">
-        <v>78.08666666666672</v>
+        <v>986364.8584000003</v>
       </c>
       <c r="H72" t="n">
-        <v>77.52999999999993</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="C73" t="n">
-        <v>78.2</v>
+        <v>77.8</v>
       </c>
       <c r="D73" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="E73" t="n">
-        <v>78.2</v>
+        <v>77.8</v>
       </c>
       <c r="F73" t="n">
-        <v>4310</v>
+        <v>9228.2251</v>
       </c>
       <c r="G73" t="n">
-        <v>77.99333333333338</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H73" t="n">
-        <v>77.55166666666659</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C74" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D74" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E74" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F74" t="n">
-        <v>11572.0972</v>
+        <v>3620</v>
       </c>
       <c r="G74" t="n">
-        <v>78.04000000000003</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H74" t="n">
-        <v>77.56833333333326</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C75" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E75" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>386.597</v>
+        <v>4102.5793</v>
       </c>
       <c r="G75" t="n">
-        <v>78.06666666666669</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H75" t="n">
-        <v>77.5766666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>6820</v>
+        <v>20980.5323</v>
       </c>
       <c r="G76" t="n">
-        <v>78.03333333333336</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H76" t="n">
-        <v>77.58333333333326</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>1448.0284</v>
+        <v>427.8981</v>
       </c>
       <c r="G77" t="n">
-        <v>77.94000000000003</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H77" t="n">
-        <v>77.58499999999994</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C78" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E78" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>10112.2279</v>
+        <v>18985.2355</v>
       </c>
       <c r="G78" t="n">
-        <v>77.87333333333336</v>
+        <v>954048.8185000003</v>
       </c>
       <c r="H78" t="n">
-        <v>77.58666666666659</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E79" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0001</v>
+        <v>27926.0806</v>
       </c>
       <c r="G79" t="n">
-        <v>77.82000000000001</v>
+        <v>926122.7379000003</v>
       </c>
       <c r="H79" t="n">
-        <v>77.58666666666659</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C80" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D80" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E80" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F80" t="n">
-        <v>7329.8429</v>
+        <v>15069.5952</v>
       </c>
       <c r="G80" t="n">
-        <v>77.72666666666667</v>
+        <v>941192.3331000003</v>
       </c>
       <c r="H80" t="n">
-        <v>77.58999999999992</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>392.6984</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>77.61333333333333</v>
+        <v>941202.3331000003</v>
       </c>
       <c r="H81" t="n">
-        <v>77.58999999999992</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="C82" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="E82" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>10188.2634</v>
+        <v>42020</v>
       </c>
       <c r="G82" t="n">
-        <v>77.54000000000001</v>
+        <v>899182.3331000003</v>
       </c>
       <c r="H82" t="n">
-        <v>77.59833333333326</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="C83" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="D83" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="E83" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="F83" t="n">
-        <v>151.774</v>
+        <v>18000</v>
       </c>
       <c r="G83" t="n">
-        <v>77.50666666666667</v>
+        <v>881182.3331000003</v>
       </c>
       <c r="H83" t="n">
-        <v>77.61333333333324</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C84" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D84" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E84" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1360</v>
+        <v>1172.8936</v>
       </c>
       <c r="G84" t="n">
-        <v>77.43333333333335</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H84" t="n">
-        <v>77.62333333333324</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3338,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C85" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="D85" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E85" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="F85" t="n">
-        <v>11284.1704</v>
+        <v>122.3738</v>
       </c>
       <c r="G85" t="n">
-        <v>77.32666666666667</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H85" t="n">
-        <v>77.63166666666658</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>77.2</v>
+      </c>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3377,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="C86" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="D86" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E86" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="F86" t="n">
-        <v>818.4224</v>
+        <v>6085.1071</v>
       </c>
       <c r="G86" t="n">
-        <v>77.21333333333334</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H86" t="n">
-        <v>77.64166666666657</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3420,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="C87" t="n">
-        <v>76.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>76.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="F87" t="n">
-        <v>1975.05</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G87" t="n">
-        <v>77.13333333333334</v>
+        <v>1067419.793769347</v>
       </c>
       <c r="H87" t="n">
-        <v>77.63166666666656</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3463,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>277.6764</v>
+        <v>7482.1359</v>
       </c>
       <c r="G88" t="n">
-        <v>77.01333333333334</v>
+        <v>1059937.657869347</v>
       </c>
       <c r="H88" t="n">
-        <v>77.61999999999988</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3504,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="D89" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="E89" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>178.2802</v>
+        <v>22909.14</v>
       </c>
       <c r="G89" t="n">
-        <v>76.94000000000001</v>
+        <v>1082846.797869347</v>
       </c>
       <c r="H89" t="n">
-        <v>77.60333333333321</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3545,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="C90" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="F90" t="n">
-        <v>39.8936</v>
+        <v>13869.3585</v>
       </c>
       <c r="G90" t="n">
-        <v>76.86666666666669</v>
+        <v>1096716.156369347</v>
       </c>
       <c r="H90" t="n">
-        <v>77.58666666666655</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3588,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>76.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="D91" t="n">
-        <v>76.90000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="E91" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>11681.7692</v>
+        <v>31898.9448</v>
       </c>
       <c r="G91" t="n">
-        <v>76.83333333333334</v>
+        <v>1128615.101169347</v>
       </c>
       <c r="H91" t="n">
-        <v>77.57666666666654</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K91" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3631,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="C92" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="D92" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="E92" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="F92" t="n">
-        <v>781</v>
+        <v>10204.1123</v>
       </c>
       <c r="G92" t="n">
-        <v>76.80666666666669</v>
+        <v>1118410.988869347</v>
       </c>
       <c r="H92" t="n">
-        <v>77.56666666666653</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3672,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>1574.386</v>
+        <v>9975</v>
       </c>
       <c r="G93" t="n">
-        <v>76.76666666666668</v>
+        <v>1108435.988869347</v>
       </c>
       <c r="H93" t="n">
-        <v>77.55166666666653</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3713,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>76.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C94" t="n">
-        <v>76.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>76.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>76.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F94" t="n">
-        <v>691.6295</v>
+        <v>6880.7466</v>
       </c>
       <c r="G94" t="n">
-        <v>76.73333333333335</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H94" t="n">
-        <v>77.53499999999987</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3754,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>76.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>5228.7581</v>
+        <v>2969.9653</v>
       </c>
       <c r="G95" t="n">
-        <v>76.70000000000002</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H95" t="n">
-        <v>77.51499999999987</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3795,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>76.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>76.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>76.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>76.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>2750</v>
+        <v>2966.0782</v>
       </c>
       <c r="G96" t="n">
-        <v>76.69333333333334</v>
+        <v>1112350.657269347</v>
       </c>
       <c r="H96" t="n">
-        <v>77.49499999999988</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3836,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>76.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C97" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D97" t="n">
-        <v>76.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="E97" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F97" t="n">
-        <v>556</v>
+        <v>11692.4875</v>
       </c>
       <c r="G97" t="n">
-        <v>76.66666666666667</v>
+        <v>1100658.169769347</v>
       </c>
       <c r="H97" t="n">
-        <v>77.47166666666655</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,37 +3877,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>76.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="D98" t="n">
-        <v>76.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="E98" t="n">
-        <v>76.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>3660</v>
+        <v>12966.0783</v>
       </c>
       <c r="G98" t="n">
-        <v>76.64666666666668</v>
+        <v>1113624.248069347</v>
       </c>
       <c r="H98" t="n">
-        <v>77.44833333333321</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1.005362694300518</v>
       </c>
     </row>
     <row r="99">
@@ -4276,36 +3918,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>1300.390117035111</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>76.64666666666668</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H99" t="n">
-        <v>77.42166666666654</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +3953,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>76.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>130</v>
+        <v>2490</v>
       </c>
       <c r="G100" t="n">
-        <v>76.65333333333335</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H100" t="n">
-        <v>77.39166666666652</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +3988,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C101" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D101" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E101" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F101" t="n">
-        <v>3660</v>
+        <v>4625.8905</v>
       </c>
       <c r="G101" t="n">
-        <v>76.66666666666669</v>
+        <v>1110998.357569347</v>
       </c>
       <c r="H101" t="n">
-        <v>77.36166666666652</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4023,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>76.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="C102" t="n">
-        <v>76.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D102" t="n">
-        <v>76.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E102" t="n">
-        <v>76.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="F102" t="n">
-        <v>1299</v>
+        <v>4310</v>
       </c>
       <c r="G102" t="n">
-        <v>76.69333333333336</v>
+        <v>1115308.357569347</v>
       </c>
       <c r="H102" t="n">
-        <v>77.33166666666652</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4058,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>77.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>39305.9369</v>
+        <v>11572.0972</v>
       </c>
       <c r="G103" t="n">
-        <v>76.76000000000002</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H103" t="n">
-        <v>77.31833333333319</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4093,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>105.6297</v>
+        <v>386.597</v>
       </c>
       <c r="G104" t="n">
-        <v>76.76000000000002</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H104" t="n">
-        <v>77.29666666666652</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4128,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>6820</v>
       </c>
       <c r="G105" t="n">
-        <v>76.74666666666668</v>
+        <v>1096916.260369347</v>
       </c>
       <c r="H105" t="n">
-        <v>77.27166666666652</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4163,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>118.0571</v>
+        <v>1448.0284</v>
       </c>
       <c r="G106" t="n">
-        <v>76.70666666666668</v>
+        <v>1095468.231969347</v>
       </c>
       <c r="H106" t="n">
-        <v>77.24999999999984</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4198,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>76.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C107" t="n">
-        <v>76.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D107" t="n">
-        <v>76.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E107" t="n">
-        <v>76.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F107" t="n">
-        <v>16649.1209</v>
+        <v>10112.2279</v>
       </c>
       <c r="G107" t="n">
-        <v>76.68666666666668</v>
+        <v>1105580.459869347</v>
       </c>
       <c r="H107" t="n">
-        <v>77.22999999999983</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4233,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>76.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>76.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>76.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>76.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>12500</v>
+        <v>0.0001</v>
       </c>
       <c r="G108" t="n">
-        <v>76.67333333333336</v>
+        <v>1105580.459769347</v>
       </c>
       <c r="H108" t="n">
-        <v>77.20999999999982</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,24 +4280,21 @@
         <v>77</v>
       </c>
       <c r="F109" t="n">
-        <v>12110</v>
+        <v>7329.8429</v>
       </c>
       <c r="G109" t="n">
-        <v>76.70000000000003</v>
+        <v>1098250.616869347</v>
       </c>
       <c r="H109" t="n">
-        <v>77.20333333333316</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4303,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C110" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D110" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E110" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>392.6984</v>
       </c>
       <c r="G110" t="n">
-        <v>76.73333333333336</v>
+        <v>1097857.918469347</v>
       </c>
       <c r="H110" t="n">
-        <v>77.2016666666665</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,24 +4350,21 @@
         <v>77</v>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>10188.2634</v>
       </c>
       <c r="G111" t="n">
-        <v>76.76000000000003</v>
+        <v>1108046.181869347</v>
       </c>
       <c r="H111" t="n">
-        <v>77.19833333333317</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4373,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C112" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D112" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E112" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F112" t="n">
-        <v>88.5064</v>
+        <v>151.774</v>
       </c>
       <c r="G112" t="n">
-        <v>76.7866666666667</v>
+        <v>1108197.955869347</v>
       </c>
       <c r="H112" t="n">
-        <v>77.18833333333315</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4408,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>88.8526</v>
+        <v>1360</v>
       </c>
       <c r="G113" t="n">
-        <v>76.77333333333337</v>
+        <v>1106837.955869347</v>
       </c>
       <c r="H113" t="n">
-        <v>77.18499999999982</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4443,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D114" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F114" t="n">
-        <v>10340</v>
+        <v>11284.1704</v>
       </c>
       <c r="G114" t="n">
-        <v>76.74000000000004</v>
+        <v>1095553.785469347</v>
       </c>
       <c r="H114" t="n">
-        <v>77.17833333333314</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,24 +4496,25 @@
         <v>76.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1945.893089960887</v>
+        <v>818.4224</v>
       </c>
       <c r="G115" t="n">
-        <v>76.7266666666667</v>
+        <v>1094735.363069347</v>
       </c>
       <c r="H115" t="n">
-        <v>77.16999999999982</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4523,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C116" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D116" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E116" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F116" t="n">
-        <v>397.6679</v>
+        <v>1975.05</v>
       </c>
       <c r="G116" t="n">
-        <v>76.69333333333337</v>
+        <v>1092760.313069347</v>
       </c>
       <c r="H116" t="n">
-        <v>77.15666666666648</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4564,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>5914.3407</v>
+        <v>277.6764</v>
       </c>
       <c r="G117" t="n">
-        <v>76.65333333333336</v>
+        <v>1092482.636669347</v>
       </c>
       <c r="H117" t="n">
-        <v>77.14166666666648</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4605,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="C118" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D118" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="E118" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F118" t="n">
-        <v>5113.4288</v>
+        <v>178.2802</v>
       </c>
       <c r="G118" t="n">
-        <v>76.58000000000001</v>
+        <v>1092660.916869347</v>
       </c>
       <c r="H118" t="n">
-        <v>77.08666666666649</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4646,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="C119" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D119" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="E119" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F119" t="n">
-        <v>454.6106</v>
+        <v>39.8936</v>
       </c>
       <c r="G119" t="n">
-        <v>76.56666666666668</v>
+        <v>1092660.916869347</v>
       </c>
       <c r="H119" t="n">
-        <v>77.0766666666665</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4685,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="C120" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="F120" t="n">
-        <v>1620.4799</v>
+        <v>11681.7692</v>
       </c>
       <c r="G120" t="n">
-        <v>76.56666666666668</v>
+        <v>1104342.686069346</v>
       </c>
       <c r="H120" t="n">
-        <v>77.0616666666665</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4726,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>76.3</v>
+        <v>76.7</v>
       </c>
       <c r="C121" t="n">
-        <v>76.3</v>
+        <v>76.7</v>
       </c>
       <c r="D121" t="n">
-        <v>76.3</v>
+        <v>76.7</v>
       </c>
       <c r="E121" t="n">
-        <v>76.3</v>
+        <v>76.7</v>
       </c>
       <c r="F121" t="n">
-        <v>507.3753</v>
+        <v>781</v>
       </c>
       <c r="G121" t="n">
-        <v>76.56666666666668</v>
+        <v>1103561.686069346</v>
       </c>
       <c r="H121" t="n">
-        <v>77.03499999999984</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4765,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>7184.7085</v>
+        <v>1574.386</v>
       </c>
       <c r="G122" t="n">
-        <v>76.57333333333334</v>
+        <v>1101987.300069347</v>
       </c>
       <c r="H122" t="n">
-        <v>77.00166666666651</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4806,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>2388.9999</v>
+        <v>691.6295</v>
       </c>
       <c r="G123" t="n">
-        <v>76.61999999999999</v>
+        <v>1101987.300069347</v>
       </c>
       <c r="H123" t="n">
-        <v>76.98333333333318</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4845,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C124" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D124" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E124" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F124" t="n">
-        <v>38.9105</v>
+        <v>5228.7581</v>
       </c>
       <c r="G124" t="n">
-        <v>76.62666666666665</v>
+        <v>1096758.541969347</v>
       </c>
       <c r="H124" t="n">
-        <v>76.96999999999986</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4884,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="C125" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="F125" t="n">
-        <v>815</v>
+        <v>2750</v>
       </c>
       <c r="G125" t="n">
-        <v>76.64666666666666</v>
+        <v>1099508.541969347</v>
       </c>
       <c r="H125" t="n">
-        <v>76.95166666666654</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4923,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>6223.855</v>
+        <v>556</v>
       </c>
       <c r="G126" t="n">
-        <v>76.66666666666666</v>
+        <v>1099508.541969347</v>
       </c>
       <c r="H126" t="n">
-        <v>76.93333333333321</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4962,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>1051.8669</v>
+        <v>3660</v>
       </c>
       <c r="G127" t="n">
-        <v>76.67333333333332</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H127" t="n">
-        <v>76.91666666666654</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +5001,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>10000</v>
+        <v>1300.390117035111</v>
       </c>
       <c r="G128" t="n">
-        <v>76.69999999999997</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H128" t="n">
-        <v>76.90666666666655</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5040,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>129.1989</v>
+        <v>130</v>
       </c>
       <c r="G129" t="n">
-        <v>76.76666666666664</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H129" t="n">
-        <v>76.89666666666655</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5079,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>4333.4349</v>
+        <v>3660</v>
       </c>
       <c r="G130" t="n">
-        <v>76.81999999999996</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H130" t="n">
-        <v>76.88166666666656</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5118,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>12.9366</v>
+        <v>1299</v>
       </c>
       <c r="G131" t="n">
-        <v>76.89333333333329</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H131" t="n">
-        <v>76.86666666666656</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5157,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>3000</v>
+        <v>39305.9369</v>
       </c>
       <c r="G132" t="n">
-        <v>76.9733333333333</v>
+        <v>1142474.478869347</v>
       </c>
       <c r="H132" t="n">
-        <v>76.86333333333323</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5196,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C133" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D133" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E133" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F133" t="n">
-        <v>4938.3762</v>
+        <v>105.6297</v>
       </c>
       <c r="G133" t="n">
-        <v>77.05999999999996</v>
+        <v>1142368.849169347</v>
       </c>
       <c r="H133" t="n">
-        <v>76.85333333333324</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5235,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="C134" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="D134" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="E134" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="F134" t="n">
-        <v>10404.3477</v>
+        <v>5000</v>
       </c>
       <c r="G134" t="n">
-        <v>77.11999999999996</v>
+        <v>1137368.849169347</v>
       </c>
       <c r="H134" t="n">
-        <v>76.84666666666656</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5274,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="C135" t="n">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="D135" t="n">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="E135" t="n">
-        <v>77.7</v>
+        <v>76.3</v>
       </c>
       <c r="F135" t="n">
-        <v>1014.9999</v>
+        <v>118.0571</v>
       </c>
       <c r="G135" t="n">
-        <v>77.21333333333331</v>
+        <v>1137368.849169347</v>
       </c>
       <c r="H135" t="n">
-        <v>76.84833333333322</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5313,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>14000.0744</v>
+        <v>16649.1209</v>
       </c>
       <c r="G136" t="n">
-        <v>77.29999999999997</v>
+        <v>1154017.970069347</v>
       </c>
       <c r="H136" t="n">
-        <v>76.85166666666656</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5352,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>77.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>48890.6855</v>
+        <v>12500</v>
       </c>
       <c r="G137" t="n">
-        <v>77.37333333333329</v>
+        <v>1154017.970069347</v>
       </c>
       <c r="H137" t="n">
-        <v>76.8599999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,36 +5391,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C138" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D138" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E138" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F138" t="n">
-        <v>41787.3711</v>
+        <v>12110</v>
       </c>
       <c r="G138" t="n">
-        <v>77.40666666666662</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H138" t="n">
-        <v>76.86666666666657</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,36 +5430,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="C139" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="D139" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E139" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F139" t="n">
-        <v>12.9042</v>
+        <v>14</v>
       </c>
       <c r="G139" t="n">
-        <v>77.43333333333331</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H139" t="n">
-        <v>76.87333333333324</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,36 +5469,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C140" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D140" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E140" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F140" t="n">
-        <v>39174.1367</v>
+        <v>14</v>
       </c>
       <c r="G140" t="n">
-        <v>77.4533333333333</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H140" t="n">
-        <v>76.88333333333324</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,36 +5508,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="C141" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="D141" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E141" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>88.5064</v>
       </c>
       <c r="G141" t="n">
-        <v>77.49333333333331</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H141" t="n">
-        <v>76.90333333333324</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,36 +5547,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="C142" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="D142" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="E142" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="F142" t="n">
-        <v>12.87</v>
+        <v>88.8526</v>
       </c>
       <c r="G142" t="n">
-        <v>77.53333333333332</v>
+        <v>1166039.117469347</v>
       </c>
       <c r="H142" t="n">
-        <v>76.91499999999991</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,36 +5588,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>3059.2086</v>
+        <v>10340</v>
       </c>
       <c r="G143" t="n">
-        <v>77.56666666666665</v>
+        <v>1155699.117469347</v>
       </c>
       <c r="H143" t="n">
-        <v>76.92166666666658</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,36 +5629,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="C144" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="D144" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="E144" t="n">
-        <v>77.7</v>
+        <v>76.7</v>
       </c>
       <c r="F144" t="n">
-        <v>5148.005148005148</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G144" t="n">
-        <v>77.58666666666664</v>
+        <v>1157645.010559307</v>
       </c>
       <c r="H144" t="n">
-        <v>76.93499999999992</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,36 +5668,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>77.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>4665.7328</v>
+        <v>397.6679</v>
       </c>
       <c r="G145" t="n">
-        <v>77.55999999999997</v>
+        <v>1157247.342659307</v>
       </c>
       <c r="H145" t="n">
-        <v>76.93999999999991</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,36 +5707,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C146" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="D146" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E146" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="F146" t="n">
-        <v>65362.806</v>
+        <v>5914.3407</v>
       </c>
       <c r="G146" t="n">
-        <v>77.52666666666664</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H146" t="n">
-        <v>76.94499999999992</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,36 +5746,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="C147" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="D147" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="E147" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="F147" t="n">
-        <v>1253.5349</v>
+        <v>5113.4288</v>
       </c>
       <c r="G147" t="n">
-        <v>77.49333333333331</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H147" t="n">
-        <v>76.95333333333325</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +5785,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="C148" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="D148" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="E148" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="F148" t="n">
-        <v>6393.8078</v>
+        <v>454.6106</v>
       </c>
       <c r="G148" t="n">
-        <v>77.45333333333332</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H148" t="n">
-        <v>76.96333333333327</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,36 +5824,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="C149" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="D149" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="E149" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="F149" t="n">
-        <v>599.8528</v>
+        <v>1620.4799</v>
       </c>
       <c r="G149" t="n">
-        <v>77.43999999999998</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H149" t="n">
-        <v>76.97166666666659</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,36 +5865,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="C150" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="D150" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="E150" t="n">
-        <v>77</v>
+        <v>76.3</v>
       </c>
       <c r="F150" t="n">
-        <v>1210.2581</v>
+        <v>507.3753</v>
       </c>
       <c r="G150" t="n">
-        <v>77.3933333333333</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H150" t="n">
-        <v>76.97999999999993</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,36 +5906,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="C151" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="D151" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="E151" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="F151" t="n">
-        <v>13142</v>
+        <v>7184.7085</v>
       </c>
       <c r="G151" t="n">
-        <v>77.35333333333331</v>
+        <v>1158517.710459307</v>
       </c>
       <c r="H151" t="n">
-        <v>76.9816666666666</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,36 +5947,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C152" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>16473</v>
+        <v>2388.9999</v>
       </c>
       <c r="G152" t="n">
-        <v>77.31333333333332</v>
+        <v>1160906.710359307</v>
       </c>
       <c r="H152" t="n">
-        <v>76.98666666666661</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,36 +5986,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>100</v>
+        <v>38.9105</v>
       </c>
       <c r="G153" t="n">
-        <v>77.27333333333333</v>
+        <v>1160906.710359307</v>
       </c>
       <c r="H153" t="n">
-        <v>76.99333333333327</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,36 +6025,37 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="C154" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D154" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="E154" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="F154" t="n">
-        <v>43380.9456</v>
+        <v>815</v>
       </c>
       <c r="G154" t="n">
-        <v>77.23999999999999</v>
+        <v>1161721.710359307</v>
       </c>
       <c r="H154" t="n">
-        <v>76.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,36 +6064,37 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="C155" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D155" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="E155" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="F155" t="n">
-        <v>6088.474</v>
+        <v>6223.855</v>
       </c>
       <c r="G155" t="n">
-        <v>77.2</v>
+        <v>1161721.710359307</v>
       </c>
       <c r="H155" t="n">
-        <v>77.00833333333325</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,36 +6103,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>2000</v>
+        <v>1051.8669</v>
       </c>
       <c r="G156" t="n">
-        <v>77.13333333333334</v>
+        <v>1160669.843459307</v>
       </c>
       <c r="H156" t="n">
-        <v>77.01333333333325</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,36 +6142,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C157" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G157" t="n">
-        <v>77.07333333333332</v>
+        <v>1160669.843459307</v>
       </c>
       <c r="H157" t="n">
-        <v>77.01666666666658</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,36 +6181,37 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>3521.7</v>
+        <v>129.1989</v>
       </c>
       <c r="G158" t="n">
-        <v>77.02</v>
+        <v>1160799.042359307</v>
       </c>
       <c r="H158" t="n">
-        <v>77.01499999999992</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,36 +6220,1180 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4333.4349</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12.9366</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4938.3762</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1170070.853459307</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>77.2</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C163" t="n">
         <v>77.2</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D163" t="n">
         <v>77.2</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E163" t="n">
         <v>77.2</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F163" t="n">
+        <v>10404.3477</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1159666.505759307</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C164" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1014.9999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1160681.505659307</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>14000.0744</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D166" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F166" t="n">
+        <v>48890.6855</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>41787.3711</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12.9042</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1146668.527059307</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>39174.1367</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1185842.663759307</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1185852.663759307</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1185839.793759307</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3059.2086</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1182780.585159307</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5148.005148005148</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1187928.590307312</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4665.7328</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1183262.857507312</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>77</v>
+      </c>
+      <c r="D175" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>77</v>
+      </c>
+      <c r="F175" t="n">
+        <v>65362.806</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>77</v>
+      </c>
+      <c r="C176" t="n">
+        <v>77</v>
+      </c>
+      <c r="D176" t="n">
+        <v>77</v>
+      </c>
+      <c r="E176" t="n">
+        <v>77</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1253.5349</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>77</v>
+      </c>
+      <c r="C177" t="n">
+        <v>77</v>
+      </c>
+      <c r="D177" t="n">
+        <v>77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>77</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6393.8078</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>77</v>
+      </c>
+      <c r="C178" t="n">
+        <v>77</v>
+      </c>
+      <c r="D178" t="n">
+        <v>77</v>
+      </c>
+      <c r="E178" t="n">
+        <v>77</v>
+      </c>
+      <c r="F178" t="n">
+        <v>599.8528</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>77</v>
+      </c>
+      <c r="C179" t="n">
+        <v>77</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77</v>
+      </c>
+      <c r="E179" t="n">
+        <v>77</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1210.2581</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>77</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>77</v>
+      </c>
+      <c r="C180" t="n">
+        <v>77</v>
+      </c>
+      <c r="D180" t="n">
+        <v>77</v>
+      </c>
+      <c r="E180" t="n">
+        <v>77</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13142</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>77</v>
+      </c>
+      <c r="C181" t="n">
+        <v>77</v>
+      </c>
+      <c r="D181" t="n">
+        <v>77</v>
+      </c>
+      <c r="E181" t="n">
+        <v>77</v>
+      </c>
+      <c r="F181" t="n">
+        <v>16473</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>77</v>
+      </c>
+      <c r="C182" t="n">
+        <v>77</v>
+      </c>
+      <c r="D182" t="n">
+        <v>77</v>
+      </c>
+      <c r="E182" t="n">
+        <v>77</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>77</v>
+      </c>
+      <c r="C183" t="n">
+        <v>77</v>
+      </c>
+      <c r="D183" t="n">
+        <v>77</v>
+      </c>
+      <c r="E183" t="n">
+        <v>77</v>
+      </c>
+      <c r="F183" t="n">
+        <v>43380.9456</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>77</v>
+      </c>
+      <c r="C184" t="n">
+        <v>77</v>
+      </c>
+      <c r="D184" t="n">
+        <v>77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>77</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6088.474</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>77</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E185" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1115900.051507312</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>77</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1110900.051507312</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C187" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E187" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3521.7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1110900.051507312</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F188" t="n">
         <v>543.4585</v>
       </c>
-      <c r="G159" t="n">
-        <v>76.98666666666666</v>
-      </c>
-      <c r="H159" t="n">
-        <v>77.01999999999992</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="G188" t="n">
+        <v>1111443.510007312</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>74.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>74.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>74.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2082</v>
+        <v>10264.5291</v>
       </c>
       <c r="G2" t="n">
-        <v>577402.8976000001</v>
+        <v>727664.1945000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>75.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>75.3</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>75.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>30488.3664</v>
+        <v>6037.8855</v>
       </c>
       <c r="G3" t="n">
-        <v>607891.2640000002</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>75.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
-        <v>75.3</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>75.3</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>75.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F4" t="n">
-        <v>10862</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="n">
-        <v>618753.2640000002</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>75.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>75.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>75.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>6706</v>
+        <v>29061.4337</v>
       </c>
       <c r="G5" t="n">
-        <v>618753.2640000002</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>75.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>75.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>75.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1500</v>
+        <v>168.2931</v>
       </c>
       <c r="G6" t="n">
-        <v>620253.2640000002</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75.2</v>
+        <v>76.8</v>
       </c>
       <c r="C7" t="n">
-        <v>75.3</v>
+        <v>76.8</v>
       </c>
       <c r="D7" t="n">
-        <v>75.3</v>
+        <v>76.8</v>
       </c>
       <c r="E7" t="n">
-        <v>75.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F7" t="n">
-        <v>12110.4815</v>
+        <v>7177.9557</v>
       </c>
       <c r="G7" t="n">
-        <v>608142.7825000002</v>
+        <v>743509.7870000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,63 +647,69 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C8" t="n">
-        <v>75.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D8" t="n">
-        <v>75.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E8" t="n">
-        <v>75.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>865.8327</v>
+        <v>13043.7157</v>
       </c>
       <c r="G8" t="n">
-        <v>607276.9498000002</v>
+        <v>730466.0713000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>76.8</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="F9" t="n">
-        <v>910</v>
+        <v>7500</v>
       </c>
       <c r="G9" t="n">
-        <v>606366.9498000002</v>
+        <v>722966.0713000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,278 +718,348 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="F10" t="n">
-        <v>114.6666</v>
+        <v>26321.5404</v>
       </c>
       <c r="G10" t="n">
-        <v>606366.9498000002</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="F11" t="n">
-        <v>547</v>
+        <v>9525.911700000001</v>
       </c>
       <c r="G11" t="n">
-        <v>606366.9498000002</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>76.3</v>
       </c>
       <c r="F12" t="n">
-        <v>6538.3334</v>
+        <v>355.4149</v>
       </c>
       <c r="G12" t="n">
-        <v>606366.9498000002</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>75.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>75.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>74.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>43821.7115</v>
+        <v>4952.8494</v>
       </c>
       <c r="G13" t="n">
-        <v>650188.6613000002</v>
+        <v>691691.6815000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1050</v>
+        <v>16317.5921</v>
       </c>
       <c r="G14" t="n">
-        <v>649138.6613000002</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>520</v>
+        <v>2993.0098</v>
       </c>
       <c r="G15" t="n">
-        <v>649138.6613000002</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>75</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>520</v>
+        <v>5270</v>
       </c>
       <c r="G16" t="n">
-        <v>649138.6613000002</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>75.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C17" t="n">
-        <v>75.3</v>
+        <v>77.5</v>
       </c>
       <c r="D17" t="n">
-        <v>75.3</v>
+        <v>77.5</v>
       </c>
       <c r="E17" t="n">
-        <v>75.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F17" t="n">
-        <v>21597.8988</v>
+        <v>11037.8803</v>
       </c>
       <c r="G17" t="n">
-        <v>670736.5601000001</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1068,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="C18" t="n">
-        <v>75.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D18" t="n">
-        <v>75.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="F18" t="n">
-        <v>19191.8676</v>
+        <v>3017.8375</v>
       </c>
       <c r="G18" t="n">
-        <v>651544.6925000001</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1110,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="C19" t="n">
-        <v>75</v>
+        <v>77.3</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>77.3</v>
       </c>
       <c r="F19" t="n">
-        <v>11442.4609</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="n">
-        <v>640102.2316000002</v>
+        <v>704279.2736000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1152,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.8</v>
+        <v>77.5</v>
       </c>
       <c r="C20" t="n">
-        <v>74.8</v>
+        <v>77.5</v>
       </c>
       <c r="D20" t="n">
-        <v>74.8</v>
+        <v>77.5</v>
       </c>
       <c r="E20" t="n">
-        <v>74.8</v>
+        <v>77.5</v>
       </c>
       <c r="F20" t="n">
-        <v>38472.0579</v>
+        <v>4377.4317</v>
       </c>
       <c r="G20" t="n">
-        <v>601630.1737000002</v>
+        <v>708656.7053000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1194,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>21441.4714</v>
       </c>
       <c r="G21" t="n">
-        <v>601830.1737000002</v>
+        <v>730098.1767000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1236,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>74.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D22" t="n">
-        <v>74.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E22" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>675.8511999999999</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="n">
-        <v>601830.1737000002</v>
+        <v>742098.1767000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1278,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>74.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>74.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D23" t="n">
-        <v>74.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E23" t="n">
-        <v>74.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F23" t="n">
-        <v>8766.6648</v>
+        <v>21242.2129</v>
       </c>
       <c r="G23" t="n">
-        <v>593063.5089000001</v>
+        <v>763340.3896000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1320,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>74.8</v>
+        <v>77.8</v>
       </c>
       <c r="C24" t="n">
-        <v>75.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>75.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>74.8</v>
+        <v>77.8</v>
       </c>
       <c r="F24" t="n">
-        <v>35042.3186</v>
+        <v>14562.9375</v>
       </c>
       <c r="G24" t="n">
-        <v>628105.8275000001</v>
+        <v>777903.3271000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1362,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>74.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>74.7</v>
+        <v>78.3</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7</v>
+        <v>78.3</v>
       </c>
       <c r="E25" t="n">
-        <v>74.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>1870</v>
+        <v>73407.2729</v>
       </c>
       <c r="G25" t="n">
-        <v>626235.8275000001</v>
+        <v>851310.6000000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1404,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>74.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>74.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="D26" t="n">
-        <v>74.7</v>
+        <v>78.5</v>
       </c>
       <c r="E26" t="n">
-        <v>74.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="F26" t="n">
-        <v>13822.8187</v>
+        <v>63294.2574</v>
       </c>
       <c r="G26" t="n">
-        <v>612413.0088000002</v>
+        <v>914604.8574000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1446,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>74.5</v>
+        <v>78.5</v>
       </c>
       <c r="C27" t="n">
-        <v>74.5</v>
+        <v>78.7</v>
       </c>
       <c r="D27" t="n">
-        <v>74.5</v>
+        <v>78.7</v>
       </c>
       <c r="E27" t="n">
-        <v>74.5</v>
+        <v>78.2</v>
       </c>
       <c r="F27" t="n">
-        <v>13219.1234</v>
+        <v>79070.96189999999</v>
       </c>
       <c r="G27" t="n">
-        <v>599193.8854000001</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1488,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>74.8</v>
+        <v>78.7</v>
       </c>
       <c r="C28" t="n">
-        <v>74.8</v>
+        <v>78.7</v>
       </c>
       <c r="D28" t="n">
-        <v>74.8</v>
+        <v>78.8</v>
       </c>
       <c r="E28" t="n">
-        <v>74.8</v>
+        <v>78.7</v>
       </c>
       <c r="F28" t="n">
-        <v>9526.6978</v>
+        <v>101539.6848</v>
       </c>
       <c r="G28" t="n">
-        <v>608720.5832000001</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,74 +1530,88 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>74.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C29" t="n">
-        <v>74.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="D29" t="n">
-        <v>74.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="E29" t="n">
-        <v>74.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F29" t="n">
-        <v>6000</v>
+        <v>14346.0585</v>
       </c>
       <c r="G29" t="n">
-        <v>602720.5832000001</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
+        <v>1.019739583333334</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>74.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>74.5</v>
+        <v>78.2</v>
       </c>
       <c r="D30" t="n">
-        <v>74.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>74.5</v>
+        <v>78.2</v>
       </c>
       <c r="F30" t="n">
-        <v>13534.147</v>
+        <v>7310.9609</v>
       </c>
       <c r="G30" t="n">
-        <v>616254.7302000001</v>
+        <v>986364.8584000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1619,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5</v>
+        <v>77.8</v>
       </c>
       <c r="D31" t="n">
-        <v>74.5</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
-        <v>74.5</v>
+        <v>77.8</v>
       </c>
       <c r="F31" t="n">
-        <v>1465.853</v>
+        <v>9228.2251</v>
       </c>
       <c r="G31" t="n">
-        <v>616254.7302000001</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1655,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>74.5</v>
+        <v>77.8</v>
       </c>
       <c r="C32" t="n">
-        <v>74.3</v>
+        <v>77.8</v>
       </c>
       <c r="D32" t="n">
-        <v>74.5</v>
+        <v>77.8</v>
       </c>
       <c r="E32" t="n">
-        <v>74.3</v>
+        <v>77.8</v>
       </c>
       <c r="F32" t="n">
-        <v>8269.218199999999</v>
+        <v>3620</v>
       </c>
       <c r="G32" t="n">
-        <v>607985.5120000001</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,28 +1691,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>74.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>75.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>75.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>74.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>31920.4835</v>
+        <v>4102.5793</v>
       </c>
       <c r="G33" t="n">
-        <v>639905.9955000001</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1727,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>75.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>75.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>75.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>75.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>41271.9807</v>
+        <v>20980.5323</v>
       </c>
       <c r="G34" t="n">
-        <v>681177.9762</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1763,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>75.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>75.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>75.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>11039.4043</v>
+        <v>427.8981</v>
       </c>
       <c r="G35" t="n">
-        <v>692217.3805000001</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1799,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C36" t="n">
-        <v>75.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>75.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E36" t="n">
-        <v>75.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>3463.0284</v>
+        <v>18985.2355</v>
       </c>
       <c r="G36" t="n">
-        <v>695680.4089</v>
+        <v>954048.8185000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1835,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>75.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>75.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>75.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>17092.3838</v>
+        <v>27926.0806</v>
       </c>
       <c r="G37" t="n">
-        <v>695680.4089</v>
+        <v>926122.7379000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1871,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76</v>
+        <v>77.2</v>
       </c>
       <c r="C38" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="D38" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E38" t="n">
-        <v>76</v>
+        <v>77.2</v>
       </c>
       <c r="F38" t="n">
-        <v>22107.9539</v>
+        <v>15069.5952</v>
       </c>
       <c r="G38" t="n">
-        <v>717788.3628</v>
+        <v>941192.3331000003</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1907,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>76.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>31941.1803</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>749729.5431</v>
+        <v>941202.3331000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1943,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C40" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="E40" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>20927.2016</v>
+        <v>42020</v>
       </c>
       <c r="G40" t="n">
-        <v>770656.7447</v>
+        <v>899182.3331000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1979,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C41" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D41" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E41" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="F41" t="n">
-        <v>29478.6467</v>
+        <v>18000</v>
       </c>
       <c r="G41" t="n">
-        <v>741178.098</v>
+        <v>881182.3331000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +2015,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1836,19 +2025,19 @@
         <v>77.2</v>
       </c>
       <c r="C42" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D42" t="n">
         <v>77.2</v>
       </c>
       <c r="E42" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F42" t="n">
-        <v>14987.0129</v>
+        <v>1172.8936</v>
       </c>
       <c r="G42" t="n">
-        <v>726191.0851</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +2051,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C43" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D43" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E43" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F43" t="n">
-        <v>8791.4197</v>
+        <v>122.3738</v>
       </c>
       <c r="G43" t="n">
-        <v>717399.6654000001</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +2087,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C44" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D44" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E44" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F44" t="n">
-        <v>10264.5291</v>
+        <v>6085.1071</v>
       </c>
       <c r="G44" t="n">
-        <v>727664.1945000001</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +2123,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>77</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F45" t="n">
-        <v>6037.8855</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G45" t="n">
-        <v>721626.3090000001</v>
+        <v>1067419.793769347</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2159,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>12000</v>
+        <v>7482.1359</v>
       </c>
       <c r="G46" t="n">
-        <v>721626.3090000001</v>
+        <v>1059937.657869347</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2195,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2011,19 +2205,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D47" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E47" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>29061.4337</v>
+        <v>22909.14</v>
       </c>
       <c r="G47" t="n">
-        <v>750687.7427000002</v>
+        <v>1082846.797869347</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2231,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F48" t="n">
-        <v>168.2931</v>
+        <v>13869.3585</v>
       </c>
       <c r="G48" t="n">
-        <v>750687.7427000002</v>
+        <v>1096716.156369347</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2267,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>76.8</v>
+        <v>78.5</v>
       </c>
       <c r="D49" t="n">
-        <v>76.8</v>
+        <v>78.5</v>
       </c>
       <c r="E49" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>7177.9557</v>
+        <v>31898.9448</v>
       </c>
       <c r="G49" t="n">
-        <v>743509.7870000001</v>
+        <v>1128615.101169347</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2303,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="C50" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="D50" t="n">
-        <v>76.7</v>
+        <v>78.2</v>
       </c>
       <c r="E50" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="F50" t="n">
-        <v>13043.7157</v>
+        <v>10204.1123</v>
       </c>
       <c r="G50" t="n">
-        <v>730466.0713000002</v>
+        <v>1118410.988869347</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2339,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>76.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>7500</v>
+        <v>9975</v>
       </c>
       <c r="G51" t="n">
-        <v>722966.0713000002</v>
+        <v>1108435.988869347</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2375,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>76.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="C52" t="n">
-        <v>76.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>76.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>76.3</v>
+        <v>78</v>
       </c>
       <c r="F52" t="n">
-        <v>26321.5404</v>
+        <v>6880.7466</v>
       </c>
       <c r="G52" t="n">
-        <v>696644.5309000001</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2411,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>76.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>76.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>76.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>76.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>9525.911700000001</v>
+        <v>2969.9653</v>
       </c>
       <c r="G53" t="n">
-        <v>696644.5309000001</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,34 +2447,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>355.4149</v>
+        <v>2966.0782</v>
       </c>
       <c r="G54" t="n">
-        <v>696644.5309000001</v>
+        <v>1112350.657269347</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2483,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>76.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="C55" t="n">
-        <v>76.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D55" t="n">
-        <v>76.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E55" t="n">
-        <v>76.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F55" t="n">
-        <v>4952.8494</v>
+        <v>11692.4875</v>
       </c>
       <c r="G55" t="n">
-        <v>691691.6815000002</v>
+        <v>1100658.169769347</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2519,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>76.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>77.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>77.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E56" t="n">
-        <v>76.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>16317.5921</v>
+        <v>12966.0783</v>
       </c>
       <c r="G56" t="n">
-        <v>708009.2736000002</v>
+        <v>1113624.248069347</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2555,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>77.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>77.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>77.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>2993.0098</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>708009.2736000002</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2591,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>77.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>77.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>77.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>5270</v>
+        <v>2490</v>
       </c>
       <c r="G58" t="n">
-        <v>713279.2736000002</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2627,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="C59" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D59" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="E59" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="F59" t="n">
-        <v>11037.8803</v>
+        <v>4625.8905</v>
       </c>
       <c r="G59" t="n">
-        <v>713279.2736000002</v>
+        <v>1110998.357569347</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,34 +2663,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="C60" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="D60" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="E60" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="F60" t="n">
-        <v>3017.8375</v>
+        <v>4310</v>
       </c>
       <c r="G60" t="n">
-        <v>713279.2736000002</v>
+        <v>1115308.357569347</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,34 +2699,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>77.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>77.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>9000</v>
+        <v>11572.0972</v>
       </c>
       <c r="G61" t="n">
-        <v>704279.2736000002</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,34 +2735,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>4377.4317</v>
+        <v>386.597</v>
       </c>
       <c r="G62" t="n">
-        <v>708656.7053000001</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2771,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>21441.4714</v>
+        <v>6820</v>
       </c>
       <c r="G63" t="n">
-        <v>730098.1767000002</v>
+        <v>1096916.260369347</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2807,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>12000</v>
+        <v>1448.0284</v>
       </c>
       <c r="G64" t="n">
-        <v>742098.1767000002</v>
+        <v>1095468.231969347</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2843,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C65" t="n">
-        <v>77.8</v>
+        <v>77.2</v>
       </c>
       <c r="D65" t="n">
-        <v>77.8</v>
+        <v>77.2</v>
       </c>
       <c r="E65" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="F65" t="n">
-        <v>21242.2129</v>
+        <v>10112.2279</v>
       </c>
       <c r="G65" t="n">
-        <v>763340.3896000002</v>
+        <v>1105580.459869347</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,34 +2879,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>14562.9375</v>
+        <v>0.0001</v>
       </c>
       <c r="G66" t="n">
-        <v>777903.3271000002</v>
+        <v>1105580.459769347</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2915,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>78.3</v>
+        <v>77</v>
       </c>
       <c r="D67" t="n">
-        <v>78.3</v>
+        <v>77</v>
       </c>
       <c r="E67" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F67" t="n">
-        <v>73407.2729</v>
+        <v>7329.8429</v>
       </c>
       <c r="G67" t="n">
-        <v>851310.6000000002</v>
+        <v>1098250.616869347</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2951,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C68" t="n">
-        <v>78.5</v>
+        <v>76.7</v>
       </c>
       <c r="D68" t="n">
-        <v>78.5</v>
+        <v>76.7</v>
       </c>
       <c r="E68" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F68" t="n">
-        <v>63294.2574</v>
+        <v>392.6984</v>
       </c>
       <c r="G68" t="n">
-        <v>914604.8574000002</v>
+        <v>1097857.918469347</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,34 +2987,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>78.5</v>
+        <v>77</v>
       </c>
       <c r="C69" t="n">
-        <v>78.7</v>
+        <v>77</v>
       </c>
       <c r="D69" t="n">
-        <v>78.7</v>
+        <v>77</v>
       </c>
       <c r="E69" t="n">
-        <v>78.2</v>
+        <v>77</v>
       </c>
       <c r="F69" t="n">
-        <v>79070.96189999999</v>
+        <v>10188.2634</v>
       </c>
       <c r="G69" t="n">
-        <v>993675.8193000002</v>
+        <v>1108046.181869347</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,28 +3023,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="C70" t="n">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="D70" t="n">
-        <v>78.8</v>
+        <v>77.2</v>
       </c>
       <c r="E70" t="n">
-        <v>78.7</v>
+        <v>77.2</v>
       </c>
       <c r="F70" t="n">
-        <v>101539.6848</v>
+        <v>151.774</v>
       </c>
       <c r="G70" t="n">
-        <v>993675.8193000002</v>
+        <v>1108197.955869347</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +3059,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>78.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>14346.0585</v>
+        <v>1360</v>
       </c>
       <c r="G71" t="n">
-        <v>993675.8193000002</v>
+        <v>1106837.955869347</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +3095,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>78.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>78.2</v>
+        <v>76.8</v>
       </c>
       <c r="D72" t="n">
-        <v>78.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>78.2</v>
+        <v>76.8</v>
       </c>
       <c r="F72" t="n">
-        <v>7310.9609</v>
+        <v>11284.1704</v>
       </c>
       <c r="G72" t="n">
-        <v>986364.8584000003</v>
+        <v>1095553.785469347</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,28 +3131,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>78</v>
+        <v>76.7</v>
       </c>
       <c r="C73" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="D73" t="n">
-        <v>78</v>
+        <v>76.7</v>
       </c>
       <c r="E73" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="F73" t="n">
-        <v>9228.2251</v>
+        <v>818.4224</v>
       </c>
       <c r="G73" t="n">
-        <v>977136.6333000002</v>
+        <v>1094735.363069347</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3167,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="C74" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="D74" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="E74" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3620</v>
+        <v>1975.05</v>
       </c>
       <c r="G74" t="n">
-        <v>977136.6333000002</v>
+        <v>1092760.313069347</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3203,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>78.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>78.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>4102.5793</v>
+        <v>277.6764</v>
       </c>
       <c r="G75" t="n">
-        <v>973034.0540000002</v>
+        <v>1092482.636669347</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3239,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C76" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D76" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E76" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F76" t="n">
-        <v>20980.5323</v>
+        <v>178.2802</v>
       </c>
       <c r="G76" t="n">
-        <v>973034.0540000002</v>
+        <v>1092660.916869347</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3275,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C77" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D77" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E77" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F77" t="n">
-        <v>427.8981</v>
+        <v>39.8936</v>
       </c>
       <c r="G77" t="n">
-        <v>973034.0540000002</v>
+        <v>1092660.916869347</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3311,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="C78" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>77.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F78" t="n">
-        <v>18985.2355</v>
+        <v>11681.7692</v>
       </c>
       <c r="G78" t="n">
-        <v>954048.8185000003</v>
+        <v>1104342.686069346</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3347,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C79" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D79" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E79" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F79" t="n">
-        <v>27926.0806</v>
+        <v>781</v>
       </c>
       <c r="G79" t="n">
-        <v>926122.7379000003</v>
+        <v>1103561.686069346</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3383,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>15069.5952</v>
+        <v>1574.386</v>
       </c>
       <c r="G80" t="n">
-        <v>941192.3331000003</v>
+        <v>1101987.300069347</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3419,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>691.6295</v>
       </c>
       <c r="G81" t="n">
-        <v>941202.3331000003</v>
+        <v>1101987.300069347</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3455,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="C82" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D82" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="E82" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F82" t="n">
-        <v>42020</v>
+        <v>5228.7581</v>
       </c>
       <c r="G82" t="n">
-        <v>899182.3331000003</v>
+        <v>1096758.541969347</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3491,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="C83" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="F83" t="n">
-        <v>18000</v>
+        <v>2750</v>
       </c>
       <c r="G83" t="n">
-        <v>881182.3331000003</v>
+        <v>1099508.541969347</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3527,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>1172.8936</v>
+        <v>556</v>
       </c>
       <c r="G84" t="n">
-        <v>882355.2267000002</v>
+        <v>1099508.541969347</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,131 +3563,115 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>122.3738</v>
+        <v>3660</v>
       </c>
       <c r="G85" t="n">
-        <v>882355.2267000002</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>77.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>6085.1071</v>
+        <v>1300.390117035111</v>
       </c>
       <c r="G86" t="n">
-        <v>882355.2267000002</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>79.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>79.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>185064.5670693467</v>
+        <v>130</v>
       </c>
       <c r="G87" t="n">
-        <v>1067419.793769347</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K87" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3475,29 +3690,24 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>7482.1359</v>
+        <v>3660</v>
       </c>
       <c r="G88" t="n">
-        <v>1059937.657869347</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,19 +3717,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E89" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>22909.14</v>
+        <v>1299</v>
       </c>
       <c r="G89" t="n">
-        <v>1082846.797869347</v>
+        <v>1103168.541969347</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3528,166 +3738,142 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>77.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>77.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>13869.3585</v>
+        <v>39305.9369</v>
       </c>
       <c r="G90" t="n">
-        <v>1096716.156369347</v>
+        <v>1142474.478869347</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>77.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C91" t="n">
-        <v>78.5</v>
+        <v>76.5</v>
       </c>
       <c r="D91" t="n">
-        <v>78.5</v>
+        <v>76.5</v>
       </c>
       <c r="E91" t="n">
-        <v>77.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F91" t="n">
-        <v>31898.9448</v>
+        <v>105.6297</v>
       </c>
       <c r="G91" t="n">
-        <v>1128615.101169347</v>
+        <v>1142368.849169347</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="K91" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="C92" t="n">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="D92" t="n">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="E92" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="F92" t="n">
-        <v>10204.1123</v>
+        <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>1118410.988869347</v>
+        <v>1137368.849169347</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C93" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D93" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E93" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F93" t="n">
-        <v>9975</v>
+        <v>118.0571</v>
       </c>
       <c r="G93" t="n">
-        <v>1108435.988869347</v>
+        <v>1137368.849169347</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3696,250 +3882,220 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>78</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>78</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>6880.7466</v>
+        <v>16649.1209</v>
       </c>
       <c r="G94" t="n">
-        <v>1115316.735469347</v>
+        <v>1154017.970069347</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>78.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>2969.9653</v>
+        <v>12500</v>
       </c>
       <c r="G95" t="n">
-        <v>1115316.735469347</v>
+        <v>1154017.970069347</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C96" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="D96" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E96" t="n">
-        <v>78.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F96" t="n">
-        <v>2966.0782</v>
+        <v>12110</v>
       </c>
       <c r="G96" t="n">
-        <v>1112350.657269347</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="D97" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="F97" t="n">
-        <v>11692.4875</v>
+        <v>14</v>
       </c>
       <c r="G97" t="n">
-        <v>1100658.169769347</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C98" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D98" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E98" t="n">
-        <v>77.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F98" t="n">
-        <v>12966.0783</v>
+        <v>14</v>
       </c>
       <c r="G98" t="n">
-        <v>1113624.248069347</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>1.005362694300518</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>78.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C99" t="n">
-        <v>78.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D99" t="n">
-        <v>78.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E99" t="n">
-        <v>78.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>88.5064</v>
       </c>
       <c r="G99" t="n">
-        <v>1115624.248069347</v>
+        <v>1166127.970069347</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3947,34 +4103,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C100" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D100" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E100" t="n">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F100" t="n">
-        <v>2490</v>
+        <v>88.8526</v>
       </c>
       <c r="G100" t="n">
-        <v>1115624.248069347</v>
+        <v>1166039.117469347</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3982,34 +4139,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>4625.8905</v>
+        <v>10340</v>
       </c>
       <c r="G101" t="n">
-        <v>1110998.357569347</v>
+        <v>1155699.117469347</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4017,34 +4175,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>78.2</v>
+        <v>76.7</v>
       </c>
       <c r="C102" t="n">
-        <v>78.2</v>
+        <v>76.7</v>
       </c>
       <c r="D102" t="n">
-        <v>78.2</v>
+        <v>76.7</v>
       </c>
       <c r="E102" t="n">
-        <v>78.2</v>
+        <v>76.7</v>
       </c>
       <c r="F102" t="n">
-        <v>4310</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G102" t="n">
-        <v>1115308.357569347</v>
+        <v>1157645.010559307</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4052,34 +4211,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>11572.0972</v>
+        <v>397.6679</v>
       </c>
       <c r="G103" t="n">
-        <v>1103736.260369347</v>
+        <v>1157247.342659307</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4087,34 +4247,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C104" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D104" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E104" t="n">
-        <v>77.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F104" t="n">
-        <v>386.597</v>
+        <v>5914.3407</v>
       </c>
       <c r="G104" t="n">
-        <v>1103736.260369347</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4122,28 +4283,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C105" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D105" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E105" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F105" t="n">
-        <v>6820</v>
+        <v>5113.4288</v>
       </c>
       <c r="G105" t="n">
-        <v>1096916.260369347</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4157,28 +4319,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C106" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D106" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E106" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F106" t="n">
-        <v>1448.0284</v>
+        <v>454.6106</v>
       </c>
       <c r="G106" t="n">
-        <v>1095468.231969347</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4192,28 +4355,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="C107" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="D107" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="E107" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="F107" t="n">
-        <v>10112.2279</v>
+        <v>1620.4799</v>
       </c>
       <c r="G107" t="n">
-        <v>1105580.459869347</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4227,28 +4391,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C108" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D108" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E108" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0001</v>
+        <v>507.3753</v>
       </c>
       <c r="G108" t="n">
-        <v>1105580.459769347</v>
+        <v>1151333.001959307</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4262,28 +4427,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="C109" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="D109" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="E109" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="F109" t="n">
-        <v>7329.8429</v>
+        <v>7184.7085</v>
       </c>
       <c r="G109" t="n">
-        <v>1098250.616869347</v>
+        <v>1158517.710459307</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4297,28 +4463,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>392.6984</v>
+        <v>2388.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>1097857.918469347</v>
+        <v>1160906.710359307</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4332,28 +4499,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>10188.2634</v>
+        <v>38.9105</v>
       </c>
       <c r="G111" t="n">
-        <v>1108046.181869347</v>
+        <v>1160906.710359307</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4367,28 +4535,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="C112" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="D112" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="E112" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="F112" t="n">
-        <v>151.774</v>
+        <v>815</v>
       </c>
       <c r="G112" t="n">
-        <v>1108197.955869347</v>
+        <v>1161721.710359307</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4402,28 +4571,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C113" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D113" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E113" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F113" t="n">
-        <v>1360</v>
+        <v>6223.855</v>
       </c>
       <c r="G113" t="n">
-        <v>1106837.955869347</v>
+        <v>1161721.710359307</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4437,69 +4607,65 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>11284.1704</v>
+        <v>1051.8669</v>
       </c>
       <c r="G114" t="n">
-        <v>1095553.785469347</v>
+        <v>1160669.843459307</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>76.90000000000001</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>818.4224</v>
+        <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>1094735.363069347</v>
+        <v>1160669.843459307</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4509,159 +4675,141 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>1975.05</v>
+        <v>129.1989</v>
       </c>
       <c r="G116" t="n">
-        <v>1092760.313069347</v>
+        <v>1160799.042359307</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>76.7</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C117" t="n">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D117" t="n">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E117" t="n">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F117" t="n">
-        <v>277.6764</v>
+        <v>4333.4349</v>
       </c>
       <c r="G117" t="n">
-        <v>1092482.636669347</v>
+        <v>1165132.477259307</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="C118" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D118" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="E118" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="F118" t="n">
-        <v>178.2802</v>
+        <v>12.9366</v>
       </c>
       <c r="G118" t="n">
-        <v>1092660.916869347</v>
+        <v>1165132.477259307</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>76.40000000000001</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="C119" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D119" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="E119" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="F119" t="n">
-        <v>39.8936</v>
+        <v>3000</v>
       </c>
       <c r="G119" t="n">
-        <v>1092660.916869347</v>
+        <v>1165132.477259307</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4671,77 +4819,69 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>11681.7692</v>
+        <v>4938.3762</v>
       </c>
       <c r="G120" t="n">
-        <v>1104342.686069346</v>
+        <v>1170070.853459307</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="C121" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="D121" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E121" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="F121" t="n">
-        <v>781</v>
+        <v>10404.3477</v>
       </c>
       <c r="G121" t="n">
-        <v>1103561.686069346</v>
+        <v>1159666.505759307</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4751,77 +4891,69 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C122" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D122" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E122" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F122" t="n">
-        <v>1574.386</v>
+        <v>1014.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>1101987.300069347</v>
+        <v>1160681.505659307</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>76.7</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>691.6295</v>
+        <v>14000.0744</v>
       </c>
       <c r="G123" t="n">
-        <v>1101987.300069347</v>
+        <v>1146681.431259307</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4831,36 +4963,33 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="C124" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>76.5</v>
+        <v>77.8</v>
       </c>
       <c r="E124" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>5228.7581</v>
+        <v>48890.6855</v>
       </c>
       <c r="G124" t="n">
-        <v>1096758.541969347</v>
+        <v>1146681.431259307</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4870,36 +4999,33 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>2750</v>
+        <v>41787.3711</v>
       </c>
       <c r="G125" t="n">
-        <v>1099508.541969347</v>
+        <v>1146681.431259307</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4909,36 +5035,33 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C126" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D126" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E126" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F126" t="n">
-        <v>556</v>
+        <v>12.9042</v>
       </c>
       <c r="G126" t="n">
-        <v>1099508.541969347</v>
+        <v>1146668.527059307</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4948,36 +5071,33 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>3660</v>
+        <v>39174.1367</v>
       </c>
       <c r="G127" t="n">
-        <v>1103168.541969347</v>
+        <v>1185842.663759307</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4987,36 +5107,33 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C128" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F128" t="n">
-        <v>1300.390117035111</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>1103168.541969347</v>
+        <v>1185852.663759307</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5026,36 +5143,33 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C129" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D129" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E129" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F129" t="n">
-        <v>130</v>
+        <v>12.87</v>
       </c>
       <c r="G129" t="n">
-        <v>1103168.541969347</v>
+        <v>1185839.793759307</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5065,36 +5179,33 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>3660</v>
+        <v>3059.2086</v>
       </c>
       <c r="G130" t="n">
-        <v>1103168.541969347</v>
+        <v>1182780.585159307</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5104,36 +5215,33 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C131" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D131" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E131" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F131" t="n">
-        <v>1299</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G131" t="n">
-        <v>1103168.541969347</v>
+        <v>1187928.590307312</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5143,36 +5251,33 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>39305.9369</v>
+        <v>4665.7328</v>
       </c>
       <c r="G132" t="n">
-        <v>1142474.478869347</v>
+        <v>1183262.857507312</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5182,36 +5287,33 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="D133" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="F133" t="n">
-        <v>105.6297</v>
+        <v>65362.806</v>
       </c>
       <c r="G133" t="n">
-        <v>1142368.849169347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5221,36 +5323,33 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="C134" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="D134" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="E134" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="F134" t="n">
-        <v>5000</v>
+        <v>1253.5349</v>
       </c>
       <c r="G134" t="n">
-        <v>1137368.849169347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5260,36 +5359,33 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="C135" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="D135" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="E135" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="F135" t="n">
-        <v>118.0571</v>
+        <v>6393.8078</v>
       </c>
       <c r="G135" t="n">
-        <v>1137368.849169347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5299,36 +5395,33 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C136" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D136" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E136" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F136" t="n">
-        <v>16649.1209</v>
+        <v>599.8528</v>
       </c>
       <c r="G136" t="n">
-        <v>1154017.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5338,36 +5431,33 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C137" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D137" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E137" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F137" t="n">
-        <v>12500</v>
+        <v>1210.2581</v>
       </c>
       <c r="G137" t="n">
-        <v>1154017.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5377,14 +5467,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5403,10 +5490,10 @@
         <v>77</v>
       </c>
       <c r="F138" t="n">
-        <v>12110</v>
+        <v>13142</v>
       </c>
       <c r="G138" t="n">
-        <v>1166127.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5416,14 +5503,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5442,10 +5526,10 @@
         <v>77</v>
       </c>
       <c r="F139" t="n">
-        <v>14</v>
+        <v>16473</v>
       </c>
       <c r="G139" t="n">
-        <v>1166127.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5455,14 +5539,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5481,10 +5562,10 @@
         <v>77</v>
       </c>
       <c r="F140" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>1166127.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5494,14 +5575,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5520,10 +5598,10 @@
         <v>77</v>
       </c>
       <c r="F141" t="n">
-        <v>88.5064</v>
+        <v>43380.9456</v>
       </c>
       <c r="G141" t="n">
-        <v>1166127.970069347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5533,118 +5611,105 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C142" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D142" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E142" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F142" t="n">
-        <v>88.8526</v>
+        <v>6088.474</v>
       </c>
       <c r="G142" t="n">
-        <v>1166039.117469347</v>
+        <v>1117900.051507312</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>77</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>10340</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="n">
-        <v>1155699.117469347</v>
+        <v>1115900.051507312</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>76.7</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D144" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F144" t="n">
-        <v>1945.893089960887</v>
+        <v>5000</v>
       </c>
       <c r="G144" t="n">
-        <v>1157645.010559307</v>
+        <v>1110900.051507312</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5654,36 +5719,33 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C145" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D145" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E145" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F145" t="n">
-        <v>397.6679</v>
+        <v>3521.7</v>
       </c>
       <c r="G145" t="n">
-        <v>1157247.342659307</v>
+        <v>1110900.051507312</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5693,36 +5755,33 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="C146" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="D146" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="E146" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="F146" t="n">
-        <v>5914.3407</v>
+        <v>543.4585</v>
       </c>
       <c r="G146" t="n">
-        <v>1151333.001959307</v>
+        <v>1111443.510007312</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5732,1670 +5791,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D147" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E147" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5113.4288</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C148" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D148" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E148" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>454.6106</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C149" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D149" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E149" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1620.4799</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>507.3753</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>7184.7085</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1158517.710459307</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C152" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D152" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E152" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2388.9999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1160906.710359307</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C153" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D153" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E153" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>38.9105</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1160906.710359307</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E154" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>815</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1161721.710359307</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6223.855</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1161721.710359307</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D156" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1051.8669</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1160669.843459307</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C157" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1160669.843459307</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D158" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E158" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F158" t="n">
-        <v>129.1989</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1160799.042359307</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4333.4349</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>12.9366</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C162" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D162" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E162" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4938.3762</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1170070.853459307</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="C163" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D163" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="E163" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>10404.3477</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1159666.505759307</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C164" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D164" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1014.9999</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1160681.505659307</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>14000.0744</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D166" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="E166" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F166" t="n">
-        <v>48890.6855</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D167" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E167" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>41787.3711</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D168" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>12.9042</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1146668.527059307</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C169" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F169" t="n">
-        <v>39174.1367</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1185842.663759307</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="C170" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="E170" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F170" t="n">
-        <v>10</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1185852.663759307</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C171" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D171" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1185839.793759307</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C172" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D172" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3059.2086</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1182780.585159307</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>5148.005148005148</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1187928.590307312</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D174" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4665.7328</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1183262.857507312</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C175" t="n">
-        <v>77</v>
-      </c>
-      <c r="D175" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E175" t="n">
-        <v>77</v>
-      </c>
-      <c r="F175" t="n">
-        <v>65362.806</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>77</v>
-      </c>
-      <c r="C176" t="n">
-        <v>77</v>
-      </c>
-      <c r="D176" t="n">
-        <v>77</v>
-      </c>
-      <c r="E176" t="n">
-        <v>77</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1253.5349</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>77</v>
-      </c>
-      <c r="C177" t="n">
-        <v>77</v>
-      </c>
-      <c r="D177" t="n">
-        <v>77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>77</v>
-      </c>
-      <c r="F177" t="n">
-        <v>6393.8078</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>77</v>
-      </c>
-      <c r="C178" t="n">
-        <v>77</v>
-      </c>
-      <c r="D178" t="n">
-        <v>77</v>
-      </c>
-      <c r="E178" t="n">
-        <v>77</v>
-      </c>
-      <c r="F178" t="n">
-        <v>599.8528</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>77</v>
-      </c>
-      <c r="C179" t="n">
-        <v>77</v>
-      </c>
-      <c r="D179" t="n">
-        <v>77</v>
-      </c>
-      <c r="E179" t="n">
-        <v>77</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1210.2581</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>77</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>77</v>
-      </c>
-      <c r="C180" t="n">
-        <v>77</v>
-      </c>
-      <c r="D180" t="n">
-        <v>77</v>
-      </c>
-      <c r="E180" t="n">
-        <v>77</v>
-      </c>
-      <c r="F180" t="n">
-        <v>13142</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>77</v>
-      </c>
-      <c r="C181" t="n">
-        <v>77</v>
-      </c>
-      <c r="D181" t="n">
-        <v>77</v>
-      </c>
-      <c r="E181" t="n">
-        <v>77</v>
-      </c>
-      <c r="F181" t="n">
-        <v>16473</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>77</v>
-      </c>
-      <c r="C182" t="n">
-        <v>77</v>
-      </c>
-      <c r="D182" t="n">
-        <v>77</v>
-      </c>
-      <c r="E182" t="n">
-        <v>77</v>
-      </c>
-      <c r="F182" t="n">
-        <v>100</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>77</v>
-      </c>
-      <c r="C183" t="n">
-        <v>77</v>
-      </c>
-      <c r="D183" t="n">
-        <v>77</v>
-      </c>
-      <c r="E183" t="n">
-        <v>77</v>
-      </c>
-      <c r="F183" t="n">
-        <v>43380.9456</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>77</v>
-      </c>
-      <c r="C184" t="n">
-        <v>77</v>
-      </c>
-      <c r="D184" t="n">
-        <v>77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>77</v>
-      </c>
-      <c r="F184" t="n">
-        <v>6088.474</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>77</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C185" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="D185" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E185" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1115900.051507312</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>77</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D186" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>1110900.051507312</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C187" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E187" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3521.7</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1110900.051507312</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="C188" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F188" t="n">
-        <v>543.4585</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1111443.510007312</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
+      <c r="N146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>76.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>10264.5291</v>
+        <v>1701</v>
       </c>
       <c r="G2" t="n">
-        <v>727664.1945000001</v>
+        <v>575580.4469000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>76.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>76.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6037.8855</v>
+        <v>105.3666</v>
       </c>
       <c r="G3" t="n">
-        <v>721626.3090000001</v>
+        <v>575475.0803000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>75.5</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>75.5</v>
       </c>
       <c r="E4" t="n">
-        <v>77</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>19487.4121</v>
       </c>
       <c r="G4" t="n">
-        <v>721626.3090000001</v>
+        <v>594962.4924000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>29061.4337</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>750687.7427000002</v>
+        <v>594942.4924000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +592,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="C6" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>77.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E6" t="n">
-        <v>77.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2931</v>
+        <v>10530</v>
       </c>
       <c r="G6" t="n">
-        <v>750687.7427000002</v>
+        <v>594942.4924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>7177.9557</v>
+        <v>7196.6827</v>
       </c>
       <c r="G7" t="n">
-        <v>743509.7870000001</v>
+        <v>587745.8097000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76.7</v>
+        <v>75.2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>75.2</v>
       </c>
       <c r="D8" t="n">
-        <v>76.7</v>
+        <v>75.2</v>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>75.2</v>
       </c>
       <c r="F8" t="n">
-        <v>13043.7157</v>
+        <v>2391</v>
       </c>
       <c r="G8" t="n">
-        <v>730466.0713000002</v>
+        <v>590136.8097000001</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -678,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -694,22 +712,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>76.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>76.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>76.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>7500</v>
+        <v>1067.6836</v>
       </c>
       <c r="G9" t="n">
-        <v>722966.0713000002</v>
+        <v>589069.1261000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -719,7 +737,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -736,38 +754,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="C10" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="D10" t="n">
-        <v>76.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="E10" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="F10" t="n">
-        <v>26321.5404</v>
+        <v>1071</v>
       </c>
       <c r="G10" t="n">
-        <v>696644.5309000001</v>
+        <v>590140.1261000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -780,40 +796,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="C11" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="D11" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="E11" t="n">
-        <v>76.3</v>
+        <v>75.2</v>
       </c>
       <c r="F11" t="n">
-        <v>9525.911700000001</v>
+        <v>491.1808</v>
       </c>
       <c r="G11" t="n">
-        <v>696644.5309000001</v>
+        <v>590140.1261000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -824,40 +832,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>355.4149</v>
+        <v>15.9814</v>
       </c>
       <c r="G12" t="n">
-        <v>696644.5309000001</v>
+        <v>590156.1075000002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -868,40 +868,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>76.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>76.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>76.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>76.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>4952.8494</v>
+        <v>66.5778</v>
       </c>
       <c r="G13" t="n">
-        <v>691691.6815000002</v>
+        <v>590089.5297000002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -912,40 +904,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>77.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>77.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>76.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>16317.5921</v>
+        <v>9950</v>
       </c>
       <c r="G14" t="n">
-        <v>708009.2736000002</v>
+        <v>600039.5297000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -956,40 +940,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="C15" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="D15" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="E15" t="n">
-        <v>77.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="F15" t="n">
-        <v>2993.0098</v>
+        <v>5043.1593</v>
       </c>
       <c r="G15" t="n">
-        <v>708009.2736000002</v>
+        <v>594996.3704000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1000,40 +976,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="C16" t="n">
-        <v>77.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>77.5</v>
+        <v>74.7</v>
       </c>
       <c r="E16" t="n">
-        <v>77.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>5270</v>
+        <v>1900</v>
       </c>
       <c r="G16" t="n">
-        <v>713279.2736000002</v>
+        <v>593096.3704000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1044,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77.5</v>
+        <v>74.3</v>
       </c>
       <c r="C17" t="n">
-        <v>77.5</v>
+        <v>74.3</v>
       </c>
       <c r="D17" t="n">
-        <v>77.5</v>
+        <v>74.3</v>
       </c>
       <c r="E17" t="n">
-        <v>77.5</v>
+        <v>74.3</v>
       </c>
       <c r="F17" t="n">
-        <v>11037.8803</v>
+        <v>540</v>
       </c>
       <c r="G17" t="n">
-        <v>713279.2736000002</v>
+        <v>592556.3704000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1068,14 +1036,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,38 +1048,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>77.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>77.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>77.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>3017.8375</v>
+        <v>505.8942</v>
       </c>
       <c r="G18" t="n">
-        <v>713279.2736000002</v>
+        <v>592050.4762000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>74.3</v>
+      </c>
       <c r="K18" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>74.3</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1128,36 +1088,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>77.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>77.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>7990</v>
       </c>
       <c r="G19" t="n">
-        <v>704279.2736000002</v>
+        <v>600040.4762000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>74.09999999999999</v>
+      </c>
       <c r="K19" t="n">
-        <v>76.8</v>
+        <v>74.3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1170,22 +1132,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>77.5</v>
+        <v>74.7</v>
       </c>
       <c r="C20" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>77.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>77.5</v>
+        <v>74.7</v>
       </c>
       <c r="F20" t="n">
-        <v>4377.4317</v>
+        <v>1536.3859</v>
       </c>
       <c r="G20" t="n">
-        <v>708656.7053000001</v>
+        <v>600040.4762000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1195,11 +1157,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>76.8</v>
+        <v>74.3</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1212,22 +1174,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>21441.4714</v>
+        <v>750</v>
       </c>
       <c r="G21" t="n">
-        <v>730098.1767000002</v>
+        <v>600040.4762000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1236,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1254,22 +1210,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
-        <v>77.7</v>
+        <v>75</v>
       </c>
       <c r="D22" t="n">
-        <v>77.7</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="n">
-        <v>742098.1767000002</v>
+        <v>610040.4762000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1278,14 +1234,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1296,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>77.8</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>77.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>77.5</v>
+        <v>75</v>
       </c>
       <c r="F23" t="n">
-        <v>21242.2129</v>
+        <v>7400</v>
       </c>
       <c r="G23" t="n">
-        <v>763340.3896000002</v>
+        <v>610040.4762000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1320,14 +1270,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1282,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>77.8</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>78</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
-        <v>77.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>14562.9375</v>
+        <v>38760.5786</v>
       </c>
       <c r="G24" t="n">
-        <v>777903.3271000002</v>
+        <v>571279.8976000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1362,14 +1306,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1380,22 +1318,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>78.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>78.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>78.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>78.09999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>73407.2729</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="n">
-        <v>851310.6000000002</v>
+        <v>571279.8976000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1404,14 +1342,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1422,22 +1354,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>78.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>78.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>78.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>78.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>63294.2574</v>
+        <v>1626.053</v>
       </c>
       <c r="G26" t="n">
-        <v>914604.8574000002</v>
+        <v>571279.8976000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1446,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1464,22 +1390,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>78.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>78.7</v>
+        <v>75</v>
       </c>
       <c r="D27" t="n">
-        <v>78.7</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>79070.96189999999</v>
+        <v>7630</v>
       </c>
       <c r="G27" t="n">
-        <v>993675.8193000002</v>
+        <v>578909.8976000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1488,14 +1414,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1426,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>78.7</v>
+        <v>75</v>
       </c>
       <c r="C28" t="n">
-        <v>78.7</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
-        <v>78.8</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>78.7</v>
+        <v>75</v>
       </c>
       <c r="F28" t="n">
-        <v>101539.6848</v>
+        <v>1860</v>
       </c>
       <c r="G28" t="n">
-        <v>993675.8193000002</v>
+        <v>578909.8976000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1530,14 +1450,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1548,40 +1462,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>78.7</v>
+        <v>74.7</v>
       </c>
       <c r="C29" t="n">
-        <v>78.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>78.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>78.7</v>
+        <v>74.7</v>
       </c>
       <c r="F29" t="n">
-        <v>14346.0585</v>
+        <v>1507</v>
       </c>
       <c r="G29" t="n">
-        <v>993675.8193000002</v>
+        <v>577402.8976000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>1.019739583333334</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1590,28 +1498,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>78.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>78.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>7310.9609</v>
+        <v>530</v>
       </c>
       <c r="G30" t="n">
-        <v>986364.8584000003</v>
+        <v>577402.8976000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1626,28 +1534,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>77.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>78</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>77.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>9228.2251</v>
+        <v>3.2082</v>
       </c>
       <c r="G31" t="n">
-        <v>977136.6333000002</v>
+        <v>577402.8976000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1662,28 +1570,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>77.8</v>
+        <v>75.2</v>
       </c>
       <c r="C32" t="n">
-        <v>77.8</v>
+        <v>75.2</v>
       </c>
       <c r="D32" t="n">
-        <v>77.8</v>
+        <v>75.3</v>
       </c>
       <c r="E32" t="n">
-        <v>77.8</v>
+        <v>75.2</v>
       </c>
       <c r="F32" t="n">
-        <v>3620</v>
+        <v>30488.3664</v>
       </c>
       <c r="G32" t="n">
-        <v>977136.6333000002</v>
+        <v>607891.2640000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1698,22 +1606,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>78.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>77.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="D33" t="n">
-        <v>78.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E33" t="n">
-        <v>77.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>4102.5793</v>
+        <v>10862</v>
       </c>
       <c r="G33" t="n">
-        <v>973034.0540000002</v>
+        <v>618753.2640000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1734,22 +1642,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="D34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E34" t="n">
-        <v>77.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="F34" t="n">
-        <v>20980.5323</v>
+        <v>6706</v>
       </c>
       <c r="G34" t="n">
-        <v>973034.0540000002</v>
+        <v>618753.2640000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1770,31 +1678,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>427.8981</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="n">
-        <v>973034.0540000002</v>
+        <v>620253.2640000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>75.3</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1806,32 +1718,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.5</v>
+        <v>75.2</v>
       </c>
       <c r="C36" t="n">
-        <v>77.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D36" t="n">
-        <v>77.5</v>
+        <v>75.3</v>
       </c>
       <c r="E36" t="n">
-        <v>77.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>18985.2355</v>
+        <v>12110.4815</v>
       </c>
       <c r="G36" t="n">
-        <v>954048.8185000003</v>
+        <v>608142.7825000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1762,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>77.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>77.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>77.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>27926.0806</v>
+        <v>865.8327</v>
       </c>
       <c r="G37" t="n">
-        <v>926122.7379000003</v>
+        <v>607276.9498000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +1806,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C38" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="D38" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="F38" t="n">
-        <v>15069.5952</v>
+        <v>910</v>
       </c>
       <c r="G38" t="n">
-        <v>941192.3331000003</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +1850,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="E39" t="n">
-        <v>77.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>114.6666</v>
       </c>
       <c r="G39" t="n">
-        <v>941202.3331000003</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +1894,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.5</v>
+        <v>75</v>
       </c>
       <c r="C40" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D40" t="n">
-        <v>77.5</v>
+        <v>75</v>
       </c>
       <c r="E40" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F40" t="n">
-        <v>42020</v>
+        <v>547</v>
       </c>
       <c r="G40" t="n">
-        <v>899182.3331000003</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +1938,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="C41" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="D41" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="E41" t="n">
-        <v>76.8</v>
+        <v>75</v>
       </c>
       <c r="F41" t="n">
-        <v>18000</v>
+        <v>6538.3334</v>
       </c>
       <c r="G41" t="n">
-        <v>881182.3331000003</v>
+        <v>606366.9498000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>75</v>
+      </c>
+      <c r="K41" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +1982,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.2</v>
+        <v>74.7</v>
       </c>
       <c r="C42" t="n">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>77.2</v>
+        <v>74.7</v>
       </c>
       <c r="F42" t="n">
-        <v>1172.8936</v>
+        <v>43821.7115</v>
       </c>
       <c r="G42" t="n">
-        <v>882355.2267000002</v>
+        <v>650188.6613000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2026,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C43" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="E43" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="F43" t="n">
-        <v>122.3738</v>
+        <v>1050</v>
       </c>
       <c r="G43" t="n">
-        <v>882355.2267000002</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K43" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2070,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C44" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="D44" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="E44" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="F44" t="n">
-        <v>6085.1071</v>
+        <v>520</v>
       </c>
       <c r="G44" t="n">
-        <v>882355.2267000002</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>75</v>
+      </c>
+      <c r="K44" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2114,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C45" t="n">
-        <v>79.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="D45" t="n">
-        <v>79.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="E45" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="F45" t="n">
-        <v>185064.5670693467</v>
+        <v>520</v>
       </c>
       <c r="G45" t="n">
-        <v>1067419.793769347</v>
+        <v>649138.6613000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2158,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>76.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>76.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D46" t="n">
-        <v>76.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="E46" t="n">
-        <v>76.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>7482.1359</v>
+        <v>21597.8988</v>
       </c>
       <c r="G46" t="n">
-        <v>1059937.657869347</v>
+        <v>670736.5601000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>75</v>
+      </c>
+      <c r="K46" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2202,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C47" t="n">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>77.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>76.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F47" t="n">
-        <v>22909.14</v>
+        <v>19191.8676</v>
       </c>
       <c r="G47" t="n">
-        <v>1082846.797869347</v>
+        <v>651544.6925000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2246,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.2</v>
+        <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>77.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D48" t="n">
-        <v>77.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E48" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" t="n">
-        <v>13869.3585</v>
+        <v>11442.4609</v>
       </c>
       <c r="G48" t="n">
-        <v>1096716.156369347</v>
+        <v>640102.2316000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2290,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>77.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C49" t="n">
-        <v>78.5</v>
+        <v>74.8</v>
       </c>
       <c r="D49" t="n">
-        <v>78.5</v>
+        <v>74.8</v>
       </c>
       <c r="E49" t="n">
-        <v>77.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="F49" t="n">
-        <v>31898.9448</v>
+        <v>38472.0579</v>
       </c>
       <c r="G49" t="n">
-        <v>1128615.101169347</v>
+        <v>601630.1737000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>75</v>
+      </c>
+      <c r="K49" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2334,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>78.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>78</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>10204.1123</v>
+        <v>200</v>
       </c>
       <c r="G50" t="n">
-        <v>1118410.988869347</v>
+        <v>601830.1737000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2378,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>77.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>77.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>77.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>9975</v>
+        <v>675.8511999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>1108435.988869347</v>
+        <v>601830.1737000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2422,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>78</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>78.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>78.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>78</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>6880.7466</v>
+        <v>8766.6648</v>
       </c>
       <c r="G52" t="n">
-        <v>1115316.735469347</v>
+        <v>593063.5089000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2466,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C53" t="n">
-        <v>78.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>78.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="F53" t="n">
-        <v>2969.9653</v>
+        <v>35042.3186</v>
       </c>
       <c r="G53" t="n">
-        <v>1115316.735469347</v>
+        <v>628105.8275000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2510,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>78.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="C54" t="n">
-        <v>78.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D54" t="n">
-        <v>78.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="E54" t="n">
-        <v>78.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="F54" t="n">
-        <v>2966.0782</v>
+        <v>1870</v>
       </c>
       <c r="G54" t="n">
-        <v>1112350.657269347</v>
+        <v>626235.8275000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K54" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2554,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>78</v>
+        <v>74.7</v>
       </c>
       <c r="C55" t="n">
-        <v>77.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>78</v>
+        <v>74.7</v>
       </c>
       <c r="E55" t="n">
-        <v>77.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>11692.4875</v>
+        <v>13822.8187</v>
       </c>
       <c r="G55" t="n">
-        <v>1100658.169769347</v>
+        <v>612413.0088000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2598,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>74.5</v>
       </c>
       <c r="D56" t="n">
-        <v>78</v>
+        <v>74.5</v>
       </c>
       <c r="E56" t="n">
-        <v>77.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F56" t="n">
-        <v>12966.0783</v>
+        <v>13219.1234</v>
       </c>
       <c r="G56" t="n">
-        <v>1113624.248069347</v>
+        <v>599193.8854000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2642,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C57" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="D57" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E57" t="n">
-        <v>78.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>9526.6978</v>
       </c>
       <c r="G57" t="n">
-        <v>1115624.248069347</v>
+        <v>608720.5832000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2686,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>78.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>78.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>78.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>78.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>2490</v>
+        <v>6000</v>
       </c>
       <c r="G58" t="n">
-        <v>1115624.248069347</v>
+        <v>602720.5832000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2730,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.7</v>
+        <v>74.5</v>
       </c>
       <c r="C59" t="n">
-        <v>77.7</v>
+        <v>74.5</v>
       </c>
       <c r="D59" t="n">
-        <v>77.7</v>
+        <v>74.5</v>
       </c>
       <c r="E59" t="n">
-        <v>77.7</v>
+        <v>74.5</v>
       </c>
       <c r="F59" t="n">
-        <v>4625.8905</v>
+        <v>13534.147</v>
       </c>
       <c r="G59" t="n">
-        <v>1110998.357569347</v>
+        <v>616254.7302000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="K59" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +2774,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>78.2</v>
+        <v>74.5</v>
       </c>
       <c r="C60" t="n">
-        <v>78.2</v>
+        <v>74.5</v>
       </c>
       <c r="D60" t="n">
-        <v>78.2</v>
+        <v>74.5</v>
       </c>
       <c r="E60" t="n">
-        <v>78.2</v>
+        <v>74.5</v>
       </c>
       <c r="F60" t="n">
-        <v>4310</v>
+        <v>1465.853</v>
       </c>
       <c r="G60" t="n">
-        <v>1115308.357569347</v>
+        <v>616254.7302000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2706,32 +2818,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C61" t="n">
-        <v>77.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="D61" t="n">
-        <v>77.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E61" t="n">
-        <v>77.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="F61" t="n">
-        <v>11572.0972</v>
+        <v>8269.218199999999</v>
       </c>
       <c r="G61" t="n">
-        <v>1103736.260369347</v>
+        <v>607985.5120000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2742,32 +2862,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>77.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D62" t="n">
-        <v>77.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E62" t="n">
-        <v>77.59999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>386.597</v>
+        <v>31920.4835</v>
       </c>
       <c r="G62" t="n">
-        <v>1103736.260369347</v>
+        <v>639905.9955000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +2906,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>77.40000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="D63" t="n">
-        <v>77.40000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="E63" t="n">
-        <v>77.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>6820</v>
+        <v>41271.9807</v>
       </c>
       <c r="G63" t="n">
-        <v>1096916.260369347</v>
+        <v>681177.9762</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2814,32 +2950,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C64" t="n">
-        <v>77.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="D64" t="n">
-        <v>77.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E64" t="n">
-        <v>77.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="F64" t="n">
-        <v>1448.0284</v>
+        <v>11039.4043</v>
       </c>
       <c r="G64" t="n">
-        <v>1095468.231969347</v>
+        <v>692217.3805000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2850,32 +2994,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>77.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>77.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>77.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10112.2279</v>
+        <v>3463.0284</v>
       </c>
       <c r="G65" t="n">
-        <v>1105580.459869347</v>
+        <v>695680.4089</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2886,32 +3038,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>77.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>77.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>77.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>77.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0001</v>
+        <v>17092.3838</v>
       </c>
       <c r="G66" t="n">
-        <v>1105580.459769347</v>
+        <v>695680.4089</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K66" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3082,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D67" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E67" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F67" t="n">
-        <v>7329.8429</v>
+        <v>22107.9539</v>
       </c>
       <c r="G67" t="n">
-        <v>1098250.616869347</v>
+        <v>717788.3628</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K67" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2961,29 +3129,35 @@
         <v>76.7</v>
       </c>
       <c r="C68" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E68" t="n">
         <v>76.7</v>
       </c>
       <c r="F68" t="n">
-        <v>392.6984</v>
+        <v>31941.1803</v>
       </c>
       <c r="G68" t="n">
-        <v>1097857.918469347</v>
+        <v>749729.5431</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2994,32 +3168,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C69" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D69" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="E69" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10188.2634</v>
+        <v>20927.2016</v>
       </c>
       <c r="G69" t="n">
-        <v>1108046.181869347</v>
+        <v>770656.7447</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3210,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="F70" t="n">
-        <v>151.774</v>
+        <v>29478.6467</v>
       </c>
       <c r="G70" t="n">
-        <v>1108197.955869347</v>
+        <v>741178.098</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3054,8 +3234,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3252,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C71" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E71" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1360</v>
+        <v>14987.0129</v>
       </c>
       <c r="G71" t="n">
-        <v>1106837.955869347</v>
+        <v>726191.0851</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3090,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3105,19 +3297,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D72" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>11284.1704</v>
+        <v>8791.4197</v>
       </c>
       <c r="G72" t="n">
-        <v>1095553.785469347</v>
+        <v>717399.6654000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3126,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3336,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>818.4224</v>
+        <v>10264.5291</v>
       </c>
       <c r="G73" t="n">
-        <v>1094735.363069347</v>
+        <v>727664.1945000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3162,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3378,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="D74" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="E74" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1975.05</v>
+        <v>6037.8855</v>
       </c>
       <c r="G74" t="n">
-        <v>1092760.313069347</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3198,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3420,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D75" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E75" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F75" t="n">
-        <v>277.6764</v>
+        <v>12000</v>
       </c>
       <c r="G75" t="n">
-        <v>1092482.636669347</v>
+        <v>721626.3090000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3234,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3462,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>178.2802</v>
+        <v>29061.4337</v>
       </c>
       <c r="G76" t="n">
-        <v>1092660.916869347</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3270,8 +3486,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3504,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>39.8936</v>
+        <v>168.2931</v>
       </c>
       <c r="G77" t="n">
-        <v>1092660.916869347</v>
+        <v>750687.7427000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3306,8 +3528,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3546,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="C78" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D78" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E78" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="F78" t="n">
-        <v>11681.7692</v>
+        <v>7177.9557</v>
       </c>
       <c r="G78" t="n">
-        <v>1104342.686069346</v>
+        <v>743509.7870000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3342,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3366,10 +3600,10 @@
         <v>76.7</v>
       </c>
       <c r="F79" t="n">
-        <v>781</v>
+        <v>13043.7157</v>
       </c>
       <c r="G79" t="n">
-        <v>1103561.686069346</v>
+        <v>730466.0713000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3378,8 +3612,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3630,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C80" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D80" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E80" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F80" t="n">
-        <v>1574.386</v>
+        <v>7500</v>
       </c>
       <c r="G80" t="n">
-        <v>1101987.300069347</v>
+        <v>722966.0713000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3414,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3672,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D81" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F81" t="n">
-        <v>691.6295</v>
+        <v>26321.5404</v>
       </c>
       <c r="G81" t="n">
-        <v>1101987.300069347</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3450,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3714,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C82" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="D82" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="E82" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="F82" t="n">
-        <v>5228.7581</v>
+        <v>9525.911700000001</v>
       </c>
       <c r="G82" t="n">
-        <v>1096758.541969347</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3486,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3756,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C83" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D83" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E83" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="F83" t="n">
-        <v>2750</v>
+        <v>355.4149</v>
       </c>
       <c r="G83" t="n">
-        <v>1099508.541969347</v>
+        <v>696644.5309000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3522,8 +3780,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3798,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>556</v>
+        <v>4952.8494</v>
       </c>
       <c r="G84" t="n">
-        <v>1099508.541969347</v>
+        <v>691691.6815000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3558,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3840,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>3660</v>
+        <v>16317.5921</v>
       </c>
       <c r="G85" t="n">
-        <v>1103168.541969347</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3594,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3882,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>1300.390117035111</v>
+        <v>2993.0098</v>
       </c>
       <c r="G86" t="n">
-        <v>1103168.541969347</v>
+        <v>708009.2736000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3630,8 +3906,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3924,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>130</v>
+        <v>5270</v>
       </c>
       <c r="G87" t="n">
-        <v>1103168.541969347</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3666,8 +3948,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3966,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C88" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D88" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E88" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3660</v>
+        <v>11037.8803</v>
       </c>
       <c r="G88" t="n">
-        <v>1103168.541969347</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3702,8 +3990,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +4008,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C89" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D89" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E89" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F89" t="n">
-        <v>1299</v>
+        <v>3017.8375</v>
       </c>
       <c r="G89" t="n">
-        <v>1103168.541969347</v>
+        <v>713279.2736000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3738,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +4050,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>76.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C90" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D90" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E90" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F90" t="n">
-        <v>39305.9369</v>
+        <v>9000</v>
       </c>
       <c r="G90" t="n">
-        <v>1142474.478869347</v>
+        <v>704279.2736000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3774,8 +4074,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +4092,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="C91" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D91" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="E91" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="F91" t="n">
-        <v>105.6297</v>
+        <v>4377.4317</v>
       </c>
       <c r="G91" t="n">
-        <v>1142368.849169347</v>
+        <v>708656.7053000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3810,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +4134,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>5000</v>
+        <v>21441.4714</v>
       </c>
       <c r="G92" t="n">
-        <v>1137368.849169347</v>
+        <v>730098.1767000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3846,8 +4158,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +4176,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>76.3</v>
+        <v>77.7</v>
       </c>
       <c r="D93" t="n">
-        <v>76.3</v>
+        <v>77.7</v>
       </c>
       <c r="E93" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>118.0571</v>
+        <v>12000</v>
       </c>
       <c r="G93" t="n">
-        <v>1137368.849169347</v>
+        <v>742098.1767000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3882,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4218,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>76.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="D94" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E94" t="n">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F94" t="n">
-        <v>16649.1209</v>
+        <v>21242.2129</v>
       </c>
       <c r="G94" t="n">
-        <v>1154017.970069347</v>
+        <v>763340.3896000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3918,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4260,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C95" t="n">
-        <v>76.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="D95" t="n">
-        <v>76.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="E95" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F95" t="n">
-        <v>12500</v>
+        <v>14562.9375</v>
       </c>
       <c r="G95" t="n">
-        <v>1154017.970069347</v>
+        <v>777903.3271000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3954,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +4302,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>77</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>77</v>
+        <v>78.3</v>
       </c>
       <c r="D96" t="n">
-        <v>77</v>
+        <v>78.3</v>
       </c>
       <c r="E96" t="n">
-        <v>77</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>12110</v>
+        <v>73407.2729</v>
       </c>
       <c r="G96" t="n">
-        <v>1166127.970069347</v>
+        <v>851310.6000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3990,8 +4326,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4002,34 +4344,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>77</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>77</v>
+        <v>78.5</v>
       </c>
       <c r="D97" t="n">
-        <v>77</v>
+        <v>78.5</v>
       </c>
       <c r="E97" t="n">
-        <v>77</v>
+        <v>78.3</v>
       </c>
       <c r="F97" t="n">
-        <v>14</v>
+        <v>63294.2574</v>
       </c>
       <c r="G97" t="n">
-        <v>1166127.970069347</v>
+        <v>914604.8574000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>1.037496679946879</v>
       </c>
       <c r="N97" t="inlineStr"/>
     </row>
@@ -4038,28 +4386,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>77</v>
+        <v>78.5</v>
       </c>
       <c r="C98" t="n">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="D98" t="n">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="E98" t="n">
-        <v>77</v>
+        <v>78.2</v>
       </c>
       <c r="F98" t="n">
-        <v>14</v>
+        <v>79070.96189999999</v>
       </c>
       <c r="G98" t="n">
-        <v>1166127.970069347</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4074,28 +4422,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="C99" t="n">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="D99" t="n">
-        <v>77</v>
+        <v>78.8</v>
       </c>
       <c r="E99" t="n">
-        <v>77</v>
+        <v>78.7</v>
       </c>
       <c r="F99" t="n">
-        <v>88.5064</v>
+        <v>101539.6848</v>
       </c>
       <c r="G99" t="n">
-        <v>1166127.970069347</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4110,28 +4458,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>76.7</v>
+        <v>78.7</v>
       </c>
       <c r="C100" t="n">
-        <v>76.7</v>
+        <v>78.7</v>
       </c>
       <c r="D100" t="n">
-        <v>76.7</v>
+        <v>78.7</v>
       </c>
       <c r="E100" t="n">
-        <v>76.7</v>
+        <v>78.7</v>
       </c>
       <c r="F100" t="n">
-        <v>88.8526</v>
+        <v>14346.0585</v>
       </c>
       <c r="G100" t="n">
-        <v>1166039.117469347</v>
+        <v>993675.8193000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4146,28 +4494,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>76.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>76.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D101" t="n">
-        <v>76.59999999999999</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>76.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="F101" t="n">
-        <v>10340</v>
+        <v>7310.9609</v>
       </c>
       <c r="G101" t="n">
-        <v>1155699.117469347</v>
+        <v>986364.8584000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4182,28 +4530,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="C102" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="D102" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="E102" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="F102" t="n">
-        <v>1945.893089960887</v>
+        <v>9228.2251</v>
       </c>
       <c r="G102" t="n">
-        <v>1157645.010559307</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4218,28 +4566,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C103" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="D103" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E103" t="n">
-        <v>76.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F103" t="n">
-        <v>397.6679</v>
+        <v>3620</v>
       </c>
       <c r="G103" t="n">
-        <v>1157247.342659307</v>
+        <v>977136.6333000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4254,28 +4602,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>76.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>5914.3407</v>
+        <v>4102.5793</v>
       </c>
       <c r="G104" t="n">
-        <v>1151333.001959307</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4290,28 +4638,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>5113.4288</v>
+        <v>20980.5323</v>
       </c>
       <c r="G105" t="n">
-        <v>1151333.001959307</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4326,28 +4674,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>454.6106</v>
+        <v>427.8981</v>
       </c>
       <c r="G106" t="n">
-        <v>1151333.001959307</v>
+        <v>973034.0540000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4362,28 +4710,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="C107" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="E107" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>1620.4799</v>
+        <v>18985.2355</v>
       </c>
       <c r="G107" t="n">
-        <v>1151333.001959307</v>
+        <v>954048.8185000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4398,28 +4746,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>507.3753</v>
+        <v>27926.0806</v>
       </c>
       <c r="G108" t="n">
-        <v>1151333.001959307</v>
+        <v>926122.7379000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4434,28 +4782,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="C109" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="D109" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="E109" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="F109" t="n">
-        <v>7184.7085</v>
+        <v>15069.5952</v>
       </c>
       <c r="G109" t="n">
-        <v>1158517.710459307</v>
+        <v>941192.3331000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4470,22 +4818,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>2388.9999</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>1160906.710359307</v>
+        <v>941202.3331000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4506,28 +4854,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C111" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E111" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>38.9105</v>
+        <v>42020</v>
       </c>
       <c r="G111" t="n">
-        <v>1160906.710359307</v>
+        <v>899182.3331000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4542,22 +4890,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="C112" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="D112" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="E112" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="F112" t="n">
-        <v>815</v>
+        <v>18000</v>
       </c>
       <c r="G112" t="n">
-        <v>1161721.710359307</v>
+        <v>881182.3331000003</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4578,22 +4926,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="C113" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="D113" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="E113" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="F113" t="n">
-        <v>6223.855</v>
+        <v>1172.8936</v>
       </c>
       <c r="G113" t="n">
-        <v>1161721.710359307</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4614,22 +4962,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C114" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D114" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E114" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F114" t="n">
-        <v>1051.8669</v>
+        <v>122.3738</v>
       </c>
       <c r="G114" t="n">
-        <v>1160669.843459307</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4650,22 +4998,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C115" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D115" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E115" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F115" t="n">
-        <v>10000</v>
+        <v>6085.1071</v>
       </c>
       <c r="G115" t="n">
-        <v>1160669.843459307</v>
+        <v>882355.2267000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4686,22 +5034,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C116" t="n">
-        <v>77.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>77.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F116" t="n">
-        <v>129.1989</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G116" t="n">
-        <v>1160799.042359307</v>
+        <v>1067419.793769347</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4722,22 +5070,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>4333.4349</v>
+        <v>7482.1359</v>
       </c>
       <c r="G117" t="n">
-        <v>1165132.477259307</v>
+        <v>1059937.657869347</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4758,22 +5106,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="D118" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="E118" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>12.9366</v>
+        <v>22909.14</v>
       </c>
       <c r="G118" t="n">
-        <v>1165132.477259307</v>
+        <v>1082846.797869347</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4794,22 +5142,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C119" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F119" t="n">
-        <v>3000</v>
+        <v>13869.3585</v>
       </c>
       <c r="G119" t="n">
-        <v>1165132.477259307</v>
+        <v>1096716.156369347</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4830,22 +5178,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>77.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="D120" t="n">
-        <v>77.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="E120" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>4938.3762</v>
+        <v>31898.9448</v>
       </c>
       <c r="G120" t="n">
-        <v>1170070.853459307</v>
+        <v>1128615.101169347</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4866,22 +5214,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="C121" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="D121" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="E121" t="n">
-        <v>77.2</v>
+        <v>78</v>
       </c>
       <c r="F121" t="n">
-        <v>10404.3477</v>
+        <v>10204.1123</v>
       </c>
       <c r="G121" t="n">
-        <v>1159666.505759307</v>
+        <v>1118410.988869347</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4902,22 +5250,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>1014.9999</v>
+        <v>9975</v>
       </c>
       <c r="G122" t="n">
-        <v>1160681.505659307</v>
+        <v>1108435.988869347</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4938,22 +5286,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C123" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F123" t="n">
-        <v>14000.0744</v>
+        <v>6880.7466</v>
       </c>
       <c r="G123" t="n">
-        <v>1146681.431259307</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4974,22 +5322,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>48890.6855</v>
+        <v>2969.9653</v>
       </c>
       <c r="G124" t="n">
-        <v>1146681.431259307</v>
+        <v>1115316.735469347</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5010,28 +5358,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>41787.3711</v>
+        <v>2966.0782</v>
       </c>
       <c r="G125" t="n">
-        <v>1146681.431259307</v>
+        <v>1112350.657269347</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5046,28 +5394,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="C126" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D126" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E126" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="F126" t="n">
-        <v>12.9042</v>
+        <v>11692.4875</v>
       </c>
       <c r="G126" t="n">
-        <v>1146668.527059307</v>
+        <v>1100658.169769347</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5082,28 +5430,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="D127" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="E127" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>39174.1367</v>
+        <v>12966.0783</v>
       </c>
       <c r="G127" t="n">
-        <v>1185842.663759307</v>
+        <v>1113624.248069347</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5118,22 +5466,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>77.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>77.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G128" t="n">
-        <v>1185852.663759307</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5154,28 +5502,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>12.87</v>
+        <v>2490</v>
       </c>
       <c r="G129" t="n">
-        <v>1185839.793759307</v>
+        <v>1115624.248069347</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5190,28 +5538,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C130" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D130" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E130" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F130" t="n">
-        <v>3059.2086</v>
+        <v>4625.8905</v>
       </c>
       <c r="G130" t="n">
-        <v>1182780.585159307</v>
+        <v>1110998.357569347</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5226,22 +5574,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="C131" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="D131" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="E131" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="F131" t="n">
-        <v>5148.005148005148</v>
+        <v>4310</v>
       </c>
       <c r="G131" t="n">
-        <v>1187928.590307312</v>
+        <v>1115308.357569347</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5262,22 +5610,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>4665.7328</v>
+        <v>11572.0972</v>
       </c>
       <c r="G132" t="n">
-        <v>1183262.857507312</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5298,22 +5646,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>65362.806</v>
+        <v>386.597</v>
       </c>
       <c r="G133" t="n">
-        <v>1117900.051507312</v>
+        <v>1103736.260369347</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5334,22 +5682,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>1253.5349</v>
+        <v>6820</v>
       </c>
       <c r="G134" t="n">
-        <v>1117900.051507312</v>
+        <v>1096916.260369347</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5370,22 +5718,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>6393.8078</v>
+        <v>1448.0284</v>
       </c>
       <c r="G135" t="n">
-        <v>1117900.051507312</v>
+        <v>1095468.231969347</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5406,22 +5754,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C136" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D136" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E136" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F136" t="n">
-        <v>599.8528</v>
+        <v>10112.2279</v>
       </c>
       <c r="G136" t="n">
-        <v>1117900.051507312</v>
+        <v>1105580.459869347</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5442,22 +5790,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>1210.2581</v>
+        <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>1117900.051507312</v>
+        <v>1105580.459769347</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5490,10 +5838,10 @@
         <v>77</v>
       </c>
       <c r="F138" t="n">
-        <v>13142</v>
+        <v>7329.8429</v>
       </c>
       <c r="G138" t="n">
-        <v>1117900.051507312</v>
+        <v>1098250.616869347</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5514,22 +5862,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C139" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D139" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E139" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="F139" t="n">
-        <v>16473</v>
+        <v>392.6984</v>
       </c>
       <c r="G139" t="n">
-        <v>1117900.051507312</v>
+        <v>1097857.918469347</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5562,10 +5910,10 @@
         <v>77</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>10188.2634</v>
       </c>
       <c r="G140" t="n">
-        <v>1117900.051507312</v>
+        <v>1108046.181869347</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5586,22 +5934,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C141" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D141" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E141" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F141" t="n">
-        <v>43380.9456</v>
+        <v>151.774</v>
       </c>
       <c r="G141" t="n">
-        <v>1117900.051507312</v>
+        <v>1108197.955869347</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5622,22 +5970,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>6088.474</v>
+        <v>1360</v>
       </c>
       <c r="G142" t="n">
-        <v>1117900.051507312</v>
+        <v>1106837.955869347</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5661,19 +6009,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D143" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>11284.1704</v>
       </c>
       <c r="G143" t="n">
-        <v>1115900.051507312</v>
+        <v>1095553.785469347</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5694,22 +6042,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C144" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="D144" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E144" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>818.4224</v>
       </c>
       <c r="G144" t="n">
-        <v>1110900.051507312</v>
+        <v>1094735.363069347</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5730,22 +6078,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="C145" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="D145" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="E145" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="F145" t="n">
-        <v>3521.7</v>
+        <v>1975.05</v>
       </c>
       <c r="G145" t="n">
-        <v>1110900.051507312</v>
+        <v>1092760.313069347</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5766,22 +6114,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>543.4585</v>
+        <v>277.6764</v>
       </c>
       <c r="G146" t="n">
-        <v>1111443.510007312</v>
+        <v>1092482.636669347</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5797,6 +6145,2562 @@
       </c>
       <c r="N146" t="inlineStr"/>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>178.2802</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1092660.916869347</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>39.8936</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1092660.916869347</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>11681.7692</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1104342.686069346</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>781</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1103561.686069346</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D151" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1574.386</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1101987.300069347</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>691.6295</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1101987.300069347</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5228.7581</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1096758.541969347</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2750</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1099508.541969347</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>556</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1099508.541969347</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3660</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1103168.541969347</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1300.390117035111</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1103168.541969347</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>130</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1103168.541969347</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3660</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1103168.541969347</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1299</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1103168.541969347</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D161" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F161" t="n">
+        <v>39305.9369</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1142474.478869347</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>105.6297</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1142368.849169347</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1137368.849169347</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>118.0571</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1137368.849169347</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>16649.1209</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1154017.970069347</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1154017.970069347</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>77</v>
+      </c>
+      <c r="C167" t="n">
+        <v>77</v>
+      </c>
+      <c r="D167" t="n">
+        <v>77</v>
+      </c>
+      <c r="E167" t="n">
+        <v>77</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12110</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1166127.970069347</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>77</v>
+      </c>
+      <c r="C168" t="n">
+        <v>77</v>
+      </c>
+      <c r="D168" t="n">
+        <v>77</v>
+      </c>
+      <c r="E168" t="n">
+        <v>77</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1166127.970069347</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>77</v>
+      </c>
+      <c r="C169" t="n">
+        <v>77</v>
+      </c>
+      <c r="D169" t="n">
+        <v>77</v>
+      </c>
+      <c r="E169" t="n">
+        <v>77</v>
+      </c>
+      <c r="F169" t="n">
+        <v>14</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1166127.970069347</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>77</v>
+      </c>
+      <c r="C170" t="n">
+        <v>77</v>
+      </c>
+      <c r="D170" t="n">
+        <v>77</v>
+      </c>
+      <c r="E170" t="n">
+        <v>77</v>
+      </c>
+      <c r="F170" t="n">
+        <v>88.5064</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1166127.970069347</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>88.8526</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1166039.117469347</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10340</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1155699.117469347</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1945.893089960887</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1157645.010559307</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>397.6679</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1157247.342659307</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5914.3407</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1151333.001959307</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5113.4288</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1151333.001959307</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>454.6106</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1151333.001959307</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C178" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1620.4799</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1151333.001959307</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E179" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>507.3753</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1151333.001959307</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7184.7085</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1158517.710459307</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2388.9999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1160906.710359307</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E182" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F182" t="n">
+        <v>38.9105</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1160906.710359307</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>815</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1161721.710359307</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6223.855</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1161721.710359307</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1051.8669</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1160669.843459307</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1160669.843459307</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>129.1989</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1160799.042359307</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4333.4349</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12.9366</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1165132.477259307</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4938.3762</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1170070.853459307</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10404.3477</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1159666.505759307</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1014.9999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1160681.505659307</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14000.0744</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C195" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D195" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>48890.6855</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D196" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E196" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F196" t="n">
+        <v>41787.3711</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1146681.431259307</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>12.9042</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1146668.527059307</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>39174.1367</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1185842.663759307</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C199" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1185852.663759307</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F200" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1185839.793759307</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D201" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3059.2086</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1182780.585159307</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D202" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5148.005148005148</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1187928.590307312</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4665.7328</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1183262.857507312</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C204" t="n">
+        <v>77</v>
+      </c>
+      <c r="D204" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>77</v>
+      </c>
+      <c r="F204" t="n">
+        <v>65362.806</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>77</v>
+      </c>
+      <c r="C205" t="n">
+        <v>77</v>
+      </c>
+      <c r="D205" t="n">
+        <v>77</v>
+      </c>
+      <c r="E205" t="n">
+        <v>77</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1253.5349</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>77</v>
+      </c>
+      <c r="C206" t="n">
+        <v>77</v>
+      </c>
+      <c r="D206" t="n">
+        <v>77</v>
+      </c>
+      <c r="E206" t="n">
+        <v>77</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6393.8078</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>77</v>
+      </c>
+      <c r="C207" t="n">
+        <v>77</v>
+      </c>
+      <c r="D207" t="n">
+        <v>77</v>
+      </c>
+      <c r="E207" t="n">
+        <v>77</v>
+      </c>
+      <c r="F207" t="n">
+        <v>599.8528</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>77</v>
+      </c>
+      <c r="C208" t="n">
+        <v>77</v>
+      </c>
+      <c r="D208" t="n">
+        <v>77</v>
+      </c>
+      <c r="E208" t="n">
+        <v>77</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1210.2581</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>77</v>
+      </c>
+      <c r="C209" t="n">
+        <v>77</v>
+      </c>
+      <c r="D209" t="n">
+        <v>77</v>
+      </c>
+      <c r="E209" t="n">
+        <v>77</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13142</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>77</v>
+      </c>
+      <c r="C210" t="n">
+        <v>77</v>
+      </c>
+      <c r="D210" t="n">
+        <v>77</v>
+      </c>
+      <c r="E210" t="n">
+        <v>77</v>
+      </c>
+      <c r="F210" t="n">
+        <v>16473</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>77</v>
+      </c>
+      <c r="C211" t="n">
+        <v>77</v>
+      </c>
+      <c r="D211" t="n">
+        <v>77</v>
+      </c>
+      <c r="E211" t="n">
+        <v>77</v>
+      </c>
+      <c r="F211" t="n">
+        <v>100</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>77</v>
+      </c>
+      <c r="C212" t="n">
+        <v>77</v>
+      </c>
+      <c r="D212" t="n">
+        <v>77</v>
+      </c>
+      <c r="E212" t="n">
+        <v>77</v>
+      </c>
+      <c r="F212" t="n">
+        <v>43380.9456</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>77</v>
+      </c>
+      <c r="C213" t="n">
+        <v>77</v>
+      </c>
+      <c r="D213" t="n">
+        <v>77</v>
+      </c>
+      <c r="E213" t="n">
+        <v>77</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6088.474</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1117900.051507312</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C214" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D214" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1115900.051507312</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1110900.051507312</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C216" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3521.7</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1110900.051507312</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>543.4585</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1111443.510007312</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N217"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,22 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,26 +583,15 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,22 +649,15 @@
         <v>590136.8097000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -732,22 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -774,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,22 +979,15 @@
         <v>592050.4762000002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1106,26 +1012,15 @@
         <v>600040.4762000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="K19" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,22 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1194,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1266,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1302,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1336,18 +1210,19 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,18 +1247,23 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1408,18 +1288,23 @@
         <v>578909.8976000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,16 +1331,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1482,16 +1370,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1518,16 +1409,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1554,16 +1448,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1590,16 +1487,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1626,16 +1526,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1662,16 +1565,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1696,22 +1602,21 @@
         <v>620253.2640000002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1736,26 +1641,21 @@
         <v>608142.7825000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1780,26 +1680,21 @@
         <v>607276.9498000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1824,26 +1719,21 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1868,26 +1758,21 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>75</v>
-      </c>
-      <c r="K39" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1912,26 +1797,21 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>75</v>
-      </c>
-      <c r="K40" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1956,26 +1836,23 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J41" t="n">
-        <v>75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2000,26 +1877,23 @@
         <v>650188.6613000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J42" t="n">
-        <v>75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2044,26 +1918,23 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K43" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,26 +1959,23 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J44" t="n">
-        <v>75</v>
-      </c>
-      <c r="K44" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2132,26 +2000,23 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J45" t="n">
-        <v>75</v>
-      </c>
-      <c r="K45" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2176,26 +2041,23 @@
         <v>670736.5601000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J46" t="n">
-        <v>75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2220,26 +2082,23 @@
         <v>651544.6925000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>75.3</v>
       </c>
       <c r="J47" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2264,26 +2123,23 @@
         <v>640102.2316000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2308,26 +2164,23 @@
         <v>601630.1737000002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J49" t="n">
-        <v>75</v>
-      </c>
-      <c r="K49" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2352,26 +2205,23 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
       <c r="J50" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2396,26 +2246,23 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J51" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="K51" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2440,26 +2287,23 @@
         <v>593063.5089000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J52" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="K52" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2484,26 +2328,23 @@
         <v>628105.8275000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2528,26 +2369,23 @@
         <v>626235.8275000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2572,26 +2410,23 @@
         <v>612413.0088000002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>74.7</v>
       </c>
       <c r="J55" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2616,26 +2451,23 @@
         <v>599193.8854000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="K56" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2660,26 +2492,23 @@
         <v>608720.5832000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="J57" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2704,26 +2533,23 @@
         <v>602720.5832000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
       <c r="J58" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="K58" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2748,26 +2574,23 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2792,26 +2615,23 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="J60" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2836,26 +2656,23 @@
         <v>607985.5120000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="J61" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K61" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2880,26 +2697,23 @@
         <v>639905.9955000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="J62" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2924,26 +2738,23 @@
         <v>681177.9762</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>75.2</v>
       </c>
       <c r="J63" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2968,26 +2779,23 @@
         <v>692217.3805000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>75.7</v>
       </c>
       <c r="J64" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K64" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3012,26 +2820,23 @@
         <v>695680.4089</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>75.8</v>
       </c>
       <c r="J65" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3056,26 +2861,21 @@
         <v>695680.4089</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3100,26 +2900,21 @@
         <v>717788.3628</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3146,22 +2941,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3188,22 +2980,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3230,22 +3019,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3272,22 +3058,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3314,22 +3097,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3356,22 +3136,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3398,22 +3175,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3440,22 +3214,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3482,22 +3253,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3524,22 +3292,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3566,22 +3331,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3608,22 +3370,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3650,22 +3409,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3692,22 +3448,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3734,22 +3487,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3776,22 +3526,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3818,22 +3565,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3860,22 +3604,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3902,22 +3643,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3944,22 +3682,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3986,22 +3721,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4026,24 +3758,21 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4068,24 +3797,21 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4112,22 +3838,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4152,24 +3875,21 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4194,24 +3914,21 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4236,24 +3953,21 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4280,22 +3994,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4320,24 +4031,21 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4362,24 +4070,21 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1.037496679946879</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4404,18 +4109,21 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4442,16 +4150,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4478,16 +4189,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4512,18 +4226,21 @@
         <v>986364.8584000003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4548,18 +4265,21 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4586,16 +4306,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4622,16 +4345,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4656,18 +4382,21 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4692,18 +4421,21 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4730,16 +4462,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4764,18 +4499,21 @@
         <v>926122.7379000003</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4800,18 +4538,21 @@
         <v>941192.3331000003</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4836,18 +4577,21 @@
         <v>941202.3331000003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4872,18 +4616,21 @@
         <v>899182.3331000003</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4908,18 +4655,21 @@
         <v>881182.3331000003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4944,18 +4694,21 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4980,18 +4733,21 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5016,18 +4772,21 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5052,18 +4811,21 @@
         <v>1067419.793769347</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5088,18 +4850,21 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5126,16 +4891,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5162,16 +4930,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5198,16 +4969,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5234,16 +5008,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5270,16 +5047,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5306,16 +5086,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5342,16 +5125,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5378,16 +5164,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5414,16 +5203,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5450,16 +5242,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5486,16 +5281,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5522,16 +5320,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5558,16 +5359,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5594,16 +5398,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5630,16 +5437,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5666,16 +5476,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5702,16 +5515,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5738,16 +5554,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5774,16 +5593,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5810,16 +5632,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5846,16 +5671,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5882,16 +5710,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5918,16 +5749,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5954,16 +5788,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5990,16 +5827,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6026,16 +5866,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6062,16 +5905,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6098,16 +5944,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6134,16 +5983,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6170,16 +6022,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6206,16 +6061,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6242,16 +6100,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6278,16 +6139,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6312,18 +6176,21 @@
         <v>1101987.300069347</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6350,16 +6217,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6386,16 +6256,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6422,16 +6295,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6458,16 +6334,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6494,16 +6373,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6530,16 +6412,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6566,16 +6451,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6602,16 +6490,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6638,16 +6529,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6674,16 +6568,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6710,16 +6607,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6746,16 +6646,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6782,16 +6685,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6818,16 +6724,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6854,16 +6763,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6890,16 +6802,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6926,16 +6841,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6962,16 +6880,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6998,16 +6919,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7034,16 +6958,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7070,16 +6997,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7106,16 +7036,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7142,16 +7075,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7178,16 +7114,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7214,16 +7153,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7250,16 +7192,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7286,16 +7231,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7322,16 +7270,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7358,16 +7309,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7394,16 +7348,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7430,16 +7387,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7466,16 +7426,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7502,16 +7465,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7538,16 +7504,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7574,16 +7543,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7610,16 +7582,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7646,16 +7621,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7682,16 +7660,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7718,16 +7699,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7754,16 +7738,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7790,16 +7777,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7826,16 +7816,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7862,16 +7855,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7896,18 +7892,21 @@
         <v>1146681.431259307</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1.031048064085447</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7932,18 +7931,15 @@
         <v>1146681.431259307</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7968,18 +7964,15 @@
         <v>1146668.527059307</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8004,18 +7997,15 @@
         <v>1185842.663759307</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8042,16 +8032,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8076,18 +8063,15 @@
         <v>1185839.793759307</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8114,16 +8098,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8148,18 +8129,15 @@
         <v>1187928.590307312</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8184,18 +8162,15 @@
         <v>1183262.857507312</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8220,18 +8195,15 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8256,18 +8228,15 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8292,18 +8261,15 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8328,18 +8294,15 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8366,16 +8329,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8402,16 +8362,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8438,16 +8395,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8474,16 +8428,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8510,16 +8461,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8546,16 +8494,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8582,16 +8527,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8618,16 +8560,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8652,18 +8591,15 @@
         <v>1110900.051507312</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8690,18 +8626,15 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>575475.0803000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +647,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +686,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>75</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +764,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>75</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>75</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,15 +1346,17 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1385,15 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1288,17 +1424,15 @@
         <v>578909.8976000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1333,7 +1467,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1372,7 +1506,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1411,7 +1545,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1450,7 +1584,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1489,7 +1623,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1528,7 +1662,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1567,7 +1701,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1606,7 +1740,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1645,7 +1779,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1684,7 +1818,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1723,7 +1857,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1762,7 +1896,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1801,7 +1935,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1836,13 +1970,11 @@
         <v>606366.9498000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1877,13 +2009,11 @@
         <v>650188.6613000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1918,13 +2048,11 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1959,13 +2087,11 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2000,13 +2126,11 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2041,13 +2165,11 @@
         <v>670736.5601000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2082,13 +2204,11 @@
         <v>651544.6925000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2123,13 +2243,11 @@
         <v>640102.2316000002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2164,13 +2282,11 @@
         <v>601630.1737000002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2205,13 +2321,11 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2246,13 +2360,11 @@
         <v>601830.1737000002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2287,13 +2399,11 @@
         <v>593063.5089000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2328,13 +2438,11 @@
         <v>628105.8275000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2369,13 +2477,11 @@
         <v>626235.8275000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2410,13 +2516,11 @@
         <v>612413.0088000002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2451,13 +2555,11 @@
         <v>599193.8854000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2492,13 +2594,11 @@
         <v>608720.5832000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2533,13 +2633,11 @@
         <v>602720.5832000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2574,13 +2672,11 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2615,13 +2711,11 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2656,13 +2750,11 @@
         <v>607985.5120000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2697,13 +2789,11 @@
         <v>639905.9955000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2738,13 +2828,11 @@
         <v>681177.9762</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2779,13 +2867,11 @@
         <v>692217.3805000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2820,13 +2906,11 @@
         <v>695680.4089</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>75.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2865,7 +2949,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2904,7 +2988,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2943,7 +3027,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2982,7 +3066,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3021,7 +3105,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3060,7 +3144,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3099,7 +3183,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3138,7 +3222,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3177,7 +3261,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3216,7 +3300,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3255,7 +3339,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3294,7 +3378,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3333,7 +3417,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3372,7 +3456,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3411,7 +3495,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3450,7 +3534,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3489,7 +3573,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3528,7 +3612,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3567,7 +3651,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3606,7 +3690,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3645,7 +3729,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3684,7 +3768,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3723,7 +3807,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3758,11 +3842,11 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3797,11 +3881,11 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3840,7 +3924,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3875,11 +3959,11 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3914,11 +3998,11 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3953,11 +4037,11 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3996,7 +4080,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4031,11 +4115,11 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4070,11 +4154,11 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4109,11 +4193,11 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4152,7 +4236,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4191,7 +4275,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4226,11 +4310,11 @@
         <v>986364.8584000003</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4265,11 +4349,11 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4308,7 +4392,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4347,7 +4431,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4382,11 +4466,11 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4421,11 +4505,11 @@
         <v>973034.0540000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4464,7 +4548,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4499,19 +4583,19 @@
         <v>926122.7379000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>1.023</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4538,17 +4622,11 @@
         <v>941192.3331000003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4577,17 +4655,11 @@
         <v>941202.3331000003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4616,17 +4688,11 @@
         <v>899182.3331000003</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4655,17 +4721,11 @@
         <v>881182.3331000003</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4694,17 +4754,11 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4733,17 +4787,11 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4772,17 +4820,11 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4811,17 +4853,11 @@
         <v>1067419.793769347</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4850,17 +4886,11 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4889,17 +4919,11 @@
         <v>1082846.797869347</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4928,17 +4952,11 @@
         <v>1096716.156369347</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4967,17 +4985,11 @@
         <v>1128615.101169347</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5006,17 +5018,11 @@
         <v>1118410.988869347</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5045,17 +5051,11 @@
         <v>1108435.988869347</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5084,17 +5084,11 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5123,17 +5117,11 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5165,14 +5153,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5204,14 +5186,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5243,14 +5219,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +5285,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +5318,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +5351,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5438,14 +5384,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5477,14 +5417,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +5450,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5483,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +5516,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5630,17 +5546,11 @@
         <v>1105580.459769347</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5669,17 +5579,11 @@
         <v>1098250.616869347</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5708,17 +5612,11 @@
         <v>1097857.918469347</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5747,17 +5645,11 @@
         <v>1108046.181869347</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5786,17 +5678,11 @@
         <v>1108197.955869347</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5825,17 +5711,11 @@
         <v>1106837.955869347</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5864,17 +5744,11 @@
         <v>1095553.785469347</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5903,17 +5777,11 @@
         <v>1094735.363069347</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5942,17 +5810,11 @@
         <v>1092760.313069347</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5981,17 +5843,11 @@
         <v>1092482.636669347</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6020,17 +5876,11 @@
         <v>1092660.916869347</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6059,17 +5909,11 @@
         <v>1092660.916869347</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6098,17 +5942,11 @@
         <v>1104342.686069346</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6137,17 +5975,11 @@
         <v>1103561.686069346</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6176,17 +6008,11 @@
         <v>1101987.300069347</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6218,14 +6044,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6335,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6374,14 +6176,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6413,14 +6209,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6452,14 +6242,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6491,14 +6275,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6530,14 +6308,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6569,14 +6341,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6608,14 +6374,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +6440,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6725,14 +6473,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6506,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6803,14 +6539,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6842,14 +6572,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6881,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6920,14 +6638,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6959,14 +6671,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6704,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7037,14 +6737,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7076,14 +6770,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7115,14 +6803,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7154,14 +6836,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7193,14 +6869,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7232,14 +6902,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7271,14 +6935,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7310,14 +6968,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7349,14 +7001,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7388,14 +7034,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7427,14 +7067,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7466,14 +7100,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7505,14 +7133,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7544,14 +7166,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7583,14 +7199,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7622,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7661,14 +7265,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7700,14 +7298,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7739,14 +7331,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7778,14 +7364,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7817,14 +7397,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7856,14 +7430,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7892,19 +7460,13 @@
         <v>1146681.431259307</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>1.031048064085447</v>
+        <v>1</v>
       </c>
       <c r="M195" t="inlineStr"/>
     </row>
@@ -7931,7 +7493,7 @@
         <v>1146681.431259307</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7964,7 +7526,7 @@
         <v>1146668.527059307</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7997,7 +7559,7 @@
         <v>1185842.663759307</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8063,7 +7625,7 @@
         <v>1185839.793759307</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8129,7 +7691,7 @@
         <v>1187928.590307312</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8162,7 +7724,7 @@
         <v>1183262.857507312</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8195,7 +7757,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8228,7 +7790,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8261,7 +7823,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8294,7 +7856,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8327,7 +7889,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8360,7 +7922,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8393,7 +7955,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8426,7 +7988,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8459,7 +8021,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8492,7 +8054,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8525,7 +8087,7 @@
         <v>1115900.051507312</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8558,7 +8120,7 @@
         <v>1110900.051507312</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8591,7 +8153,7 @@
         <v>1110900.051507312</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8635,6 +8197,6 @@
       <c r="M217" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>575475.0803000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,1852 +583,1574 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>75</v>
       </c>
-      <c r="J6" t="n">
+      <c r="C7" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D7" t="n">
         <v>75</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="E7" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7196.6827</v>
+      </c>
+      <c r="G7" t="n">
+        <v>587745.8097000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2391</v>
+      </c>
+      <c r="G8" t="n">
+        <v>590136.8097000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1067.6836</v>
+      </c>
+      <c r="G9" t="n">
+        <v>589069.1261000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1071</v>
+      </c>
+      <c r="G10" t="n">
+        <v>590140.1261000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>491.1808</v>
+      </c>
+      <c r="G11" t="n">
+        <v>590140.1261000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.9814</v>
+      </c>
+      <c r="G12" t="n">
+        <v>590156.1075000002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>66.5778</v>
+      </c>
+      <c r="G13" t="n">
+        <v>590089.5297000002</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9950</v>
+      </c>
+      <c r="G14" t="n">
+        <v>600039.5297000002</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5043.1593</v>
+      </c>
+      <c r="G15" t="n">
+        <v>594996.3704000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G16" t="n">
+        <v>593096.3704000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>540</v>
+      </c>
+      <c r="G17" t="n">
+        <v>592556.3704000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>505.8942</v>
+      </c>
+      <c r="G18" t="n">
+        <v>592050.4762000002</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7990</v>
+      </c>
+      <c r="G19" t="n">
+        <v>600040.4762000002</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1536.3859</v>
+      </c>
+      <c r="G20" t="n">
+        <v>600040.4762000002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>750</v>
+      </c>
+      <c r="G21" t="n">
+        <v>600040.4762000002</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>75</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>610040.4762000002</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>75</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>610040.4762000002</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>38760.5786</v>
+      </c>
+      <c r="G24" t="n">
+        <v>571279.8976000001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>571279.8976000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1626.053</v>
+      </c>
+      <c r="G26" t="n">
+        <v>571279.8976000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7630</v>
+      </c>
+      <c r="G27" t="n">
+        <v>578909.8976000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>75</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G28" t="n">
+        <v>578909.8976000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1507</v>
+      </c>
+      <c r="G29" t="n">
+        <v>577402.8976000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>530</v>
+      </c>
+      <c r="G30" t="n">
+        <v>577402.8976000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.2082</v>
+      </c>
+      <c r="G31" t="n">
+        <v>577402.8976000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30488.3664</v>
+      </c>
+      <c r="G32" t="n">
+        <v>607891.2640000002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10862</v>
+      </c>
+      <c r="G33" t="n">
+        <v>618753.2640000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6706</v>
+      </c>
+      <c r="G34" t="n">
+        <v>618753.2640000002</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G35" t="n">
+        <v>620253.2640000002</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12110.4815</v>
+      </c>
+      <c r="G36" t="n">
+        <v>608142.7825000002</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>865.8327</v>
+      </c>
+      <c r="G37" t="n">
+        <v>607276.9498000002</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>75</v>
+      </c>
+      <c r="D38" t="n">
+        <v>75</v>
+      </c>
+      <c r="E38" t="n">
+        <v>75</v>
+      </c>
+      <c r="F38" t="n">
+        <v>910</v>
+      </c>
+      <c r="G38" t="n">
+        <v>606366.9498000002</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>75</v>
+      </c>
+      <c r="C39" t="n">
+        <v>75</v>
+      </c>
+      <c r="D39" t="n">
+        <v>75</v>
+      </c>
+      <c r="E39" t="n">
+        <v>75</v>
+      </c>
+      <c r="F39" t="n">
+        <v>114.6666</v>
+      </c>
+      <c r="G39" t="n">
+        <v>606366.9498000002</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>75</v>
+      </c>
+      <c r="C40" t="n">
+        <v>75</v>
+      </c>
+      <c r="D40" t="n">
+        <v>75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>547</v>
+      </c>
+      <c r="G40" t="n">
+        <v>606366.9498000002</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>75</v>
+      </c>
+      <c r="C41" t="n">
+        <v>75</v>
+      </c>
+      <c r="D41" t="n">
+        <v>75</v>
+      </c>
+      <c r="E41" t="n">
+        <v>75</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6538.3334</v>
+      </c>
+      <c r="G41" t="n">
+        <v>606366.9498000002</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>43821.7115</v>
+      </c>
+      <c r="G42" t="n">
+        <v>650188.6613000002</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>75</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>75</v>
+      </c>
+      <c r="E43" t="n">
+        <v>75</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1050</v>
+      </c>
+      <c r="G43" t="n">
+        <v>649138.6613000002</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>75</v>
+      </c>
+      <c r="C44" t="n">
+        <v>75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>75</v>
+      </c>
+      <c r="E44" t="n">
+        <v>75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>520</v>
+      </c>
+      <c r="G44" t="n">
+        <v>649138.6613000002</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>75</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>75</v>
+      </c>
+      <c r="E45" t="n">
+        <v>75</v>
+      </c>
+      <c r="F45" t="n">
+        <v>520</v>
+      </c>
+      <c r="G45" t="n">
+        <v>649138.6613000002</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21597.8988</v>
+      </c>
+      <c r="G46" t="n">
+        <v>670736.5601000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>75</v>
+      </c>
+      <c r="C47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>75</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19191.8676</v>
+      </c>
+      <c r="G47" t="n">
+        <v>651544.6925000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>75</v>
+      </c>
+      <c r="C48" t="n">
+        <v>75</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75</v>
+      </c>
+      <c r="E48" t="n">
+        <v>75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11442.4609</v>
+      </c>
+      <c r="G48" t="n">
+        <v>640102.2316000002</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38472.0579</v>
+      </c>
+      <c r="G49" t="n">
+        <v>601630.1737000002</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>200</v>
+      </c>
+      <c r="G50" t="n">
+        <v>601830.1737000002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>675.8511999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>601830.1737000002</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8766.6648</v>
+      </c>
+      <c r="G52" t="n">
+        <v>593063.5089000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>35042.3186</v>
+      </c>
+      <c r="G53" t="n">
+        <v>628105.8275000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>75</v>
-      </c>
-      <c r="C7" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7196.6827</v>
-      </c>
-      <c r="G7" t="n">
-        <v>587745.8097000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2391</v>
-      </c>
-      <c r="G8" t="n">
-        <v>590136.8097000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1067.6836</v>
-      </c>
-      <c r="G9" t="n">
-        <v>589069.1261000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1071</v>
-      </c>
-      <c r="G10" t="n">
-        <v>590140.1261000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>491.1808</v>
-      </c>
-      <c r="G11" t="n">
-        <v>590140.1261000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15.9814</v>
-      </c>
-      <c r="G12" t="n">
-        <v>590156.1075000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>66.5778</v>
-      </c>
-      <c r="G13" t="n">
-        <v>590089.5297000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9950</v>
-      </c>
-      <c r="G14" t="n">
-        <v>600039.5297000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5043.1593</v>
-      </c>
-      <c r="G15" t="n">
-        <v>594996.3704000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G16" t="n">
-        <v>593096.3704000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>540</v>
-      </c>
-      <c r="G17" t="n">
-        <v>592556.3704000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>505.8942</v>
-      </c>
-      <c r="G18" t="n">
-        <v>592050.4762000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7990</v>
-      </c>
-      <c r="G19" t="n">
-        <v>600040.4762000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1536.3859</v>
-      </c>
-      <c r="G20" t="n">
-        <v>600040.4762000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>750</v>
-      </c>
-      <c r="G21" t="n">
-        <v>600040.4762000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>75</v>
-      </c>
-      <c r="C22" t="n">
-        <v>75</v>
-      </c>
-      <c r="D22" t="n">
-        <v>75</v>
-      </c>
-      <c r="E22" t="n">
-        <v>75</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>610040.4762000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>75</v>
-      </c>
-      <c r="D23" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>75</v>
-      </c>
-      <c r="F23" t="n">
-        <v>7400</v>
-      </c>
-      <c r="G23" t="n">
-        <v>610040.4762000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>75</v>
-      </c>
-      <c r="C24" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D24" t="n">
-        <v>75</v>
-      </c>
-      <c r="E24" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F24" t="n">
-        <v>38760.5786</v>
-      </c>
-      <c r="G24" t="n">
-        <v>571279.8976000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>571279.8976000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D26" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1626.053</v>
-      </c>
-      <c r="G26" t="n">
-        <v>571279.8976000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>75</v>
-      </c>
-      <c r="D27" t="n">
-        <v>75</v>
-      </c>
-      <c r="E27" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7630</v>
-      </c>
-      <c r="G27" t="n">
-        <v>578909.8976000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>75</v>
-      </c>
-      <c r="C28" t="n">
-        <v>75</v>
-      </c>
-      <c r="D28" t="n">
-        <v>75</v>
-      </c>
-      <c r="E28" t="n">
-        <v>75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1860</v>
-      </c>
-      <c r="G28" t="n">
-        <v>578909.8976000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="C29" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E29" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1507</v>
-      </c>
-      <c r="G29" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D30" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>530</v>
-      </c>
-      <c r="G30" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E31" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.2082</v>
-      </c>
-      <c r="G31" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>30488.3664</v>
-      </c>
-      <c r="G32" t="n">
-        <v>607891.2640000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10862</v>
-      </c>
-      <c r="G33" t="n">
-        <v>618753.2640000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6706</v>
-      </c>
-      <c r="G34" t="n">
-        <v>618753.2640000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G35" t="n">
-        <v>620253.2640000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F36" t="n">
-        <v>12110.4815</v>
-      </c>
-      <c r="G36" t="n">
-        <v>608142.7825000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C37" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E37" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>865.8327</v>
-      </c>
-      <c r="G37" t="n">
-        <v>607276.9498000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>75</v>
-      </c>
-      <c r="C38" t="n">
-        <v>75</v>
-      </c>
-      <c r="D38" t="n">
-        <v>75</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75</v>
-      </c>
-      <c r="F38" t="n">
-        <v>910</v>
-      </c>
-      <c r="G38" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>75</v>
-      </c>
-      <c r="C39" t="n">
-        <v>75</v>
-      </c>
-      <c r="D39" t="n">
-        <v>75</v>
-      </c>
-      <c r="E39" t="n">
-        <v>75</v>
-      </c>
-      <c r="F39" t="n">
-        <v>114.6666</v>
-      </c>
-      <c r="G39" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>75</v>
-      </c>
-      <c r="C40" t="n">
-        <v>75</v>
-      </c>
-      <c r="D40" t="n">
-        <v>75</v>
-      </c>
-      <c r="E40" t="n">
-        <v>75</v>
-      </c>
-      <c r="F40" t="n">
-        <v>547</v>
-      </c>
-      <c r="G40" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>75</v>
-      </c>
-      <c r="C41" t="n">
-        <v>75</v>
-      </c>
-      <c r="D41" t="n">
-        <v>75</v>
-      </c>
-      <c r="E41" t="n">
-        <v>75</v>
-      </c>
-      <c r="F41" t="n">
-        <v>6538.3334</v>
-      </c>
-      <c r="G41" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>43821.7115</v>
-      </c>
-      <c r="G42" t="n">
-        <v>650188.6613000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>75</v>
-      </c>
-      <c r="C43" t="n">
-        <v>75</v>
-      </c>
-      <c r="D43" t="n">
-        <v>75</v>
-      </c>
-      <c r="E43" t="n">
-        <v>75</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G43" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>75</v>
-      </c>
-      <c r="C44" t="n">
-        <v>75</v>
-      </c>
-      <c r="D44" t="n">
-        <v>75</v>
-      </c>
-      <c r="E44" t="n">
-        <v>75</v>
-      </c>
-      <c r="F44" t="n">
-        <v>520</v>
-      </c>
-      <c r="G44" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>75</v>
-      </c>
-      <c r="C45" t="n">
-        <v>75</v>
-      </c>
-      <c r="D45" t="n">
-        <v>75</v>
-      </c>
-      <c r="E45" t="n">
-        <v>75</v>
-      </c>
-      <c r="F45" t="n">
-        <v>520</v>
-      </c>
-      <c r="G45" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>21597.8988</v>
-      </c>
-      <c r="G46" t="n">
-        <v>670736.5601000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>75</v>
-      </c>
-      <c r="C47" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>75</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19191.8676</v>
-      </c>
-      <c r="G47" t="n">
-        <v>651544.6925000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>75</v>
-      </c>
-      <c r="C48" t="n">
-        <v>75</v>
-      </c>
-      <c r="D48" t="n">
-        <v>75</v>
-      </c>
-      <c r="E48" t="n">
-        <v>75</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11442.4609</v>
-      </c>
-      <c r="G48" t="n">
-        <v>640102.2316000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>38472.0579</v>
-      </c>
-      <c r="G49" t="n">
-        <v>601630.1737000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C50" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G50" t="n">
-        <v>601830.1737000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C51" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E51" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>675.8511999999999</v>
-      </c>
-      <c r="G51" t="n">
-        <v>601830.1737000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="C52" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="E52" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>8766.6648</v>
-      </c>
-      <c r="G52" t="n">
-        <v>593063.5089000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D53" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>35042.3186</v>
-      </c>
-      <c r="G53" t="n">
-        <v>628105.8275000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2477,11 +2179,13 @@
         <v>626235.8275000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J54" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2516,11 +2220,13 @@
         <v>612413.0088000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>74.7</v>
+      </c>
       <c r="J55" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2555,11 +2261,13 @@
         <v>599193.8854000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>74.59999999999999</v>
+      </c>
       <c r="J56" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2594,11 +2302,13 @@
         <v>608720.5832000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J57" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2633,11 +2343,13 @@
         <v>602720.5832000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>74.8</v>
+      </c>
       <c r="J58" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2672,11 +2384,13 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J59" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2711,11 +2425,13 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J60" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2750,11 +2466,13 @@
         <v>607985.5120000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J61" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2789,11 +2507,13 @@
         <v>639905.9955000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J62" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2828,11 +2548,13 @@
         <v>681177.9762</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J63" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2871,7 +2593,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2910,7 +2632,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2949,7 +2671,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2988,7 +2710,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3027,7 +2749,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3062,19 +2784,19 @@
         <v>770656.7447</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>1.027042723631509</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -3101,17 +2823,11 @@
         <v>741178.098</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>75</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3140,17 +2856,11 @@
         <v>726191.0851</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>75</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3179,17 +2889,11 @@
         <v>717399.6654000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>75</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3218,17 +2922,11 @@
         <v>727664.1945000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>75</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3257,17 +2955,11 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>75</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3296,17 +2988,11 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>75</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3335,17 +3021,11 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>75</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3374,17 +3054,11 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>75</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3413,17 +3087,11 @@
         <v>743509.7870000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>75</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3452,17 +3120,11 @@
         <v>730466.0713000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>75</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3491,17 +3153,11 @@
         <v>722966.0713000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>75</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3530,17 +3186,11 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>75</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3569,17 +3219,11 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>75</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3608,17 +3252,11 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>75</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3647,17 +3285,11 @@
         <v>691691.6815000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>75</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3686,17 +3318,11 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>75</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3725,17 +3351,11 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>75</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3764,17 +3384,11 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>75</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3803,17 +3417,11 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>75</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3842,17 +3450,11 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>75</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3881,17 +3483,11 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>75</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3920,17 +3516,11 @@
         <v>708656.7053000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>75</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3959,17 +3549,11 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>75</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3998,17 +3582,11 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>75</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4037,17 +3615,11 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4076,17 +3648,11 @@
         <v>777903.3271000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>75</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4115,17 +3681,11 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>75</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4154,17 +3714,11 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>75</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4193,17 +3747,11 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>75</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4232,17 +3780,11 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>75</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4271,17 +3813,11 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>75</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4313,14 +3849,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>75</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>75</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4391,14 +3915,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>75</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +3948,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>75</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4469,14 +3981,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>75</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +4014,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>75</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4547,14 +4047,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>75</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4583,19 +4077,13 @@
         <v>926122.7379000003</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>75</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>1.023</v>
+        <v>1</v>
       </c>
       <c r="M108" t="inlineStr"/>
     </row>
@@ -4622,7 +4110,7 @@
         <v>941192.3331000003</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4655,7 +4143,7 @@
         <v>941202.3331000003</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4688,7 +4176,7 @@
         <v>899182.3331000003</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4721,7 +4209,7 @@
         <v>881182.3331000003</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4754,7 +4242,7 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4787,7 +4275,7 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4820,7 +4308,7 @@
         <v>882355.2267000002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4853,7 +4341,7 @@
         <v>1067419.793769347</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4886,7 +4374,7 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4919,7 +4407,7 @@
         <v>1082846.797869347</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4952,7 +4440,7 @@
         <v>1096716.156369347</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4985,7 +4473,7 @@
         <v>1128615.101169347</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5018,7 +4506,7 @@
         <v>1118410.988869347</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5051,7 +4539,7 @@
         <v>1108435.988869347</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5084,7 +4572,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5117,7 +4605,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5546,7 +5034,7 @@
         <v>1105580.459769347</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5579,7 +5067,7 @@
         <v>1098250.616869347</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5612,7 +5100,7 @@
         <v>1097857.918469347</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5645,7 +5133,7 @@
         <v>1108046.181869347</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5678,7 +5166,7 @@
         <v>1108197.955869347</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5711,7 +5199,7 @@
         <v>1106837.955869347</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5744,7 +5232,7 @@
         <v>1095553.785469347</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5777,7 +5265,7 @@
         <v>1094735.363069347</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5810,7 +5298,7 @@
         <v>1092760.313069347</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5843,7 +5331,7 @@
         <v>1092482.636669347</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5876,7 +5364,7 @@
         <v>1092660.916869347</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5909,7 +5397,7 @@
         <v>1092660.916869347</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5942,7 +5430,7 @@
         <v>1104342.686069346</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5975,7 +5463,7 @@
         <v>1103561.686069346</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6008,7 +5496,7 @@
         <v>1101987.300069347</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -7889,7 +7377,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7922,7 +7410,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7955,7 +7443,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7988,7 +7476,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8021,7 +7509,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8054,7 +7542,7 @@
         <v>1117900.051507312</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8087,7 +7575,7 @@
         <v>1115900.051507312</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8120,7 +7608,7 @@
         <v>1110900.051507312</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8197,6 +7685,6 @@
       <c r="M217" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>575580.4469000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>575475.0803000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>594962.4924000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>594942.4924000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>587745.8097000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>590136.8097000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>75</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +729,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +768,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>75</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>75</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1116,19 @@
         <v>600040.4762000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1160,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1277,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1352,19 @@
         <v>571279.8976000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>75</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1513,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>75</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>75</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1591,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>75</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1630,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>75</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1669,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>75</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1708,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>75</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1747,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>75</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1786,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>75</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1825,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>75</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1864,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>75</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1903,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>75</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1942,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>75</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1981,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>75</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>75</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2056,19 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J43" t="n">
+        <v>75</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2100,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>75</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2136,19 @@
         <v>649138.6613000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>75</v>
+      </c>
+      <c r="J45" t="n">
+        <v>75</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>75</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2219,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>75</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2258,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>75</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2297,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>75</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>75</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>75</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,15 +2411,17 @@
         <v>593063.5089000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,17 +2450,15 @@
         <v>628105.8275000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2179,13 +2489,11 @@
         <v>626235.8275000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2220,13 +2528,11 @@
         <v>612413.0088000002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2261,13 +2567,11 @@
         <v>599193.8854000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>74.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2302,13 +2606,11 @@
         <v>608720.5832000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2343,13 +2645,11 @@
         <v>602720.5832000001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2384,13 +2684,11 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2425,13 +2723,11 @@
         <v>616254.7302000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2466,13 +2762,11 @@
         <v>607985.5120000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2507,13 +2801,11 @@
         <v>639905.9955000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2548,13 +2840,11 @@
         <v>681177.9762</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2593,7 +2883,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2632,7 +2922,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2671,7 +2961,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2710,7 +3000,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2749,7 +3039,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2784,19 +3074,19 @@
         <v>770656.7447</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.027042723631509</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -2823,11 +3113,17 @@
         <v>741178.098</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>75</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2856,11 +3152,17 @@
         <v>726191.0851</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>75</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2889,11 +3191,17 @@
         <v>717399.6654000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>75</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2922,11 +3230,17 @@
         <v>727664.1945000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>75</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2955,11 +3269,17 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>75</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2988,11 +3308,17 @@
         <v>721626.3090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>75</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3021,11 +3347,17 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>75</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3054,11 +3386,17 @@
         <v>750687.7427000002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>75</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3087,11 +3425,17 @@
         <v>743509.7870000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>75</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3120,11 +3464,17 @@
         <v>730466.0713000002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>75</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +3503,17 @@
         <v>722966.0713000002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>75</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3186,11 +3542,17 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>75</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +3581,17 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>75</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3252,11 +3620,17 @@
         <v>696644.5309000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>75</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3659,17 @@
         <v>691691.6815000002</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>75</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3318,11 +3698,17 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>75</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3737,17 @@
         <v>708009.2736000002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>75</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3776,17 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>75</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3815,17 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>75</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3854,17 @@
         <v>713279.2736000002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>75</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3483,11 +3893,17 @@
         <v>704279.2736000002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>75</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3932,17 @@
         <v>708656.7053000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>75</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3549,11 +3971,17 @@
         <v>730098.1767000002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>75</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3582,11 +4010,17 @@
         <v>742098.1767000002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>75</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3615,11 +4049,17 @@
         <v>763340.3896000002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>75</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +4088,17 @@
         <v>777903.3271000002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>75</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3681,11 +4127,17 @@
         <v>851310.6000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>75</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3714,11 +4166,17 @@
         <v>914604.8574000002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>75</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,11 +4205,17 @@
         <v>993675.8193000002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>75</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3783,10 +4247,16 @@
         <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>75</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>1.044333333333334</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -3846,7 +4316,7 @@
         <v>986364.8584000003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3879,7 +4349,7 @@
         <v>977136.6333000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4374,7 +4844,7 @@
         <v>1059937.657869347</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4407,7 +4877,7 @@
         <v>1082846.797869347</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4473,7 +4943,7 @@
         <v>1128615.101169347</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4506,7 +4976,7 @@
         <v>1118410.988869347</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4539,7 +5009,7 @@
         <v>1108435.988869347</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4572,7 +5042,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4605,7 +5075,7 @@
         <v>1115316.735469347</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4638,7 +5108,7 @@
         <v>1112350.657269347</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4671,7 +5141,7 @@
         <v>1100658.169769347</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4704,7 +5174,7 @@
         <v>1113624.248069347</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4737,7 +5207,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4770,7 +5240,7 @@
         <v>1115624.248069347</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4803,7 +5273,7 @@
         <v>1110998.357569347</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4836,7 +5306,7 @@
         <v>1115308.357569347</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4869,7 +5339,7 @@
         <v>1103736.260369347</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4935,7 +5405,7 @@
         <v>1096916.260369347</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-01 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1701</v>
       </c>
       <c r="G2" t="n">
-        <v>575580.4469000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>105.3666</v>
       </c>
       <c r="G3" t="n">
-        <v>575475.0803000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
         <v>75</v>
       </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>19487.4121</v>
       </c>
       <c r="G4" t="n">
-        <v>594962.4924000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>594942.4924000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>75.5</v>
       </c>
       <c r="I5" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>10530</v>
       </c>
       <c r="G6" t="n">
-        <v>594942.4924000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
         <v>75</v>
       </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>7196.6827</v>
       </c>
       <c r="G7" t="n">
-        <v>587745.8097000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
         <v>75</v>
       </c>
-      <c r="J7" t="n">
-        <v>75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,21 @@
         <v>2391</v>
       </c>
       <c r="G8" t="n">
-        <v>590136.8097000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,24 +695,21 @@
         <v>1067.6836</v>
       </c>
       <c r="G9" t="n">
-        <v>589069.1261000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>75</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,24 +731,21 @@
         <v>1071</v>
       </c>
       <c r="G10" t="n">
-        <v>590140.1261000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,24 +767,21 @@
         <v>491.1808</v>
       </c>
       <c r="G11" t="n">
-        <v>590140.1261000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>75</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,24 +803,21 @@
         <v>15.9814</v>
       </c>
       <c r="G12" t="n">
-        <v>590156.1075000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>75</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -879,24 +839,21 @@
         <v>66.5778</v>
       </c>
       <c r="G13" t="n">
-        <v>590089.5297000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -918,24 +875,21 @@
         <v>9950</v>
       </c>
       <c r="G14" t="n">
-        <v>600039.5297000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +911,21 @@
         <v>5043.1593</v>
       </c>
       <c r="G15" t="n">
-        <v>594996.3704000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>75</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +947,21 @@
         <v>1900</v>
       </c>
       <c r="G16" t="n">
-        <v>593096.3704000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>75</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +983,21 @@
         <v>540</v>
       </c>
       <c r="G17" t="n">
-        <v>592556.3704000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>75</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +1019,23 @@
         <v>505.8942</v>
       </c>
       <c r="G18" t="n">
-        <v>592050.4762000002</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>74.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,26 +1057,23 @@
         <v>7990</v>
       </c>
       <c r="G19" t="n">
-        <v>600040.4762000002</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1154,24 +1095,21 @@
         <v>1536.3859</v>
       </c>
       <c r="G20" t="n">
-        <v>600040.4762000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>75</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,24 +1131,21 @@
         <v>750</v>
       </c>
       <c r="G21" t="n">
-        <v>600040.4762000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>75</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,24 +1167,21 @@
         <v>10000</v>
       </c>
       <c r="G22" t="n">
-        <v>610040.4762000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>75</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,24 +1203,21 @@
         <v>7400</v>
       </c>
       <c r="G23" t="n">
-        <v>610040.4762000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>75</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,24 +1239,23 @@
         <v>38760.5786</v>
       </c>
       <c r="G24" t="n">
-        <v>571279.8976000001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,26 +1277,21 @@
         <v>4000</v>
       </c>
       <c r="G25" t="n">
-        <v>571279.8976000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,24 +1313,23 @@
         <v>1626.053</v>
       </c>
       <c r="G26" t="n">
-        <v>571279.8976000001</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>74.90000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>75</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1429,24 +1351,21 @@
         <v>7630</v>
       </c>
       <c r="G27" t="n">
-        <v>578909.8976000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>75</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1468,24 +1387,21 @@
         <v>1860</v>
       </c>
       <c r="G28" t="n">
-        <v>578909.8976000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>75</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1507,24 +1423,21 @@
         <v>1507</v>
       </c>
       <c r="G29" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>75</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,24 +1459,21 @@
         <v>530</v>
       </c>
       <c r="G30" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>75</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1585,24 +1495,21 @@
         <v>3.2082</v>
       </c>
       <c r="G31" t="n">
-        <v>577402.8976000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>75</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,24 +1531,21 @@
         <v>30488.3664</v>
       </c>
       <c r="G32" t="n">
-        <v>607891.2640000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>75</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1663,24 +1567,21 @@
         <v>10862</v>
       </c>
       <c r="G33" t="n">
-        <v>618753.2640000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>75</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,24 +1603,21 @@
         <v>6706</v>
       </c>
       <c r="G34" t="n">
-        <v>618753.2640000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>75</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1741,24 +1639,21 @@
         <v>1500</v>
       </c>
       <c r="G35" t="n">
-        <v>620253.2640000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>75</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,24 +1675,21 @@
         <v>12110.4815</v>
       </c>
       <c r="G36" t="n">
-        <v>608142.7825000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>75</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1819,24 +1711,21 @@
         <v>865.8327</v>
       </c>
       <c r="G37" t="n">
-        <v>607276.9498000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>75</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,24 +1747,21 @@
         <v>910</v>
       </c>
       <c r="G38" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>75</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1897,24 +1783,21 @@
         <v>114.6666</v>
       </c>
       <c r="G39" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>75</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1936,24 +1819,21 @@
         <v>547</v>
       </c>
       <c r="G40" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>75</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1975,24 +1855,21 @@
         <v>6538.3334</v>
       </c>
       <c r="G41" t="n">
-        <v>606366.9498000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>75</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,24 +1891,21 @@
         <v>43821.7115</v>
       </c>
       <c r="G42" t="n">
-        <v>650188.6613000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>75</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2053,26 +1927,21 @@
         <v>1050</v>
       </c>
       <c r="G43" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,24 +1963,21 @@
         <v>520</v>
       </c>
       <c r="G44" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>75</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2133,26 +1999,21 @@
         <v>520</v>
       </c>
       <c r="G45" t="n">
-        <v>649138.6613000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>75</v>
       </c>
-      <c r="J45" t="n">
-        <v>75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,24 +2035,21 @@
         <v>21597.8988</v>
       </c>
       <c r="G46" t="n">
-        <v>670736.5601000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>75</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2213,24 +2071,21 @@
         <v>19191.8676</v>
       </c>
       <c r="G47" t="n">
-        <v>651544.6925000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>75</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,24 +2107,21 @@
         <v>11442.4609</v>
       </c>
       <c r="G48" t="n">
-        <v>640102.2316000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>75</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2291,24 +2143,21 @@
         <v>38472.0579</v>
       </c>
       <c r="G49" t="n">
-        <v>601630.1737000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>75</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,24 +2179,21 @@
         <v>200</v>
       </c>
       <c r="G50" t="n">
-        <v>601830.1737000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>75</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2369,24 +2215,21 @@
         <v>675.8511999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>601830.1737000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>75</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2408,24 +2251,21 @@
         <v>8766.6648</v>
       </c>
       <c r="G52" t="n">
-        <v>593063.5089000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>75</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2447,24 +2287,21 @@
         <v>35042.3186</v>
       </c>
       <c r="G53" t="n">
-        <v>628105.8275000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>75</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,24 +2323,21 @@
         <v>1870</v>
       </c>
       <c r="G54" t="n">
-        <v>626235.8275000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>75</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2525,24 +2359,21 @@
         <v>13822.8187</v>
       </c>
       <c r="G55" t="n">
-        <v>612413.0088000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>75</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>75</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2564,24 +2395,21 @@
         <v>13219.1234</v>
       </c>
       <c r="G56" t="n">
-        <v>599193.8854000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>75</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>75</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2603,24 +2431,21 @@
         <v>9526.6978</v>
       </c>
       <c r="G57" t="n">
-        <v>608720.5832000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>75</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2642,24 +2467,21 @@
         <v>6000</v>
       </c>
       <c r="G58" t="n">
-        <v>602720.5832000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>75</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>75</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2681,24 +2503,21 @@
         <v>13534.147</v>
       </c>
       <c r="G59" t="n">
-        <v>616254.7302000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>75</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>75</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2720,24 +2539,21 @@
         <v>1465.853</v>
       </c>
       <c r="G60" t="n">
-        <v>616254.7302000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>75</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2759,24 +2575,21 @@
         <v>8269.218199999999</v>
       </c>
       <c r="G61" t="n">
-        <v>607985.5120000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>75</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>75</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2798,24 +2611,21 @@
         <v>31920.4835</v>
       </c>
       <c r="G62" t="n">
-        <v>639905.9955000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>75</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>75</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2837,24 +2647,21 @@
         <v>41271.9807</v>
       </c>
       <c r="G63" t="n">
-        <v>681177.9762</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>75</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2876,24 +2683,21 @@
         <v>11039.4043</v>
       </c>
       <c r="G64" t="n">
-        <v>692217.3805000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>75</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>75</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2915,24 +2719,21 @@
         <v>3463.0284</v>
       </c>
       <c r="G65" t="n">
-        <v>695680.4089</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>75</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>75</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2954,24 +2755,21 @@
         <v>17092.3838</v>
       </c>
       <c r="G66" t="n">
-        <v>695680.4089</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>75</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>75</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2993,24 +2791,21 @@
         <v>22107.9539</v>
       </c>
       <c r="G67" t="n">
-        <v>717788.3628</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>75</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>75</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3032,24 +2827,21 @@
         <v>31941.1803</v>
       </c>
       <c r="G68" t="n">
-        <v>749729.5431</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>75</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>75</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3071,24 +2863,21 @@
         <v>20927.2016</v>
       </c>
       <c r="G69" t="n">
-        <v>770656.7447</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>75</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>75</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3110,24 +2899,21 @@
         <v>29478.6467</v>
       </c>
       <c r="G70" t="n">
-        <v>741178.098</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>75</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>75</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3149,24 +2935,21 @@
         <v>14987.0129</v>
       </c>
       <c r="G71" t="n">
-        <v>726191.0851</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>75</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>75</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3188,24 +2971,21 @@
         <v>8791.4197</v>
       </c>
       <c r="G72" t="n">
-        <v>717399.6654000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>75</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>75</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3227,24 +3007,21 @@
         <v>10264.5291</v>
       </c>
       <c r="G73" t="n">
-        <v>727664.1945000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>75</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>75</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3266,24 +3043,21 @@
         <v>6037.8855</v>
       </c>
       <c r="G74" t="n">
-        <v>721626.3090000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>75</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>75</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3305,24 +3079,21 @@
         <v>12000</v>
       </c>
       <c r="G75" t="n">
-        <v>721626.3090000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>75</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>75</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3344,24 +3115,21 @@
         <v>29061.4337</v>
       </c>
       <c r="G76" t="n">
-        <v>750687.7427000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>75</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>75</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3383,24 +3151,21 @@
         <v>168.2931</v>
       </c>
       <c r="G77" t="n">
-        <v>750687.7427000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>75</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>75</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3422,24 +3187,21 @@
         <v>7177.9557</v>
       </c>
       <c r="G78" t="n">
-        <v>743509.7870000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>75</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>75</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3461,24 +3223,21 @@
         <v>13043.7157</v>
       </c>
       <c r="G79" t="n">
-        <v>730466.0713000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>75</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>75</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3500,24 +3259,21 @@
         <v>7500</v>
       </c>
       <c r="G80" t="n">
-        <v>722966.0713000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>75</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>75</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3539,24 +3295,21 @@
         <v>26321.5404</v>
       </c>
       <c r="G81" t="n">
-        <v>696644.5309000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>75</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>75</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3578,24 +3331,21 @@
         <v>9525.911700000001</v>
       </c>
       <c r="G82" t="n">
-        <v>696644.5309000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>75</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>75</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3617,24 +3367,21 @@
         <v>355.4149</v>
       </c>
       <c r="G83" t="n">
-        <v>696644.5309000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>75</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>75</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3656,24 +3403,21 @@
         <v>4952.8494</v>
       </c>
       <c r="G84" t="n">
-        <v>691691.6815000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>75</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>75</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3695,24 +3439,21 @@
         <v>16317.5921</v>
       </c>
       <c r="G85" t="n">
-        <v>708009.2736000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>75</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>75</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3734,24 +3475,21 @@
         <v>2993.0098</v>
       </c>
       <c r="G86" t="n">
-        <v>708009.2736000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>75</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>75</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3773,24 +3511,21 @@
         <v>5270</v>
       </c>
       <c r="G87" t="n">
-        <v>713279.2736000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>75</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>75</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3812,24 +3547,21 @@
         <v>11037.8803</v>
       </c>
       <c r="G88" t="n">
-        <v>713279.2736000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>75</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>75</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3851,24 +3583,21 @@
         <v>3017.8375</v>
       </c>
       <c r="G89" t="n">
-        <v>713279.2736000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>75</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>75</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3890,24 +3619,21 @@
         <v>9000</v>
       </c>
       <c r="G90" t="n">
-        <v>704279.2736000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>75</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>75</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3929,24 +3655,21 @@
         <v>4377.4317</v>
       </c>
       <c r="G91" t="n">
-        <v>708656.7053000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>75</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>75</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3968,24 +3691,21 @@
         <v>21441.4714</v>
       </c>
       <c r="G92" t="n">
-        <v>730098.1767000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>75</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>75</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4007,24 +3727,21 @@
         <v>12000</v>
       </c>
       <c r="G93" t="n">
-        <v>742098.1767000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>75</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>75</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,24 +3763,21 @@
         <v>21242.2129</v>
       </c>
       <c r="G94" t="n">
-        <v>763340.3896000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>75</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4085,24 +3799,21 @@
         <v>14562.9375</v>
       </c>
       <c r="G95" t="n">
-        <v>777903.3271000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>75</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>75</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4124,24 +3835,21 @@
         <v>73407.2729</v>
       </c>
       <c r="G96" t="n">
-        <v>851310.6000000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>75</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>75</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4163,24 +3871,21 @@
         <v>63294.2574</v>
       </c>
       <c r="G97" t="n">
-        <v>914604.8574000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>75</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>75</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4202,24 +3907,21 @@
         <v>79070.96189999999</v>
       </c>
       <c r="G98" t="n">
-        <v>993675.8193000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>75</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>75</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4241,24 +3943,21 @@
         <v>101539.6848</v>
       </c>
       <c r="G99" t="n">
-        <v>993675.8193000002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>75</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1.044333333333334</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>75</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4280,18 +3979,21 @@
         <v>14346.0585</v>
       </c>
       <c r="G100" t="n">
-        <v>993675.8193000002</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>75</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1.044333333333334</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4313,18 +4015,15 @@
         <v>7310.9609</v>
       </c>
       <c r="G101" t="n">
-        <v>986364.8584000003</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4346,18 +4045,15 @@
         <v>9228.2251</v>
       </c>
       <c r="G102" t="n">
-        <v>977136.6333000002</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4379,18 +4075,15 @@
         <v>3620</v>
       </c>
       <c r="G103" t="n">
-        <v>977136.6333000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4412,18 +4105,15 @@
         <v>4102.5793</v>
       </c>
       <c r="G104" t="n">
-        <v>973034.0540000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4445,18 +4135,15 @@
         <v>20980.5323</v>
       </c>
       <c r="G105" t="n">
-        <v>973034.0540000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4478,18 +4165,15 @@
         <v>427.8981</v>
       </c>
       <c r="G106" t="n">
-        <v>973034.0540000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4511,18 +4195,15 @@
         <v>18985.2355</v>
       </c>
       <c r="G107" t="n">
-        <v>954048.8185000003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4544,18 +4225,15 @@
         <v>27926.0806</v>
       </c>
       <c r="G108" t="n">
-        <v>926122.7379000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4577,18 +4255,15 @@
         <v>15069.5952</v>
       </c>
       <c r="G109" t="n">
-        <v>941192.3331000003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4610,18 +4285,15 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>941202.3331000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4643,18 +4315,15 @@
         <v>42020</v>
       </c>
       <c r="G111" t="n">
-        <v>899182.3331000003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4676,18 +4345,15 @@
         <v>18000</v>
       </c>
       <c r="G112" t="n">
-        <v>881182.3331000003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4709,18 +4375,15 @@
         <v>1172.8936</v>
       </c>
       <c r="G113" t="n">
-        <v>882355.2267000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4742,18 +4405,15 @@
         <v>122.3738</v>
       </c>
       <c r="G114" t="n">
-        <v>882355.2267000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4775,18 +4435,15 @@
         <v>6085.1071</v>
       </c>
       <c r="G115" t="n">
-        <v>882355.2267000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,18 +4465,15 @@
         <v>185064.5670693467</v>
       </c>
       <c r="G116" t="n">
-        <v>1067419.793769347</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4841,18 +4495,15 @@
         <v>7482.1359</v>
       </c>
       <c r="G117" t="n">
-        <v>1059937.657869347</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4874,18 +4525,15 @@
         <v>22909.14</v>
       </c>
       <c r="G118" t="n">
-        <v>1082846.797869347</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4907,18 +4555,15 @@
         <v>13869.3585</v>
       </c>
       <c r="G119" t="n">
-        <v>1096716.156369347</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4940,18 +4585,15 @@
         <v>31898.9448</v>
       </c>
       <c r="G120" t="n">
-        <v>1128615.101169347</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4973,18 +4615,15 @@
         <v>10204.1123</v>
       </c>
       <c r="G121" t="n">
-        <v>1118410.988869347</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5006,18 +4645,15 @@
         <v>9975</v>
       </c>
       <c r="G122" t="n">
-        <v>1108435.988869347</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5039,18 +4675,15 @@
         <v>6880.7466</v>
       </c>
       <c r="G123" t="n">
-        <v>1115316.735469347</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5072,18 +4705,15 @@
         <v>2969.9653</v>
       </c>
       <c r="G124" t="n">
-        <v>1115316.735469347</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5105,18 +4735,15 @@
         <v>2966.0782</v>
       </c>
       <c r="G125" t="n">
-        <v>1112350.657269347</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5138,18 +4765,15 @@
         <v>11692.4875</v>
       </c>
       <c r="G126" t="n">
-        <v>1100658.169769347</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5171,18 +4795,15 @@
         <v>12966.0783</v>
       </c>
       <c r="G127" t="n">
-        <v>1113624.248069347</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5204,18 +4825,15 @@
         <v>2000</v>
       </c>
       <c r="G128" t="n">
-        <v>1115624.248069347</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5237,18 +4855,15 @@
         <v>2490</v>
       </c>
       <c r="G129" t="n">
-        <v>1115624.248069347</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5270,18 +4885,15 @@
         <v>4625.8905</v>
       </c>
       <c r="G130" t="n">
-        <v>1110998.357569347</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5303,18 +4915,15 @@
         <v>4310</v>
       </c>
       <c r="G131" t="n">
-        <v>1115308.357569347</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5336,18 +4945,15 @@
         <v>11572.0972</v>
       </c>
       <c r="G132" t="n">
-        <v>1103736.260369347</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5369,18 +4975,15 @@
         <v>386.597</v>
       </c>
       <c r="G133" t="n">
-        <v>1103736.260369347</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5402,18 +5005,15 @@
         <v>6820</v>
       </c>
       <c r="G134" t="n">
-        <v>1096916.260369347</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5435,18 +5035,15 @@
         <v>1448.0284</v>
       </c>
       <c r="G135" t="n">
-        <v>1095468.231969347</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5468,18 +5065,15 @@
         <v>10112.2279</v>
       </c>
       <c r="G136" t="n">
-        <v>1105580.459869347</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5501,18 +5095,15 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>1105580.459769347</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5534,18 +5125,15 @@
         <v>7329.8429</v>
       </c>
       <c r="G138" t="n">
-        <v>1098250.616869347</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5567,18 +5155,15 @@
         <v>392.6984</v>
       </c>
       <c r="G139" t="n">
-        <v>1097857.918469347</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5600,18 +5185,15 @@
         <v>10188.2634</v>
       </c>
       <c r="G140" t="n">
-        <v>1108046.181869347</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5633,18 +5215,15 @@
         <v>151.774</v>
       </c>
       <c r="G141" t="n">
-        <v>1108197.955869347</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5666,18 +5245,15 @@
         <v>1360</v>
       </c>
       <c r="G142" t="n">
-        <v>1106837.955869347</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5699,18 +5275,15 @@
         <v>11284.1704</v>
       </c>
       <c r="G143" t="n">
-        <v>1095553.785469347</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5732,18 +5305,15 @@
         <v>818.4224</v>
       </c>
       <c r="G144" t="n">
-        <v>1094735.363069347</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5765,18 +5335,15 @@
         <v>1975.05</v>
       </c>
       <c r="G145" t="n">
-        <v>1092760.313069347</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5798,18 +5365,15 @@
         <v>277.6764</v>
       </c>
       <c r="G146" t="n">
-        <v>1092482.636669347</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5831,18 +5395,15 @@
         <v>178.2802</v>
       </c>
       <c r="G147" t="n">
-        <v>1092660.916869347</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5864,18 +5425,15 @@
         <v>39.8936</v>
       </c>
       <c r="G148" t="n">
-        <v>1092660.916869347</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5897,18 +5455,15 @@
         <v>11681.7692</v>
       </c>
       <c r="G149" t="n">
-        <v>1104342.686069346</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5930,18 +5485,15 @@
         <v>781</v>
       </c>
       <c r="G150" t="n">
-        <v>1103561.686069346</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5963,18 +5515,15 @@
         <v>1574.386</v>
       </c>
       <c r="G151" t="n">
-        <v>1101987.300069347</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5996,18 +5545,15 @@
         <v>691.6295</v>
       </c>
       <c r="G152" t="n">
-        <v>1101987.300069347</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6029,18 +5575,15 @@
         <v>5228.7581</v>
       </c>
       <c r="G153" t="n">
-        <v>1096758.541969347</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6062,18 +5605,15 @@
         <v>2750</v>
       </c>
       <c r="G154" t="n">
-        <v>1099508.541969347</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6095,18 +5635,15 @@
         <v>556</v>
       </c>
       <c r="G155" t="n">
-        <v>1099508.541969347</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6128,18 +5665,15 @@
         <v>3660</v>
       </c>
       <c r="G156" t="n">
-        <v>1103168.541969347</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6161,18 +5695,15 @@
         <v>1300.390117035111</v>
       </c>
       <c r="G157" t="n">
-        <v>1103168.541969347</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6194,18 +5725,15 @@
         <v>130</v>
       </c>
       <c r="G158" t="n">
-        <v>1103168.541969347</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6227,18 +5755,15 @@
         <v>3660</v>
       </c>
       <c r="G159" t="n">
-        <v>1103168.541969347</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6260,18 +5785,15 @@
         <v>1299</v>
       </c>
       <c r="G160" t="n">
-        <v>1103168.541969347</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6293,18 +5815,15 @@
         <v>39305.9369</v>
       </c>
       <c r="G161" t="n">
-        <v>1142474.478869347</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6326,18 +5845,15 @@
         <v>105.6297</v>
       </c>
       <c r="G162" t="n">
-        <v>1142368.849169347</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6359,18 +5875,15 @@
         <v>5000</v>
       </c>
       <c r="G163" t="n">
-        <v>1137368.849169347</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6392,18 +5905,15 @@
         <v>118.0571</v>
       </c>
       <c r="G164" t="n">
-        <v>1137368.849169347</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6425,18 +5935,15 @@
         <v>16649.1209</v>
       </c>
       <c r="G165" t="n">
-        <v>1154017.970069347</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6458,18 +5965,15 @@
         <v>12500</v>
       </c>
       <c r="G166" t="n">
-        <v>1154017.970069347</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6491,18 +5995,15 @@
         <v>12110</v>
       </c>
       <c r="G167" t="n">
-        <v>1166127.970069347</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6524,18 +6025,15 @@
         <v>14</v>
       </c>
       <c r="G168" t="n">
-        <v>1166127.970069347</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6557,18 +6055,15 @@
         <v>14</v>
       </c>
       <c r="G169" t="n">
-        <v>1166127.970069347</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6590,18 +6085,15 @@
         <v>88.5064</v>
       </c>
       <c r="G170" t="n">
-        <v>1166127.970069347</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6623,18 +6115,15 @@
         <v>88.8526</v>
       </c>
       <c r="G171" t="n">
-        <v>1166039.117469347</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6656,18 +6145,15 @@
         <v>10340</v>
       </c>
       <c r="G172" t="n">
-        <v>1155699.117469347</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6689,18 +6175,15 @@
         <v>1945.893089960887</v>
       </c>
       <c r="G173" t="n">
-        <v>1157645.010559307</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6722,18 +6205,15 @@
         <v>397.6679</v>
       </c>
       <c r="G174" t="n">
-        <v>1157247.342659307</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6755,18 +6235,15 @@
         <v>5914.3407</v>
       </c>
       <c r="G175" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6788,18 +6265,15 @@
         <v>5113.4288</v>
       </c>
       <c r="G176" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6821,18 +6295,15 @@
         <v>454.6106</v>
       </c>
       <c r="G177" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6854,18 +6325,15 @@
         <v>1620.4799</v>
       </c>
       <c r="G178" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6887,18 +6355,15 @@
         <v>507.3753</v>
       </c>
       <c r="G179" t="n">
-        <v>1151333.001959307</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6920,18 +6385,15 @@
         <v>7184.7085</v>
       </c>
       <c r="G180" t="n">
-        <v>1158517.710459307</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6953,18 +6415,15 @@
         <v>2388.9999</v>
       </c>
       <c r="G181" t="n">
-        <v>1160906.710359307</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6986,18 +6445,15 @@
         <v>38.9105</v>
       </c>
       <c r="G182" t="n">
-        <v>1160906.710359307</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7019,18 +6475,15 @@
         <v>815</v>
       </c>
       <c r="G183" t="n">
-        <v>1161721.710359307</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7052,18 +6505,15 @@
         <v>6223.855</v>
       </c>
       <c r="G184" t="n">
-        <v>1161721.710359307</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7085,18 +6535,15 @@
         <v>1051.8669</v>
       </c>
       <c r="G185" t="n">
-        <v>1160669.843459307</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7118,18 +6565,15 @@
         <v>10000</v>
       </c>
       <c r="G186" t="n">
-        <v>1160669.843459307</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7151,18 +6595,15 @@
         <v>129.1989</v>
       </c>
       <c r="G187" t="n">
-        <v>1160799.042359307</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7184,18 +6625,15 @@
         <v>4333.4349</v>
       </c>
       <c r="G188" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7217,18 +6655,15 @@
         <v>12.9366</v>
       </c>
       <c r="G189" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7250,18 +6685,15 @@
         <v>3000</v>
       </c>
       <c r="G190" t="n">
-        <v>1165132.477259307</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7283,18 +6715,15 @@
         <v>4938.3762</v>
       </c>
       <c r="G191" t="n">
-        <v>1170070.853459307</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7316,18 +6745,15 @@
         <v>10404.3477</v>
       </c>
       <c r="G192" t="n">
-        <v>1159666.505759307</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7349,18 +6775,15 @@
         <v>1014.9999</v>
       </c>
       <c r="G193" t="n">
-        <v>1160681.505659307</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7382,18 +6805,15 @@
         <v>14000.0744</v>
       </c>
       <c r="G194" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7415,18 +6835,15 @@
         <v>48890.6855</v>
       </c>
       <c r="G195" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7448,18 +6865,15 @@
         <v>41787.3711</v>
       </c>
       <c r="G196" t="n">
-        <v>1146681.431259307</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7481,18 +6895,15 @@
         <v>12.9042</v>
       </c>
       <c r="G197" t="n">
-        <v>1146668.527059307</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,18 +6925,15 @@
         <v>39174.1367</v>
       </c>
       <c r="G198" t="n">
-        <v>1185842.663759307</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7547,18 +6955,15 @@
         <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>1185852.663759307</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7580,18 +6985,15 @@
         <v>12.87</v>
       </c>
       <c r="G200" t="n">
-        <v>1185839.793759307</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7613,18 +7015,15 @@
         <v>3059.2086</v>
       </c>
       <c r="G201" t="n">
-        <v>1182780.585159307</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7646,18 +7045,15 @@
         <v>5148.005148005148</v>
       </c>
       <c r="G202" t="n">
-        <v>1187928.590307312</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7679,18 +7075,15 @@
         <v>4665.7328</v>
       </c>
       <c r="G203" t="n">
-        <v>1183262.857507312</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7712,18 +7105,15 @@
         <v>65362.806</v>
       </c>
       <c r="G204" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7745,18 +7135,15 @@
         <v>1253.5349</v>
       </c>
       <c r="G205" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7778,18 +7165,15 @@
         <v>6393.8078</v>
       </c>
       <c r="G206" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7811,18 +7195,15 @@
         <v>599.8528</v>
       </c>
       <c r="G207" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7844,18 +7225,15 @@
         <v>1210.2581</v>
       </c>
       <c r="G208" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7877,18 +7255,15 @@
         <v>13142</v>
       </c>
       <c r="G209" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7910,18 +7285,15 @@
         <v>16473</v>
       </c>
       <c r="G210" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7943,18 +7315,15 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7976,18 +7345,15 @@
         <v>43380.9456</v>
       </c>
       <c r="G212" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8009,18 +7375,15 @@
         <v>6088.474</v>
       </c>
       <c r="G213" t="n">
-        <v>1117900.051507312</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8042,18 +7405,15 @@
         <v>2000</v>
       </c>
       <c r="G214" t="n">
-        <v>1115900.051507312</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8075,18 +7435,15 @@
         <v>5000</v>
       </c>
       <c r="G215" t="n">
-        <v>1110900.051507312</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8108,18 +7465,15 @@
         <v>3521.7</v>
       </c>
       <c r="G216" t="n">
-        <v>1110900.051507312</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8141,18 +7495,15 @@
         <v>543.4585</v>
       </c>
       <c r="G217" t="n">
-        <v>1111443.510007312</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
